--- a/src/test/resources/docs/ITSM-DEVOPS接口对接-接口规范&参数说明.xlsx
+++ b/src/test/resources/docs/ITSM-DEVOPS接口对接-接口规范&参数说明.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\slicee\ws\gitws\kvps\src\test\resources\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CDB8B8-15B1-4E80-BCC6-BA93F0D8F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口列表" sheetId="3" r:id="rId1"/>
     <sheet name="DEVOPS接口" sheetId="4" r:id="rId2"/>
     <sheet name="接口对接说明" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="424">
   <si>
     <t>No.</t>
   </si>
@@ -785,9 +801,6 @@
   </si>
   <si>
     <t>流程ID</t>
-  </si>
-  <si>
-    <t>approvalNodes 对象结构</t>
   </si>
   <si>
     <t>项目流程记录</t>
@@ -1566,12 +1579,6 @@
     <t>与UAT结果回传合并一个接口</t>
   </si>
   <si>
-    <t>需求评审</t>
-  </si>
-  <si>
-    <t>流程评审的节点序列，ApproveNodes</t>
-  </si>
-  <si>
     <t>实体数据查询</t>
   </si>
   <si>
@@ -1617,18 +1624,44 @@
       <t xml:space="preserve">ID </t>
     </r>
   </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>21位的纯数字 ：202111291751105649078</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间戳ID，OID为对象ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalNodes 对象结构</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程评审的节点序列，approvalNodes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审记录</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/oa/project/update</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1659,14 +1692,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3" tint="0.399945066682943"/>
+      <color theme="3" tint="0.39991454817346722"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.349986266670736"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1695,109 +1728,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1805,41 +1746,21 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1848,7 +1769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,194 +1779,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2081,255 +1816,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2482,85 +1975,62 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>393</xdr:row>
+      <xdr:row>392</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>394</xdr:row>
+      <xdr:row>393</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形: 圆角 1"/>
+        <xdr:cNvPr id="2" name="矩形: 圆角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2597,7 +2067,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>准生产结果</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2607,18 +2076,24 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形: 圆角 2"/>
+        <xdr:cNvPr id="3" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2655,7 +2130,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>生产结果</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2665,18 +2139,24 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>394</xdr:row>
+      <xdr:row>393</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形: 圆角 3"/>
+        <xdr:cNvPr id="4" name="矩形: 圆角 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2717,7 +2197,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>结果回传</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2727,18 +2206,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>394</xdr:row>
+      <xdr:row>393</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="连接符: 肘形 5"/>
+        <xdr:cNvPr id="6" name="连接符: 肘形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -2777,18 +2262,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="连接符: 肘形 7"/>
+        <xdr:cNvPr id="8" name="连接符: 肘形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -2827,7 +2318,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -2841,9 +2332,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形: 圆角 1"/>
+        <xdr:cNvPr id="2" name="矩形: 圆角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2880,7 +2377,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>系统</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2899,9 +2395,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形: 圆角 2"/>
+        <xdr:cNvPr id="3" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2938,7 +2440,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>项目</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2957,9 +2458,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形: 圆角 3"/>
+        <xdr:cNvPr id="4" name="矩形: 圆角 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3035,9 +2542,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="连接符: 肘形 5"/>
+        <xdr:cNvPr id="6" name="连接符: 肘形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="1"/>
           <a:endCxn id="2" idx="2"/>
@@ -3085,9 +2598,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="连接符: 肘形 7"/>
+        <xdr:cNvPr id="8" name="连接符: 肘形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="1"/>
           <a:endCxn id="3" idx="2"/>
@@ -3135,9 +2654,15 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矩形: 圆角 8"/>
+        <xdr:cNvPr id="9" name="矩形: 圆角 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3205,9 +2730,15 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="连接符: 肘形 10"/>
+        <xdr:cNvPr id="11" name="连接符: 肘形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="1"/>
           <a:endCxn id="3" idx="2"/>
@@ -3255,9 +2786,15 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形: 圆角 11"/>
+        <xdr:cNvPr id="12" name="矩形: 圆角 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3325,9 +2862,15 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="连接符: 肘形 13"/>
+        <xdr:cNvPr id="14" name="连接符: 肘形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="12" idx="1"/>
           <a:endCxn id="3" idx="2"/>
@@ -3375,9 +2918,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="矩形: 圆角 15"/>
+        <xdr:cNvPr id="16" name="矩形: 圆角 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3414,7 +2963,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>需求条目</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3433,9 +2981,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="连接符: 肘形 17"/>
+        <xdr:cNvPr id="18" name="连接符: 肘形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="1"/>
           <a:endCxn id="4" idx="3"/>
@@ -3485,9 +3039,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="矩形: 圆角 18"/>
+        <xdr:cNvPr id="19" name="矩形: 圆角 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3524,7 +3084,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>阶段项</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3543,9 +3102,15 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="连接符: 肘形 20"/>
+        <xdr:cNvPr id="21" name="连接符: 肘形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="1"/>
           <a:endCxn id="9" idx="3"/>
@@ -3593,9 +3158,15 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="矩形: 圆角 21"/>
+        <xdr:cNvPr id="22" name="矩形: 圆角 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3632,7 +3203,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>人员项</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3651,9 +3221,15 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="连接符: 肘形 28"/>
+        <xdr:cNvPr id="29" name="连接符: 肘形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="1"/>
           <a:endCxn id="12" idx="3"/>
@@ -3703,9 +3279,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="矩形: 圆角 37"/>
+        <xdr:cNvPr id="38" name="矩形: 圆角 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3769,9 +3351,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="连接符: 肘形 42"/>
+        <xdr:cNvPr id="43" name="连接符: 肘形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="1"/>
           <a:endCxn id="3" idx="2"/>
@@ -3819,9 +3407,15 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="矩形: 圆角 48"/>
+        <xdr:cNvPr id="49" name="矩形: 圆角 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3881,9 +3475,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="连接符: 肘形 50"/>
+        <xdr:cNvPr id="51" name="连接符: 肘形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="49" idx="1"/>
           <a:endCxn id="38" idx="3"/>
@@ -3931,9 +3531,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="连接符: 肘形 60"/>
+        <xdr:cNvPr id="61" name="连接符: 肘形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="16" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -4254,11 +3860,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:E66"/>
   <sheetViews>
@@ -4266,14 +3873,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="7.55555555555556" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4287,7 +3894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -4301,7 +3908,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>2</v>
       </c>
@@ -4315,7 +3922,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>3</v>
       </c>
@@ -4329,7 +3936,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>4</v>
       </c>
@@ -4343,7 +3950,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>5</v>
       </c>
@@ -4357,7 +3964,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>6</v>
       </c>
@@ -4371,7 +3978,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>7</v>
       </c>
@@ -4385,7 +3992,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>8</v>
       </c>
@@ -4399,7 +4006,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>9</v>
       </c>
@@ -4413,7 +4020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>10</v>
       </c>
@@ -4427,7 +4034,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>11</v>
       </c>
@@ -4441,59 +4048,59 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="51"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="51"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="51"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="51"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="51"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="51"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="51"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="51"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q463"/>
+  <dimension ref="A1:Q462"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H466" sqref="H466"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="I167" sqref="I167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="42.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="20.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="8.88888888888889" style="6"/>
-    <col min="8" max="8" width="17.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="27.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="6"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4509,8 +4116,11 @@
       <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" collapsed="1" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4532,8 +4142,11 @@
       <c r="H2" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" hidden="1" outlineLevel="1" spans="2:4">
+      <c r="I2" s="53" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
@@ -4542,7 +4155,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" hidden="1" outlineLevel="1" spans="2:4">
+    <row r="4" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>35</v>
       </c>
@@ -4551,7 +4164,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" hidden="1" outlineLevel="1" spans="2:4">
+    <row r="5" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
@@ -4560,7 +4173,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="6" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
@@ -4568,7 +4181,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="7" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>41</v>
       </c>
@@ -4576,7 +4189,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="8" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>43</v>
       </c>
@@ -4584,7 +4197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="9" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>45</v>
       </c>
@@ -4592,12 +4205,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="10" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="11" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>48</v>
       </c>
@@ -4617,7 +4230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="12" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>54</v>
       </c>
@@ -4635,7 +4248,7 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="13" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
         <v>59</v>
       </c>
@@ -4653,7 +4266,7 @@
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="14" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
         <v>62</v>
       </c>
@@ -4671,7 +4284,7 @@
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="15" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
         <v>64</v>
       </c>
@@ -4689,7 +4302,7 @@
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="16" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
         <v>66</v>
       </c>
@@ -4707,13 +4320,13 @@
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" hidden="1" outlineLevel="1"/>
-    <row r="18" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="17" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="19" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
         <v>69</v>
       </c>
@@ -4724,7 +4337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="20" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C20" s="12">
         <v>200</v>
       </c>
@@ -4735,7 +4348,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="21" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C21" s="12">
         <v>401</v>
       </c>
@@ -4744,7 +4357,7 @@
       </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="22" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C22" s="12">
         <v>403</v>
       </c>
@@ -4753,7 +4366,7 @@
       </c>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="23" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C23" s="12">
         <v>404</v>
       </c>
@@ -4762,12 +4375,12 @@
       </c>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="24" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="25" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
         <v>48</v>
       </c>
@@ -4781,7 +4394,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="26" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C26" s="10" t="s">
         <v>78</v>
       </c>
@@ -4793,11 +4406,11 @@
       </c>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" hidden="1" outlineLevel="1"/>
-    <row r="28" hidden="1" outlineLevel="1"/>
-    <row r="29" hidden="1" outlineLevel="1"/>
-    <row r="30" hidden="1" outlineLevel="1"/>
-    <row r="31" collapsed="1" spans="1:8">
+    <row r="27" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -4820,7 +4433,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" hidden="1" outlineLevel="1" spans="2:5">
+    <row r="32" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>81</v>
       </c>
@@ -4831,7 +4444,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="33" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>37</v>
       </c>
@@ -4839,7 +4452,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="34" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>35</v>
       </c>
@@ -4847,7 +4460,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="35" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>39</v>
       </c>
@@ -4855,7 +4468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="36" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>41</v>
       </c>
@@ -4863,7 +4476,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="37" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>43</v>
       </c>
@@ -4871,7 +4484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="38" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
@@ -4879,12 +4492,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="39" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="40" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C40" s="10" t="s">
         <v>48</v>
       </c>
@@ -4907,7 +4520,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="41" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C41" s="10" t="s">
         <v>87</v>
       </c>
@@ -4926,7 +4539,7 @@
       <c r="H41" s="12"/>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="42" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C42" s="10" t="s">
         <v>90</v>
       </c>
@@ -4949,7 +4562,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="43" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -4957,7 +4570,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" hidden="1" outlineLevel="1" spans="2:10">
+    <row r="44" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>95</v>
       </c>
@@ -4971,7 +4584,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="45" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C45" s="10" t="s">
         <v>48</v>
       </c>
@@ -4991,7 +4604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" s="3" customFormat="1" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="46" spans="2:10" s="3" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C46" s="15" t="s">
         <v>97</v>
       </c>
@@ -5009,7 +4622,7 @@
       </c>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="47" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C47" s="17" t="s">
         <v>99</v>
       </c>
@@ -5027,7 +4640,7 @@
       </c>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="48" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C48" s="17" t="s">
         <v>101</v>
       </c>
@@ -5045,7 +4658,7 @@
       </c>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="49" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C49" s="17" t="s">
         <v>103</v>
       </c>
@@ -5063,7 +4676,7 @@
       </c>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="50" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C50" s="17" t="s">
         <v>105</v>
       </c>
@@ -5081,7 +4694,7 @@
       </c>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="51" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="19"/>
@@ -5089,12 +4702,12 @@
       <c r="G51" s="19"/>
       <c r="H51" s="21"/>
     </row>
-    <row r="52" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="52" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="53" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C53" s="10" t="s">
         <v>69</v>
       </c>
@@ -5105,7 +4718,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="54" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C54" s="12">
         <v>200</v>
       </c>
@@ -5116,7 +4729,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="55" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C55" s="12">
         <v>401</v>
       </c>
@@ -5125,7 +4738,7 @@
       </c>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="56" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C56" s="12">
         <v>403</v>
       </c>
@@ -5134,7 +4747,7 @@
       </c>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="57" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C57" s="12">
         <v>404</v>
       </c>
@@ -5143,12 +4756,12 @@
       </c>
       <c r="E57" s="12"/>
     </row>
-    <row r="58" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="58" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="59" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C59" s="10" t="s">
         <v>48</v>
       </c>
@@ -5162,7 +4775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="60" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C60" s="10" t="s">
         <v>78</v>
       </c>
@@ -5174,7 +4787,7 @@
       </c>
       <c r="F60" s="14"/>
     </row>
-    <row r="61" hidden="1" outlineLevel="1" spans="2:8">
+    <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B61" s="21"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -5183,7 +4796,7 @@
       <c r="G61" s="19"/>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" collapsed="1" spans="1:8">
+    <row r="62" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -5207,7 +4820,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" hidden="1" outlineLevel="1" spans="2:4">
+    <row r="63" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B63" s="26" t="s">
         <v>81</v>
       </c>
@@ -5216,7 +4829,7 @@
       </c>
       <c r="D63" s="21"/>
     </row>
-    <row r="64" hidden="1" outlineLevel="1" spans="2:4">
+    <row r="64" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B64" s="26" t="s">
         <v>35</v>
       </c>
@@ -5225,7 +4838,7 @@
       </c>
       <c r="D64" s="21"/>
     </row>
-    <row r="65" hidden="1" outlineLevel="1" spans="2:4">
+    <row r="65" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B65" s="27" t="s">
         <v>37</v>
       </c>
@@ -5234,7 +4847,7 @@
       </c>
       <c r="D65" s="21"/>
     </row>
-    <row r="66" hidden="1" outlineLevel="1" spans="2:4">
+    <row r="66" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B66" s="26" t="s">
         <v>39</v>
       </c>
@@ -5243,7 +4856,7 @@
       </c>
       <c r="D66" s="21"/>
     </row>
-    <row r="67" hidden="1" outlineLevel="1" spans="2:4">
+    <row r="67" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
         <v>41</v>
       </c>
@@ -5252,7 +4865,7 @@
       </c>
       <c r="D67" s="21"/>
     </row>
-    <row r="68" hidden="1" outlineLevel="1" spans="2:4">
+    <row r="68" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B68" s="26" t="s">
         <v>43</v>
       </c>
@@ -5261,7 +4874,7 @@
       </c>
       <c r="D68" s="21"/>
     </row>
-    <row r="69" hidden="1" outlineLevel="1" spans="2:4">
+    <row r="69" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B69" s="26" t="s">
         <v>45</v>
       </c>
@@ -5270,12 +4883,12 @@
       </c>
       <c r="D69" s="21"/>
     </row>
-    <row r="70" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="70" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="71" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C71" s="10" t="s">
         <v>48</v>
       </c>
@@ -5295,7 +4908,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="72" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C72" s="10" t="s">
         <v>54</v>
       </c>
@@ -5313,7 +4926,7 @@
       </c>
       <c r="H72" s="12"/>
     </row>
-    <row r="73" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="73" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C73" s="17" t="s">
         <v>112</v>
       </c>
@@ -5331,7 +4944,7 @@
       </c>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="74" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C74" s="17" t="s">
         <v>116</v>
       </c>
@@ -5347,7 +4960,7 @@
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="75" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C75" s="17" t="s">
         <v>117</v>
       </c>
@@ -5363,13 +4976,13 @@
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" hidden="1" outlineLevel="1"/>
-    <row r="77" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="76" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="78" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C78" s="10" t="s">
         <v>48</v>
       </c>
@@ -5389,7 +5002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="79" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C79" s="17" t="s">
         <v>120</v>
       </c>
@@ -5409,7 +5022,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="80" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C80" s="17" t="s">
         <v>124</v>
       </c>
@@ -5429,7 +5042,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="81" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="81" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C81" s="17" t="s">
         <v>128</v>
       </c>
@@ -5449,7 +5062,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="82" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C82" s="17" t="s">
         <v>131</v>
       </c>
@@ -5469,7 +5082,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="83" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="83" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C83" s="17" t="s">
         <v>133</v>
       </c>
@@ -5489,7 +5102,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="84" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="84" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C84" s="17" t="s">
         <v>136</v>
       </c>
@@ -5509,7 +5122,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="85" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="85" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C85" s="17" t="s">
         <v>138</v>
       </c>
@@ -5529,7 +5142,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="86" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="86" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C86" s="17" t="s">
         <v>140</v>
       </c>
@@ -5549,7 +5162,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="87" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="87" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C87" s="17" t="s">
         <v>112</v>
       </c>
@@ -5569,7 +5182,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="88" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C88" s="17" t="s">
         <v>144</v>
       </c>
@@ -5589,7 +5202,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="89" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C89" s="17" t="s">
         <v>146</v>
       </c>
@@ -5609,7 +5222,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="90" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C90" s="17" t="s">
         <v>148</v>
       </c>
@@ -5629,7 +5242,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="91" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C91" s="17" t="s">
         <v>150</v>
       </c>
@@ -5649,7 +5262,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="92" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="92" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C92" s="17" t="s">
         <v>116</v>
       </c>
@@ -5669,7 +5282,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="93" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C93" s="17" t="s">
         <v>153</v>
       </c>
@@ -5689,7 +5302,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="94" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C94" s="17" t="s">
         <v>155</v>
       </c>
@@ -5709,7 +5322,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="95" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C95" s="17" t="s">
         <v>157</v>
       </c>
@@ -5729,7 +5342,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="96" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C96" s="17" t="s">
         <v>159</v>
       </c>
@@ -5749,7 +5362,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="97" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C97" s="17" t="s">
         <v>161</v>
       </c>
@@ -5769,8 +5382,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" hidden="1" outlineLevel="1"/>
-    <row r="99" collapsed="1" spans="1:8">
+    <row r="98" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -5793,7 +5406,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="100" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="100" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>34</v>
       </c>
@@ -5801,7 +5414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="101" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>35</v>
       </c>
@@ -5809,7 +5422,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="102" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B102" s="17" t="s">
         <v>37</v>
       </c>
@@ -5817,7 +5430,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="103" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>39</v>
       </c>
@@ -5825,7 +5438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="104" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>41</v>
       </c>
@@ -5833,7 +5446,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="105" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="105" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>43</v>
       </c>
@@ -5841,7 +5454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="106" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>45</v>
       </c>
@@ -5849,12 +5462,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="107" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="108" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="108" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C108" s="12" t="s">
         <v>48</v>
       </c>
@@ -5877,7 +5490,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="109" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="109" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C109" s="12" t="s">
         <v>167</v>
       </c>
@@ -5898,7 +5511,7 @@
       </c>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="110" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C110" s="12" t="s">
         <v>170</v>
       </c>
@@ -5919,7 +5532,7 @@
       </c>
       <c r="J110" s="12"/>
     </row>
-    <row r="111" hidden="1" outlineLevel="1" spans="3:11">
+    <row r="111" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C111" s="12" t="s">
         <v>172</v>
       </c>
@@ -5945,7 +5558,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="112" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C112" s="12" t="s">
         <v>176</v>
       </c>
@@ -5966,7 +5579,7 @@
       </c>
       <c r="J112" s="12"/>
     </row>
-    <row r="113" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="113" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C113" s="12" t="s">
         <v>178</v>
       </c>
@@ -5987,7 +5600,7 @@
       </c>
       <c r="J113" s="12"/>
     </row>
-    <row r="114" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="114" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C114" s="12" t="s">
         <v>180</v>
       </c>
@@ -6008,13 +5621,13 @@
       </c>
       <c r="J114" s="12"/>
     </row>
-    <row r="115" hidden="1" outlineLevel="1"/>
-    <row r="116" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="115" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="117" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="117" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C117" s="12" t="s">
         <v>69</v>
       </c>
@@ -6025,7 +5638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="118" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C118" s="12">
         <v>200</v>
       </c>
@@ -6036,7 +5649,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="119" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="119" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C119" s="12">
         <v>401</v>
       </c>
@@ -6047,7 +5660,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="120" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="120" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C120" s="12">
         <v>403</v>
       </c>
@@ -6058,7 +5671,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="121" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="121" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C121" s="12">
         <v>404</v>
       </c>
@@ -6069,13 +5682,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="122" hidden="1" outlineLevel="1"/>
-    <row r="123" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="122" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="124" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="124" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C124" s="12" t="s">
         <v>48</v>
       </c>
@@ -6089,7 +5702,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="125" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="125" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C125" s="12" t="s">
         <v>29</v>
       </c>
@@ -6103,7 +5716,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="126" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C126" s="12" t="s">
         <v>182</v>
       </c>
@@ -6117,7 +5730,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="127" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="127" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C127" s="12" t="s">
         <v>184</v>
       </c>
@@ -6131,8 +5744,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="128" hidden="1" outlineLevel="1"/>
-    <row r="129" collapsed="1" spans="1:8">
+    <row r="128" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -6155,7 +5768,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="130" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
         <v>34</v>
       </c>
@@ -6163,7 +5776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="131" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
         <v>35</v>
       </c>
@@ -6171,7 +5784,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="132" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B132" s="17" t="s">
         <v>37</v>
       </c>
@@ -6179,7 +5792,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="133" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="133" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
         <v>39</v>
       </c>
@@ -6187,7 +5800,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="134" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="134" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
         <v>41</v>
       </c>
@@ -6195,7 +5808,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="135" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="135" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
         <v>43</v>
       </c>
@@ -6203,7 +5816,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="136" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
         <v>45</v>
       </c>
@@ -6211,12 +5824,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="137" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="138" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="138" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C138" s="12" t="s">
         <v>48</v>
       </c>
@@ -6236,7 +5849,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="139" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C139" s="12" t="s">
         <v>167</v>
       </c>
@@ -6256,13 +5869,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" hidden="1" outlineLevel="1"/>
-    <row r="141" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="140" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="142" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="142" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C142" s="12" t="s">
         <v>48</v>
       </c>
@@ -6276,7 +5889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="143" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C143" s="12" t="s">
         <v>29</v>
       </c>
@@ -6290,7 +5903,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="144" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="144" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C144" s="12" t="s">
         <v>182</v>
       </c>
@@ -6304,7 +5917,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="145" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="145" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C145" s="12" t="s">
         <v>184</v>
       </c>
@@ -6318,13 +5931,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="146" hidden="1" outlineLevel="1"/>
-    <row r="147" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="146" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B147" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="148" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="148" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C148" s="12" t="s">
         <v>69</v>
       </c>
@@ -6335,7 +5948,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="149" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="149" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C149" s="12">
         <v>200</v>
       </c>
@@ -6346,7 +5959,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="150" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="150" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C150" s="12">
         <v>201</v>
       </c>
@@ -6357,7 +5970,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="151" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="151" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C151" s="12">
         <v>401</v>
       </c>
@@ -6368,7 +5981,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="152" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="152" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C152" s="12">
         <v>403</v>
       </c>
@@ -6379,7 +5992,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="153" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="153" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C153" s="12">
         <v>404</v>
       </c>
@@ -6390,8 +6003,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="154" hidden="1" outlineLevel="1"/>
-    <row r="155" collapsed="1" spans="1:8">
+    <row r="154" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>6</v>
       </c>
@@ -6414,7 +6027,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="156" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="156" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
         <v>34</v>
       </c>
@@ -6422,7 +6035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="157" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
         <v>35</v>
       </c>
@@ -6430,7 +6043,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="158" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="158" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B158" s="17" t="s">
         <v>37</v>
       </c>
@@ -6438,7 +6051,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="159" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="159" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
         <v>39</v>
       </c>
@@ -6446,7 +6059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="160" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
         <v>41</v>
       </c>
@@ -6454,7 +6067,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="161" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="161" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
         <v>43</v>
       </c>
@@ -6462,7 +6075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="162" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="162" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
         <v>45</v>
       </c>
@@ -6470,12 +6083,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="163" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="164" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="164" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C164" s="12" t="s">
         <v>48</v>
       </c>
@@ -6495,7 +6108,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="165" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="165" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C165" s="10" t="s">
         <v>200</v>
       </c>
@@ -6515,7 +6128,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="166" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="166" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C166" s="12" t="s">
         <v>167</v>
       </c>
@@ -6535,13 +6148,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="167" hidden="1" outlineLevel="1"/>
-    <row r="168" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="167" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="169" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="169" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C169" s="12" t="s">
         <v>48</v>
       </c>
@@ -6564,7 +6177,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="170" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="170" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C170" s="12" t="s">
         <v>204</v>
       </c>
@@ -6585,7 +6198,7 @@
       </c>
       <c r="J170" s="33"/>
     </row>
-    <row r="171" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="171" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C171" s="12" t="s">
         <v>131</v>
       </c>
@@ -6608,7 +6221,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="172" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="172" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C172" s="12" t="s">
         <v>133</v>
       </c>
@@ -6631,7 +6244,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="173" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="173" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C173" s="12" t="s">
         <v>212</v>
       </c>
@@ -6654,7 +6267,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="174" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C174" s="12" t="s">
         <v>172</v>
       </c>
@@ -6675,7 +6288,7 @@
       </c>
       <c r="J174" s="33"/>
     </row>
-    <row r="175" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="175" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C175" s="12" t="s">
         <v>215</v>
       </c>
@@ -6696,7 +6309,7 @@
       </c>
       <c r="J175" s="33"/>
     </row>
-    <row r="176" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="176" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C176" s="12" t="s">
         <v>217</v>
       </c>
@@ -6719,7 +6332,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="177" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="177" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C177" s="12" t="s">
         <v>221</v>
       </c>
@@ -6742,7 +6355,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="178" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="178" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C178" s="12" t="s">
         <v>153</v>
       </c>
@@ -6765,7 +6378,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="179" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="179" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C179" s="12" t="s">
         <v>161</v>
       </c>
@@ -6788,7 +6401,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="180" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="180" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C180" s="12" t="s">
         <v>226</v>
       </c>
@@ -6809,7 +6422,7 @@
       </c>
       <c r="J180" s="33"/>
     </row>
-    <row r="181" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="181" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C181" s="29" t="s">
         <v>228</v>
       </c>
@@ -6830,21 +6443,21 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" hidden="1" outlineLevel="1" spans="6:6">
+    <row r="182" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F182" s="31"/>
     </row>
-    <row r="183" hidden="1" outlineLevel="1" spans="6:6">
+    <row r="183" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F183" s="31"/>
     </row>
-    <row r="184" hidden="1" outlineLevel="1" spans="2:10">
-      <c r="B184" s="2" t="s">
+    <row r="184" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="J184" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="J184" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="185" hidden="1" outlineLevel="1" spans="3:8">
+    </row>
+    <row r="185" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C185" s="12" t="s">
         <v>48</v>
       </c>
@@ -6864,52 +6477,52 @@
         <v>53</v>
       </c>
     </row>
-    <row r="186" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="186" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C186" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D186" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D186" s="12" t="s">
+      <c r="E186" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F186" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G186" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H186" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C187" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E186" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F186" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G186" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H186" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="187" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C187" s="12" t="s">
+      <c r="D187" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="D187" s="12" t="s">
+      <c r="E187" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F187" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G187" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H187" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E187" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F187" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G187" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H187" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="188" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C188" s="12" t="s">
+      <c r="D188" s="12" t="s">
         <v>237</v>
-      </c>
-      <c r="D188" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>91</v>
@@ -6924,32 +6537,32 @@
         <v>127</v>
       </c>
     </row>
-    <row r="189" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="189" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C189" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D189" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D189" s="12" t="s">
+      <c r="E189" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F189" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G189" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H189" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C190" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="E189" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F189" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G189" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H189" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="190" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C190" s="12" t="s">
+      <c r="D190" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="E190" s="12" t="s">
         <v>91</v>
@@ -6964,13 +6577,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="191" hidden="1" outlineLevel="1"/>
-    <row r="192" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="191" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="193" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="193" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C193" s="12" t="s">
         <v>69</v>
       </c>
@@ -6981,7 +6594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="194" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="194" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C194" s="12">
         <v>200</v>
       </c>
@@ -6992,7 +6605,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="195" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="195" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C195" s="12">
         <v>401</v>
       </c>
@@ -7003,7 +6616,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="196" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="196" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C196" s="12">
         <v>403</v>
       </c>
@@ -7014,7 +6627,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="197" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="197" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C197" s="12">
         <v>404</v>
       </c>
@@ -7025,12 +6638,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="198" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="198" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B198" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="199" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="199" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C199" s="12" t="s">
         <v>48</v>
       </c>
@@ -7044,7 +6657,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="200" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="200" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C200" s="12" t="s">
         <v>29</v>
       </c>
@@ -7058,7 +6671,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="201" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="201" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C201" s="12" t="s">
         <v>182</v>
       </c>
@@ -7072,12 +6685,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="202" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="202" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C202" s="12" t="s">
         <v>184</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E202" s="12" t="s">
         <v>58</v>
@@ -7086,8 +6699,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="203" hidden="1" outlineLevel="1"/>
-    <row r="204" collapsed="1" spans="1:8">
+    <row r="203" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>7</v>
       </c>
@@ -7110,23 +6723,23 @@
         <v>196</v>
       </c>
     </row>
-    <row r="205" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="205" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B205" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C205" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="206" hidden="1" outlineLevel="1" spans="2:3">
+      <c r="C205" s="56" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="207" hidden="1" outlineLevel="1" spans="2:3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B207" s="17" t="s">
         <v>37</v>
       </c>
@@ -7134,7 +6747,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="208" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="208" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
         <v>39</v>
       </c>
@@ -7142,15 +6755,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="209" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="209" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B209" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="210" hidden="1" outlineLevel="1" spans="2:3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
         <v>43</v>
       </c>
@@ -7158,7 +6771,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="211" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="211" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B211" s="10" t="s">
         <v>45</v>
       </c>
@@ -7166,12 +6779,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="212" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="212" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B212" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="213" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="213" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C213" s="12" t="s">
         <v>48</v>
       </c>
@@ -7191,7 +6804,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="214" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="214" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C214" s="12" t="s">
         <v>167</v>
       </c>
@@ -7211,9 +6824,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="215" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="215" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C215" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D215" s="12" t="s">
         <v>214</v>
@@ -7231,35 +6844,35 @@
         <v>127</v>
       </c>
     </row>
-    <row r="216" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="216" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C216" s="12" t="s">
         <v>226</v>
       </c>
       <c r="D216" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F216" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G216" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H216" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J216" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E216" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F216" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G216" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H216" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J216" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="217" hidden="1" outlineLevel="1" spans="3:8">
+    </row>
+    <row r="217" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C217" s="12" t="s">
         <v>204</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E217" s="12" t="s">
         <v>91</v>
@@ -7274,13 +6887,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="218" hidden="1" outlineLevel="1"/>
-    <row r="219" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="218" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B219" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="220" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="220" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C220" s="12" t="s">
         <v>48</v>
       </c>
@@ -7300,61 +6913,61 @@
         <v>53</v>
       </c>
       <c r="J220" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C221" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F221" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G221" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H221" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J221" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="221" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C221" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D221" s="12" t="s">
+    <row r="222" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C222" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E221" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F221" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G221" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H221" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J221" s="10" t="s">
+      <c r="D222" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E222" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F222" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G222" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H222" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J222" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="222" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C222" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D222" s="12" t="s">
+    <row r="223" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C223" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E222" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F222" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G222" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H222" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J222" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="223" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C223" s="12" t="s">
+      <c r="D223" s="12" t="s">
         <v>237</v>
-      </c>
-      <c r="D223" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="E223" s="12" t="s">
         <v>91</v>
@@ -7369,38 +6982,38 @@
         <v>127</v>
       </c>
       <c r="J223" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C224" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F224" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G224" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H224" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J224" s="10" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="224" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C224" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D224" s="12" t="s">
+    <row r="225" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C225" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="E224" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F224" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G224" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H224" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J224" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="225" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C225" s="12" t="s">
+      <c r="D225" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="E225" s="12" t="s">
         <v>91</v>
@@ -7415,16 +7028,16 @@
         <v>127</v>
       </c>
       <c r="J225" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="226" hidden="1" outlineLevel="1"/>
-    <row r="227" hidden="1" outlineLevel="1" spans="2:2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="228" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="228" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C228" s="12" t="s">
         <v>69</v>
       </c>
@@ -7435,7 +7048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="229" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="229" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C229" s="12">
         <v>200</v>
       </c>
@@ -7446,7 +7059,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="230" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="230" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C230" s="12">
         <v>401</v>
       </c>
@@ -7457,7 +7070,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="231" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="231" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C231" s="12">
         <v>403</v>
       </c>
@@ -7468,7 +7081,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="232" hidden="1" outlineLevel="1" spans="3:5">
+    <row r="232" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C232" s="12">
         <v>404</v>
       </c>
@@ -7479,13 +7092,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="233" hidden="1" outlineLevel="1"/>
-    <row r="234" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="233" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B234" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="235" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="235" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C235" s="12" t="s">
         <v>48</v>
       </c>
@@ -7499,7 +7112,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="236" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="236" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C236" s="12" t="s">
         <v>29</v>
       </c>
@@ -7513,7 +7126,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="237" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="237" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C237" s="12" t="s">
         <v>182</v>
       </c>
@@ -7527,12 +7140,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="238" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="238" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C238" s="34" t="s">
         <v>184</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E238" s="12" t="s">
         <v>58</v>
@@ -7541,7 +7154,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="239" s="4" customFormat="1" collapsed="1" spans="1:8">
+    <row r="239" spans="1:10" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>8</v>
       </c>
@@ -7561,10 +7174,10 @@
         <v>6.8</v>
       </c>
       <c r="H239" s="35" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="240" hidden="1" outlineLevel="1" spans="2:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B240" s="10" t="s">
         <v>34</v>
       </c>
@@ -7572,23 +7185,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="241" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B241" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="242" hidden="1" outlineLevel="1" spans="2:3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B242" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="243" hidden="1" outlineLevel="1" spans="2:3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B243" s="10" t="s">
         <v>39</v>
       </c>
@@ -7596,15 +7209,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="244" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="244" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B244" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="245" hidden="1" outlineLevel="1" spans="2:3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B245" s="10" t="s">
         <v>43</v>
       </c>
@@ -7612,7 +7225,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="246" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="246" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B246" s="10" t="s">
         <v>45</v>
       </c>
@@ -7620,12 +7233,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="247" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="247" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B247" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="248" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="248" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C248" s="12" t="s">
         <v>48</v>
       </c>
@@ -7645,10 +7258,10 @@
         <v>53</v>
       </c>
       <c r="J248" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="249" hidden="1" outlineLevel="1" spans="3:10">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C249" s="12" t="s">
         <v>167</v>
       </c>
@@ -7669,310 +7282,297 @@
       </c>
       <c r="J249" s="12"/>
     </row>
-    <row r="250" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="250" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C250" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F250" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G250" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D250" s="12" t="s">
+      <c r="H250" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="E250" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F250" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G250" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="H250" s="12" t="s">
-        <v>262</v>
-      </c>
       <c r="J250" s="12"/>
     </row>
-    <row r="251" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C251" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="D251" s="37" t="s">
+    <row r="251" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C251" s="18"/>
+    </row>
+    <row r="252" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C253" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E253" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F253" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G253" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H253" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J253" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C254" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E254" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F254" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G254" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H254" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J254" s="12"/>
+    </row>
+    <row r="255" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C255" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="E251" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="F251" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G251" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="H251" s="29"/>
-      <c r="J251" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="252" hidden="1" outlineLevel="1" spans="3:3">
-      <c r="C252" s="18"/>
-    </row>
-    <row r="253" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B253" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="254" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C254" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D254" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E254" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F254" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G254" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H254" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J254" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="255" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C255" s="12" t="s">
-        <v>204</v>
-      </c>
       <c r="D255" s="12" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="E255" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F255" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G255" s="12" t="s">
         <v>122</v>
       </c>
       <c r="H255" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="J255" s="12"/>
-    </row>
-    <row r="256" hidden="1" outlineLevel="1" spans="3:10">
+        <v>127</v>
+      </c>
+      <c r="J255" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="256" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C256" s="12" t="s">
-        <v>265</v>
+        <v>133</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E256" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F256" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G256" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H256" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J256" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="257" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C257" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E257" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F257" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G257" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H257" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J257" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K257" s="18"/>
+    </row>
+    <row r="258" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C258" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E258" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F258" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G258" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H258" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J258" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="259" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C259" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F259" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G256" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H256" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J256" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="257" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C257" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D257" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="E257" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F257" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G257" s="12" t="s">
+      <c r="G259" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H259" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J259" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="260" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C260" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F260" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G260" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H260" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J260" s="12"/>
+    </row>
+    <row r="261" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C261" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E261" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F261" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G261" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H261" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J261" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="262" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C262" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E262" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F262" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G262" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H257" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J257" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="258" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C258" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D258" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E258" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F258" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G258" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H258" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J258" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="K258" s="18"/>
-    </row>
-    <row r="259" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C259" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D259" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E259" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F259" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G259" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H259" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J259" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="260" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C260" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D260" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E260" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F260" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G260" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H260" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J260" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="261" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C261" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D261" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="E261" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F261" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G261" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="H261" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J261" s="12"/>
-    </row>
-    <row r="262" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C262" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D262" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E262" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F262" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G262" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="H262" s="12" t="s">
         <v>127</v>
       </c>
       <c r="J262" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="263" hidden="1" outlineLevel="1" spans="3:10">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="263" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C263" s="12" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E263" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E263" s="10" t="s">
         <v>91</v>
       </c>
       <c r="F263" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="H263" s="12" t="s">
         <v>127</v>
       </c>
       <c r="J263" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="264" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C264" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D264" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="E264" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F264" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G264" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H264" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J264" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="265" hidden="1" outlineLevel="1" spans="6:6">
-      <c r="F265"/>
-    </row>
-    <row r="266" hidden="1" outlineLevel="1" spans="3:8">
+    </row>
+    <row r="264" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F264"/>
+    </row>
+    <row r="265" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C265" s="19"/>
+      <c r="D265" s="21"/>
+      <c r="E265" s="19"/>
+      <c r="F265" s="31"/>
+      <c r="G265" s="19"/>
+      <c r="H265" s="21"/>
+    </row>
+    <row r="266" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C266" s="19"/>
       <c r="D266" s="21"/>
       <c r="E266" s="19"/>
@@ -7980,453 +7580,463 @@
       <c r="G266" s="19"/>
       <c r="H266" s="21"/>
     </row>
-    <row r="267" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C267" s="19"/>
-      <c r="D267" s="21"/>
-      <c r="E267" s="19"/>
-      <c r="F267" s="31"/>
-      <c r="G267" s="19"/>
-      <c r="H267" s="21"/>
-    </row>
-    <row r="268" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B268" s="2" t="s">
+    <row r="267" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="269" hidden="1" outlineLevel="1" spans="3:8">
+    <row r="268" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C268" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D268" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E268" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F268" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G268" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H268" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="269" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C269" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E269" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F269" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G269" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H269" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="270" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C270" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D270" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E270" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F270" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G270" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H270" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="271" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C271" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D271" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E271" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F271" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G271" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="H271" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="272" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C272" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E272" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F272" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G272" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H272" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C273" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E273" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F273" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G273" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H273" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="275" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C276" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D269" s="12" t="s">
+      <c r="D276" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E269" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F269" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G269" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H269" s="12" t="s">
+      <c r="E276" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F276" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="270" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C270" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D270" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E270" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F270" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G270" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H270" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="271" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C271" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D271" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E271" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F271" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G271" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H271" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="272" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C272" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D272" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E272" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F272" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G272" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H272" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="273" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C273" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D273" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E273" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F273" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G273" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H273" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="274" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C274" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="D274" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E274" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F274" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G274" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H274" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="275" hidden="1" outlineLevel="1"/>
-    <row r="276" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B276" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="277" hidden="1" outlineLevel="1" spans="3:6">
+    <row r="277" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C277" s="12" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="F277" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C278" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F278" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C279" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E279" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F279" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C282" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D282" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E282" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="278" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C278" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D278" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E278" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F278" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="279" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C279" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D279" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E279" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F279" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="280" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C280" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D280" s="12" t="s">
+    <row r="283" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C283" s="12">
+        <v>200</v>
+      </c>
+      <c r="D283" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E283" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C284" s="12">
+        <v>201</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E284" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C285" s="12">
+        <v>401</v>
+      </c>
+      <c r="D285" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E285" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C286" s="12">
+        <v>403</v>
+      </c>
+      <c r="D286" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E286" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C287" s="12">
+        <v>404</v>
+      </c>
+      <c r="D287" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E287" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="289" spans="1:8" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>9</v>
+      </c>
+      <c r="B289" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C289" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D289" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E289" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F289" s="36">
+        <v>6.9</v>
+      </c>
+      <c r="H289" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E290" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="E280" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F280" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="281" hidden="1" outlineLevel="1"/>
-    <row r="282" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B282" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="283" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C283" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D283" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E283" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="284" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C284" s="12">
-        <v>200</v>
-      </c>
-      <c r="D284" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E284" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="285" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C285" s="12">
-        <v>201</v>
-      </c>
-      <c r="D285" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E285" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="286" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C286" s="12">
-        <v>401</v>
-      </c>
-      <c r="D286" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E286" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="287" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C287" s="12">
-        <v>403</v>
-      </c>
-      <c r="D287" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E287" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="288" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C288" s="12">
-        <v>404</v>
-      </c>
-      <c r="D288" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E288" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="289" hidden="1" outlineLevel="1"/>
-    <row r="290" s="4" customFormat="1" collapsed="1" spans="1:8">
-      <c r="A290" s="4">
-        <v>9</v>
-      </c>
-      <c r="B290" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C290" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D290" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E290" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F290" s="36">
-        <v>6.9</v>
-      </c>
-      <c r="H290" s="35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="291" hidden="1" outlineLevel="1" spans="2:5">
+    </row>
+    <row r="291" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B291" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E291" s="39" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="292" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="292" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B292" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C292" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="293" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="293" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B293" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C293" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C294" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C296" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C298" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F298" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G298" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H298" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C299" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D299" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E299" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F299" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G299" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H299" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C300" s="10" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="294" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B294" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C294" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="295" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B295" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C295" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="296" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B296" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C296" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="297" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B297" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C297" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="298" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B298" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="299" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C299" s="12" t="s">
+      <c r="D300" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F300" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G300" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H300" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C303" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D299" s="12" t="s">
+      <c r="D303" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E299" s="12" t="s">
+      <c r="E303" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F299" s="14" t="s">
+      <c r="F303" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G299" s="12" t="s">
+      <c r="G303" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H299" s="12" t="s">
+      <c r="H303" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="300" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C300" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D300" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E300" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F300" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G300" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H300" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="301" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C301" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D301" s="10" t="s">
+    <row r="304" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C304" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D304" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E304" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F304" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G304" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E301" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F301" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G301" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="H301" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="302" hidden="1" outlineLevel="1"/>
-    <row r="303" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B303" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="304" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C304" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D304" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E304" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F304" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G304" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H304" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="305" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C305" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D305" s="10" t="s">
-        <v>88</v>
+      <c r="H304" s="12"/>
+    </row>
+    <row r="305" spans="2:10" s="3" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C305" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="D305" s="40" t="s">
+        <v>294</v>
       </c>
       <c r="E305" s="10" t="s">
         <v>89</v>
@@ -8435,16 +8045,16 @@
         <v>1</v>
       </c>
       <c r="G305" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H305" s="12"/>
     </row>
-    <row r="306" s="3" customFormat="1" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C306" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="D306" s="40" t="s">
+    <row r="306" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C306" s="10" t="s">
         <v>295</v>
+      </c>
+      <c r="D306" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="E306" s="10" t="s">
         <v>89</v>
@@ -8453,69 +8063,72 @@
         <v>1</v>
       </c>
       <c r="G306" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="H306" s="12"/>
-    </row>
-    <row r="307" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C307" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D307" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H306" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E307" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F307" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G307" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H307" s="10" t="s">
+    </row>
+    <row r="307" spans="2:10" s="3" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C307" s="41"/>
+      <c r="D307" s="41"/>
+      <c r="E307" s="42"/>
+      <c r="F307" s="43"/>
+      <c r="G307" s="42"/>
+      <c r="H307" s="42"/>
+    </row>
+    <row r="308" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="308" s="3" customFormat="1" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C308" s="41"/>
-      <c r="D308" s="41"/>
-      <c r="E308" s="42"/>
-      <c r="F308" s="43"/>
-      <c r="G308" s="42"/>
-      <c r="H308" s="42"/>
-    </row>
-    <row r="309" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B309" s="2" t="s">
+    <row r="309" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C309" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D309" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E309" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F309" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G309" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H309" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J309" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="310" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C310" s="10" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="310" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C310" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D310" s="12" t="s">
-        <v>49</v>
+      <c r="D310" s="10" t="s">
+        <v>300</v>
       </c>
       <c r="E310" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F310" s="14" t="s">
-        <v>51</v>
+        <v>91</v>
+      </c>
+      <c r="F310" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="G310" s="12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H310" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J310" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="311" hidden="1" outlineLevel="1" spans="3:10">
+        <v>127</v>
+      </c>
+      <c r="J310" s="12"/>
+    </row>
+    <row r="311" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C311" s="10" t="s">
-        <v>300</v>
+        <v>161</v>
       </c>
       <c r="D311" s="10" t="s">
         <v>301</v>
@@ -8534,12 +8147,12 @@
       </c>
       <c r="J311" s="12"/>
     </row>
-    <row r="312" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="312" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C312" s="10" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="D312" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E312" s="12" t="s">
         <v>91</v>
@@ -8553,15 +8166,17 @@
       <c r="H312" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J312" s="12"/>
-    </row>
-    <row r="313" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C313" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D313" s="10" t="s">
+      <c r="J312" s="17" t="s">
         <v>304</v>
       </c>
+    </row>
+    <row r="313" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C313" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D313" s="17" t="s">
+        <v>306</v>
+      </c>
       <c r="E313" s="12" t="s">
         <v>91</v>
       </c>
@@ -8574,16 +8189,14 @@
       <c r="H313" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J313" s="17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="314" hidden="1" outlineLevel="1" spans="3:10">
+      <c r="J313" s="12"/>
+    </row>
+    <row r="314" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C314" s="17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="E314" s="12" t="s">
         <v>91</v>
@@ -8599,30 +8212,30 @@
       </c>
       <c r="J314" s="12"/>
     </row>
-    <row r="315" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C315" s="17" t="s">
+    <row r="315" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C315" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D315" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="D315" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E315" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F315" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G315" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H315" s="12" t="s">
+      <c r="E315" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F315" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G315" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="H315" s="45" t="s">
         <v>127</v>
       </c>
       <c r="J315" s="12"/>
     </row>
-    <row r="316" hidden="1" outlineLevel="1" spans="3:10">
+    <row r="316" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C316" s="44" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="D316" s="44" t="s">
         <v>309</v>
@@ -8641,544 +8254,546 @@
       </c>
       <c r="J316" s="12"/>
     </row>
-    <row r="317" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C317" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D317" s="44" t="s">
+    <row r="317" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="318" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C318" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D318" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E318" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F318" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="319" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C319" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D319" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E319" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F319" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="320" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C320" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E320" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F320" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C321" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E321" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F321" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="323" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B323" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C324" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D324" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E324" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C325" s="12">
+        <v>200</v>
+      </c>
+      <c r="D325" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E325" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C326" s="12">
+        <v>201</v>
+      </c>
+      <c r="D326" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E326" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C327" s="12">
+        <v>401</v>
+      </c>
+      <c r="D327" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E327" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C328" s="12">
+        <v>403</v>
+      </c>
+      <c r="D328" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E328" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C329" s="12">
+        <v>404</v>
+      </c>
+      <c r="D329" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E329" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="331" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="332" spans="1:8" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="4">
+        <v>10</v>
+      </c>
+      <c r="B332" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C332" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D332" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E332" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F332" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H332" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="E317" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F317" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G317" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="H317" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="J317" s="12"/>
-    </row>
-    <row r="318" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B318" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="319" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C319" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D319" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E319" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F319" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="320" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C320" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D320" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E320" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F320" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="321" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C321" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D321" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E321" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F321" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="322" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C322" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D322" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E322" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F322" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="323" hidden="1" outlineLevel="1"/>
-    <row r="324" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B324" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="325" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C325" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D325" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E325" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="326" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C326" s="12">
-        <v>200</v>
-      </c>
-      <c r="D326" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E326" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="327" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C327" s="12">
-        <v>201</v>
-      </c>
-      <c r="D327" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E327" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="328" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C328" s="12">
-        <v>401</v>
-      </c>
-      <c r="D328" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E328" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="329" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C329" s="12">
-        <v>403</v>
-      </c>
-      <c r="D329" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E329" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="330" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C330" s="12">
-        <v>404</v>
-      </c>
-      <c r="D330" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E330" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="331" hidden="1" outlineLevel="1"/>
-    <row r="332" hidden="1" outlineLevel="1"/>
-    <row r="333" s="4" customFormat="1" collapsed="1" spans="1:8">
-      <c r="A333" s="4">
-        <v>10</v>
-      </c>
-      <c r="B333" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C333" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D333" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E333" s="38" t="s">
+    </row>
+    <row r="333" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C333" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F333" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H333" s="35" t="s">
+    </row>
+    <row r="334" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B334" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C334" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="334" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B334" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C334" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="335" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="335" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B335" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C335" s="10" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="336" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="336" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B336" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C336" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="337" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C337" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="337" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B337" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C337" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="338" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="338" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B338" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C338" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="339" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C339" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="340" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="341" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C341" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D341" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E341" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F341" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G341" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H341" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J341" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="342" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C342" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D342" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E342" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F342" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G342" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H342" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J342" s="12"/>
+    </row>
+    <row r="343" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C343" s="10" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="339" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B339" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C339" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="340" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B340" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C340" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="341" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B341" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="342" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C342" s="12" t="s">
+      <c r="D343" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="E343" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F343" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G343" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="H343" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J343" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="344" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="345" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="346" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C346" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D342" s="12" t="s">
+      <c r="D346" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E342" s="10" t="s">
+      <c r="E346" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F342" s="14" t="s">
+      <c r="F346" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G342" s="12" t="s">
+      <c r="G346" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H342" s="12" t="s">
+      <c r="H346" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J342" s="10" t="s">
+      <c r="J346" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="K346" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="343" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C343" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D343" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E343" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F343" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G343" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H343" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J343" s="12"/>
-    </row>
-    <row r="344" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C344" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D344" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="E344" s="10" t="s">
+    <row r="347" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C347" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D347" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E347" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F344" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G344" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="H344" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="J344" s="10" t="s">
+      <c r="F347" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G347" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="H347" s="12"/>
+      <c r="J347" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K347" s="12"/>
+    </row>
+    <row r="348" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C348" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D348" s="10" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="345" hidden="1" outlineLevel="1"/>
-    <row r="346" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B346" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="347" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C347" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D347" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E347" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F347" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G347" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H347" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J347" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="K347" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="348" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C348" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D348" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E348" s="10" t="s">
-        <v>89</v>
+      <c r="E348" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F348" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G348" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H348" s="12"/>
       <c r="J348" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="K348" s="12"/>
-    </row>
-    <row r="349" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C349" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D349" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="E349" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F349" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G349" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="H349" s="12"/>
-      <c r="J349" s="10" t="s">
+      <c r="K348" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="K349" s="10" t="s">
+    </row>
+    <row r="349" spans="2:11" s="5" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C349" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D349" s="47" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="350" s="5" customFormat="1" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C350" s="47" t="s">
+      <c r="E349" s="47"/>
+      <c r="F349" s="48"/>
+      <c r="G349" s="47"/>
+      <c r="H349" s="47"/>
+      <c r="J349" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="K349" s="47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="350" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C350" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D350" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E350" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F350" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G350" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H350" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="J350" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="K350" s="12"/>
+    </row>
+    <row r="351" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C351" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D351" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E351" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F351" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G351" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="H351" s="10"/>
+      <c r="J351" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="K351" s="12"/>
+    </row>
+    <row r="352" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C352" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D352" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E352" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F352" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G352" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H352" s="12"/>
+      <c r="J352" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="K352" s="12"/>
+    </row>
+    <row r="353" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C353" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D353" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E353" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F353" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G353" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H353" s="12"/>
+      <c r="J353" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="354" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C354" s="19"/>
+      <c r="D354" s="19"/>
+      <c r="E354" s="21"/>
+      <c r="F354" s="31"/>
+      <c r="G354" s="21"/>
+      <c r="H354" s="21"/>
+      <c r="J354" s="2"/>
+    </row>
+    <row r="355" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B355" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J355" s="50" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="356" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C356" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D356" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E356" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F356" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G356" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H356" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J356" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="357" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C357" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D357" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E357" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F357" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G357" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H357" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J357" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="358" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C358" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D350" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="E350" s="47"/>
-      <c r="F350" s="48"/>
-      <c r="G350" s="47"/>
-      <c r="H350" s="47"/>
-      <c r="J350" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="K350" s="47" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="351" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C351" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D351" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E351" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F351" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G351" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H351" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="J351" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="K351" s="12"/>
-    </row>
-    <row r="352" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C352" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="D352" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="E352" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F352" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G352" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="H352" s="10"/>
-      <c r="J352" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="K352" s="12"/>
-    </row>
-    <row r="353" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C353" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D353" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="E353" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F353" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G353" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H353" s="12"/>
-      <c r="J353" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="K353" s="12"/>
-    </row>
-    <row r="354" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C354" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D354" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="E354" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F354" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G354" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H354" s="12"/>
-      <c r="J354" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="355" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C355" s="19"/>
-      <c r="D355" s="19"/>
-      <c r="E355" s="21"/>
-      <c r="F355" s="31"/>
-      <c r="G355" s="21"/>
-      <c r="H355" s="21"/>
-      <c r="J355" s="2"/>
-    </row>
-    <row r="356" hidden="1" outlineLevel="1" spans="2:10">
-      <c r="B356" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J356" s="50" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="357" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C357" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D357" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E357" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F357" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G357" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H357" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J357" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="358" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C358" s="10" t="s">
-        <v>331</v>
-      </c>
       <c r="D358" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E358" s="12" t="s">
         <v>91</v>
@@ -9189,40 +8804,38 @@
       <c r="G358" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H358" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="H358" s="12"/>
       <c r="J358" s="10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="359" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C359" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D359" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="E359" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F359" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G359" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H359" s="12"/>
+    <row r="359" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C359" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="D359" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="E359" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F359" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G359" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="H359" s="45"/>
       <c r="J359" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="360" hidden="1" outlineLevel="1" spans="3:10">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="360" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C360" s="45" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D360" s="45" t="s">
-        <v>304</v>
+        <v>132</v>
       </c>
       <c r="E360" s="45" t="s">
         <v>91</v>
@@ -9235,16 +8848,16 @@
       </c>
       <c r="H360" s="45"/>
       <c r="J360" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="361" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C361" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="361" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C361" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D361" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="D361" s="45" t="s">
-        <v>132</v>
-      </c>
       <c r="E361" s="45" t="s">
         <v>91</v>
       </c>
@@ -9252,16 +8865,16 @@
         <v>1</v>
       </c>
       <c r="G361" s="45" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="H361" s="45"/>
       <c r="J361" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="362" hidden="1" outlineLevel="1" spans="3:10">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="362" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C362" s="44" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="D362" s="44" t="s">
         <v>309</v>
@@ -9280,512 +8893,513 @@
         <v>309</v>
       </c>
     </row>
-    <row r="363" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C363" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D363" s="44" t="s">
+    <row r="363" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="364" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B364" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="365" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C365" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D365" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E365" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F365" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="366" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C366" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D366" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E366" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F366" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="367" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C367" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D367" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E367" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F367" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="368" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C368" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D368" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E368" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F368" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="370" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B370" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C371" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D371" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E371" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C372" s="12">
+        <v>200</v>
+      </c>
+      <c r="D372" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E372" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C373" s="12">
+        <v>201</v>
+      </c>
+      <c r="D373" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E373" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C374" s="12">
+        <v>401</v>
+      </c>
+      <c r="D374" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E374" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C375" s="12">
+        <v>403</v>
+      </c>
+      <c r="D375" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E375" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C376" s="12">
+        <v>404</v>
+      </c>
+      <c r="D376" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E376" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="378" spans="1:9" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="4">
+        <v>11</v>
+      </c>
+      <c r="B378" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C378" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="D378" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E378" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F378" s="36">
+        <v>6.11</v>
+      </c>
+      <c r="H378" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="E363" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F363" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G363" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="H363" s="45"/>
-      <c r="J363" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="364" hidden="1" outlineLevel="1"/>
-    <row r="365" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B365" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="366" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C366" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D366" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E366" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F366" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="367" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C367" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D367" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E367" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F367" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="368" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C368" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D368" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E368" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F368" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="369" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C369" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D369" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="E369" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F369" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="370" hidden="1" outlineLevel="1"/>
-    <row r="371" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B371" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="372" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C372" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D372" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E372" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="373" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C373" s="12">
-        <v>200</v>
-      </c>
-      <c r="D373" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E373" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="374" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C374" s="12">
-        <v>201</v>
-      </c>
-      <c r="D374" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E374" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="375" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C375" s="12">
-        <v>401</v>
-      </c>
-      <c r="D375" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E375" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="376" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C376" s="12">
-        <v>403</v>
-      </c>
-      <c r="D376" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E376" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="377" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C377" s="12">
-        <v>404</v>
-      </c>
-      <c r="D377" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E377" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="378" hidden="1" outlineLevel="1"/>
-    <row r="379" s="4" customFormat="1" collapsed="1" spans="1:8">
-      <c r="A379" s="4">
-        <v>11</v>
-      </c>
-      <c r="B379" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C379" s="35" t="s">
+    </row>
+    <row r="379" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B379" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C379" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I379" s="2"/>
+    </row>
+    <row r="380" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B380" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C380" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D379" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E379" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F379" s="36">
-        <v>6.11</v>
-      </c>
-      <c r="H379" s="35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="380" hidden="1" outlineLevel="1" spans="2:9">
-      <c r="B380" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C380" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I380" s="2"/>
-    </row>
-    <row r="381" hidden="1" outlineLevel="1" spans="2:3">
+    </row>
+    <row r="381" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B381" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C381" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="382" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="382" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B382" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C382" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B383" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C383" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B384" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C384" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="385" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B385" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="386" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B386" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="387" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C387" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D387" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E387" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F387" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G387" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H387" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="388" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C388" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D388" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E388" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F388" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G388" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H388" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="389" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C389" s="12" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="383" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B383" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C383" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="384" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B384" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C384" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="385" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B385" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C385" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="386" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B386" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C386" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="387" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B387" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="388" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C388" s="12" t="s">
+      <c r="D389" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E389" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F389" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G389" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="H389" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="390" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C390" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D390" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E390" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F390" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G390" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H390" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J390" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="391" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="392" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B392" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L392" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q392" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="393" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C393" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D388" s="12" t="s">
+      <c r="D393" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E388" s="10" t="s">
+      <c r="E393" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F388" s="14" t="s">
+      <c r="F393" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G388" s="12" t="s">
+      <c r="G393" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H388" s="12" t="s">
+      <c r="H393" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="389" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C389" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D389" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E389" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F389" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G389" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H389" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="390" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C390" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D390" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="E390" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F390" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G390" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="H390" s="12" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="391" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C391" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D391" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="E391" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F391" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G391" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H391" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J391" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="392" hidden="1" outlineLevel="1"/>
-    <row r="393" hidden="1" outlineLevel="1" spans="2:17">
-      <c r="B393" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L393" s="2" t="s">
-        <v>342</v>
+      <c r="J393" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="Q393" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="394" hidden="1" outlineLevel="1" spans="3:17">
+    <row r="394" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C394" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D394" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E394" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F394" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G394" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H394" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J394" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="395" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C395" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D395" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E395" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F395" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G395" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H395" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J395" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="396" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C396" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D396" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E396" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F396" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G396" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H396" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J396" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="397" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C397" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D397" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="E397" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F397" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G397" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H397" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="J397" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="398" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C398" s="21"/>
+      <c r="D398" s="21"/>
+      <c r="E398" s="21"/>
+      <c r="F398" s="31"/>
+      <c r="G398" s="21"/>
+      <c r="H398" s="21"/>
+      <c r="I398" s="18"/>
+      <c r="K398" s="18"/>
+    </row>
+    <row r="399" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B399" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C399" s="18"/>
+      <c r="E399" s="18"/>
+      <c r="G399" s="18"/>
+      <c r="I399" s="18"/>
+      <c r="J399" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K399" s="18"/>
+    </row>
+    <row r="400" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B400" s="2"/>
+      <c r="C400" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D394" s="12" t="s">
+      <c r="D400" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E394" s="12" t="s">
+      <c r="E400" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F394" s="14" t="s">
+      <c r="F400" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G394" s="12" t="s">
+      <c r="G400" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H394" s="12" t="s">
+      <c r="H400" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J394" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q394" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="395" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C395" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D395" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E395" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F395" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G395" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H395" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="J395" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="396" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C396" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="D396" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="E396" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F396" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G396" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H396" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J396" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="397" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C397" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D397" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="E397" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F397" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G397" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H397" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J397" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="398" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C398" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="D398" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="E398" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="F398" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G398" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="H398" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="J398" s="37" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="399" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C399" s="21"/>
-      <c r="D399" s="21"/>
-      <c r="E399" s="21"/>
-      <c r="F399" s="31"/>
-      <c r="G399" s="21"/>
-      <c r="H399" s="21"/>
-      <c r="I399" s="18"/>
-      <c r="K399" s="18"/>
-    </row>
-    <row r="400" hidden="1" outlineLevel="1" spans="2:11">
-      <c r="B400" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C400" s="18"/>
-      <c r="E400" s="18"/>
-      <c r="G400" s="18"/>
       <c r="I400" s="18"/>
-      <c r="J400" s="2" t="s">
+      <c r="K400" s="18"/>
+    </row>
+    <row r="401" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C401" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="K400" s="18"/>
-    </row>
-    <row r="401" hidden="1" outlineLevel="1" spans="2:11">
-      <c r="B401" s="2"/>
-      <c r="C401" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D401" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E401" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F401" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G401" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H401" s="12" t="s">
-        <v>53</v>
+      <c r="D401" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="E401" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F401" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G401" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H401" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="I401" s="18"/>
       <c r="K401" s="18"/>
     </row>
-    <row r="402" hidden="1" outlineLevel="1" spans="3:11">
+    <row r="402" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C402" s="37" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D402" s="37" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E402" s="29" t="s">
         <v>91</v>
@@ -9800,845 +9414,822 @@
         <v>127</v>
       </c>
       <c r="I402" s="18"/>
+      <c r="J402" s="37" t="s">
+        <v>360</v>
+      </c>
       <c r="K402" s="18"/>
     </row>
-    <row r="403" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C403" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="D403" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="E403" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F403" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G403" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="H403" s="29" t="s">
-        <v>127</v>
-      </c>
+    <row r="403" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C403" s="18"/>
+      <c r="E403" s="18"/>
+      <c r="G403" s="18"/>
       <c r="I403" s="18"/>
-      <c r="J403" s="37" t="s">
+      <c r="K403" s="18"/>
+    </row>
+    <row r="404" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B404" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="405" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C405" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D405" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E405" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F405" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G405" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H405" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="406" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C406" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D406" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E406" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F406" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G406" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H406" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="407" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C407" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D407" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E407" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F407" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G407" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H407" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="408" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C408" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D408" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="K403" s="18"/>
-    </row>
-    <row r="404" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C404" s="18"/>
-      <c r="E404" s="18"/>
-      <c r="G404" s="18"/>
-      <c r="I404" s="18"/>
-      <c r="K404" s="18"/>
-    </row>
-    <row r="405" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B405" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="406" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C406" s="12" t="s">
+      <c r="E408" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F408" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G408" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="H408" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="409" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C409" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D409" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E409" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F409" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G409" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H409" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="410" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C410" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D410" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E410" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F410" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G410" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H410" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="411" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="412" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B412" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="413" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C413" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D406" s="12" t="s">
+      <c r="D413" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E406" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F406" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G406" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H406" s="12" t="s">
+      <c r="E413" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F413" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="407" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C407" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D407" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E407" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F407" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G407" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H407" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="408" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C408" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D408" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E408" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F408" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G408" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H408" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="409" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C409" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D409" s="12" t="s">
+    <row r="414" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C414" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D414" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E414" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F414" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="415" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C415" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D415" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E415" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F415" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="416" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C416" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D416" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E416" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F416" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="418" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B418" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C419" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D419" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E419" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C420" s="12">
+        <v>200</v>
+      </c>
+      <c r="D420" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E420" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C421" s="12">
+        <v>201</v>
+      </c>
+      <c r="D421" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E421" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C422" s="12">
+        <v>401</v>
+      </c>
+      <c r="D422" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E422" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C423" s="12">
+        <v>403</v>
+      </c>
+      <c r="D423" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E423" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C424" s="12">
+        <v>404</v>
+      </c>
+      <c r="D424" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E424" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="426" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>12</v>
+      </c>
+      <c r="B426" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C426" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="E409" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F409" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G409" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H409" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="410" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C410" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D410" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E410" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F410" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G410" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H410" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="411" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C411" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="D411" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E411" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F411" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G411" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H411" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="412" hidden="1" outlineLevel="1"/>
-    <row r="413" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B413" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="414" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C414" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D414" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E414" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F414" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="415" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C415" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D415" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E415" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F415" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="416" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C416" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D416" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E416" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F416" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="417" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C417" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D417" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="E417" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F417" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="418" hidden="1" outlineLevel="1"/>
-    <row r="419" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B419" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="420" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C420" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D420" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E420" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="421" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C421" s="12">
-        <v>200</v>
-      </c>
-      <c r="D421" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E421" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="422" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C422" s="12">
-        <v>201</v>
-      </c>
-      <c r="D422" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E422" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="423" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C423" s="12">
-        <v>401</v>
-      </c>
-      <c r="D423" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E423" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="424" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C424" s="12">
-        <v>403</v>
-      </c>
-      <c r="D424" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E424" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="425" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C425" s="12">
-        <v>404</v>
-      </c>
-      <c r="D425" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E425" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="426" hidden="1" outlineLevel="1"/>
-    <row r="427" collapsed="1" spans="1:8">
-      <c r="A427">
-        <v>12</v>
-      </c>
-      <c r="B427" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C427" s="8" t="s">
+      <c r="D426" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E426" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F426" s="9">
+        <v>6.12</v>
+      </c>
+      <c r="H426" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="D427" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E427" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F427" s="9">
-        <v>6.12</v>
-      </c>
-      <c r="H427" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="428" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B428" s="12" t="str">
+    </row>
+    <row r="427" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B427" s="12" t="str">
         <f>B3</f>
         <v>接⼝地址</v>
       </c>
+      <c r="C427" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B428" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="C428" s="10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="429" hidden="1" outlineLevel="1" spans="2:3">
+    <row r="429" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B429" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C429" s="10" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="430" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B430" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C430" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="431" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B431" s="12" t="str">
+    <row r="430" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B430" s="12" t="str">
         <f>B6</f>
         <v>请求⽅式</v>
       </c>
-      <c r="C431" s="12" t="str">
+      <c r="C430" s="12" t="str">
         <f>C6</f>
         <v>POST</v>
       </c>
     </row>
-    <row r="432" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B432" s="12" t="str">
+    <row r="431" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B431" s="12" t="str">
         <f>B7</f>
         <v>接⼝描述</v>
       </c>
+      <c r="C431" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B432" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="C432" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="433" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B433" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C433" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="434" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B434" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="435" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C435" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D435" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E435" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F435" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G435" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H435" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J435" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="436" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C436" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D436" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E436" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F436" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G436" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H436" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="437" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C437" s="12" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="433" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B433" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C433" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="434" hidden="1" outlineLevel="1" spans="2:3">
-      <c r="B434" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C434" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="435" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B435" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="436" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C436" s="12" t="s">
+      <c r="D437" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="E437" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F437" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G437" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H437" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="438" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C438" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D438" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E438" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F438" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G438" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H438" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J438" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="439" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C439" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D439" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E439" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F439" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G439" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H439" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J439" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="440" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C440" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D440" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="E440" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F440" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G440" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H440" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="441" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C441" s="18"/>
+      <c r="D441" s="18"/>
+    </row>
+    <row r="442" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B442" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="443" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C443" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D443" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E443" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F443" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G443" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H443" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="444" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C444" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D444" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E444" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F444" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G444" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H444" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="445" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C445" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D445" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E445" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F445" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G445" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H445" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="446" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C446" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D446" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="E446" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F446" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G446" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H446" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J446" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="447" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C447" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D447" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E447" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F447" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G447" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H447" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J447" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K447" s="18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="448" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C448" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="D448" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="E448" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F448" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G448" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H448" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J448" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="449" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C449" s="18"/>
+      <c r="D449" s="18"/>
+      <c r="E449" s="21"/>
+      <c r="F449" s="31"/>
+      <c r="G449" s="21"/>
+      <c r="H449" s="21"/>
+    </row>
+    <row r="450" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B450" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="451" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C451" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D451" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E451" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="452" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C452" s="12">
+        <v>200</v>
+      </c>
+      <c r="D452" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E452" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="453" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C453" s="12">
+        <v>401</v>
+      </c>
+      <c r="D453" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E453" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="454" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C454" s="12">
+        <v>403</v>
+      </c>
+      <c r="D454" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E454" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="455" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C455" s="12">
+        <v>404</v>
+      </c>
+      <c r="D455" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E455" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="456" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="457" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B457" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="458" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C458" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D436" s="12" t="s">
+      <c r="D458" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E436" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F436" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G436" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H436" s="12" t="s">
+      <c r="E458" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F458" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J436" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="437" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C437" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D437" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E437" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F437" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G437" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H437" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="438" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C438" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="D438" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E438" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F438" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G438" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H438" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="439" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C439" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D439" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="E439" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F439" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G439" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H439" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J439" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="440" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C440" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D440" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="E440" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F440" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G440" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H440" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J440" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="441" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C441" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="D441" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="E441" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F441" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G441" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H441" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="442" hidden="1" outlineLevel="1" spans="3:4">
-      <c r="C442" s="18"/>
-      <c r="D442" s="18"/>
-    </row>
-    <row r="443" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B443" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="444" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C444" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D444" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E444" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F444" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G444" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H444" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="445" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C445" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="D445" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="E445" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F445" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G445" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H445" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="446" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C446" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="D446" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="E446" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F446" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G446" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H446" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="447" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C447" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="D447" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="E447" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F447" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G447" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H447" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J447" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="448" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C448" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D448" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="E448" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F448" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G448" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H448" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J448" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K448" s="18" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="449" hidden="1" outlineLevel="1" spans="3:10">
-      <c r="C449" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="D449" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="E449" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F449" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G449" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H449" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J449" s="2" t="s">
+    </row>
+    <row r="459" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C459" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D459" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E459" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F459" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="460" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C460" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D460" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E460" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F460" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="461" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C461" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D461" s="12" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="450" hidden="1" outlineLevel="1" spans="3:8">
-      <c r="C450" s="18"/>
-      <c r="D450" s="18"/>
-      <c r="E450" s="21"/>
-      <c r="F450" s="31"/>
-      <c r="G450" s="21"/>
-      <c r="H450" s="21"/>
-    </row>
-    <row r="451" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B451" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="452" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C452" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D452" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E452" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="453" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C453" s="12">
-        <v>200</v>
-      </c>
-      <c r="D453" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E453" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="454" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C454" s="12">
-        <v>401</v>
-      </c>
-      <c r="D454" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E454" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="455" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C455" s="12">
-        <v>403</v>
-      </c>
-      <c r="D455" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E455" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="456" hidden="1" outlineLevel="1" spans="3:5">
-      <c r="C456" s="12">
-        <v>404</v>
-      </c>
-      <c r="D456" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E456" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="457" hidden="1" outlineLevel="1"/>
-    <row r="458" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B458" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="459" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C459" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D459" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E459" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F459" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="460" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C460" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D460" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E460" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F460" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="461" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C461" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D461" s="12" t="s">
-        <v>183</v>
-      </c>
       <c r="E461" s="12" t="s">
-        <v>58</v>
+        <v>391</v>
       </c>
       <c r="F461" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="462" hidden="1" outlineLevel="1" spans="3:6">
-      <c r="C462" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D462" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="E462" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="F462" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="463" spans="3:3">
-      <c r="C463" s="18"/>
+    <row r="462" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C462" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Z28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6">
         <v>1</v>
@@ -10647,23 +10238,23 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <v>2</v>
       </c>
@@ -10671,171 +10262,175 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="16" spans="4:5">
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17" spans="3:23">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="U17" t="s">
+        <v>293</v>
+      </c>
+      <c r="W17" t="s">
         <v>404</v>
       </c>
-      <c r="U17" t="s">
-        <v>294</v>
-      </c>
-      <c r="W17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F18" t="s">
         <v>406</v>
       </c>
-      <c r="F18" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>8</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F19" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26">
+      <c r="D19" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="X20" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="X20" t="s">
-        <v>411</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
+      <c r="D25" s="55" t="s">
+        <v>413</v>
+      </c>
+      <c r="E25" s="55"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="D26" s="54" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="52" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>175</v>
+      <c r="I28" s="52" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/docs/ITSM-DEVOPS接口对接-接口规范&参数说明.xlsx
+++ b/src/test/resources/docs/ITSM-DEVOPS接口对接-接口规范&参数说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\slicee\ws\gitws\kvps\src\test\resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CDB8B8-15B1-4E80-BCC6-BA93F0D8F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DD2630-F1C5-4610-A895-DB8A4CF8393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="429">
   <si>
     <t>No.</t>
   </si>
@@ -700,9 +700,6 @@
     <t>projectVO对象结构</t>
   </si>
   <si>
-    <t>字段标对应名</t>
-  </si>
-  <si>
     <t>approvalNodes</t>
   </si>
   <si>
@@ -798,9 +795,6 @@
       </rPr>
       <t xml:space="preserve">d </t>
     </r>
-  </si>
-  <si>
-    <t>流程ID</t>
   </si>
   <si>
     <t>项目流程记录</t>
@@ -892,9 +886,6 @@
     <t>同意</t>
   </si>
   <si>
-    <t>项目申请部门-总经理-审批</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1216,9 +1207,6 @@
   </si>
   <si>
     <t>排期提测ID</t>
-  </si>
-  <si>
-    <t>ApplyID，体测单的主键</t>
   </si>
   <si>
     <t>信息来自于字段表的 【DevOps需提供数据/需求管理/需求管理】</t>
@@ -1654,6 +1642,65 @@
   </si>
   <si>
     <t>/auth/oa/project/update</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionName</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityName</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目申请部门-总经理-审批</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>createDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>createUserName</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程ID，ITSM的项目审批流程的ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段表对应名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ApplyID，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单的主键</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1822,7 +1869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1990,6 +2037,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4086,8 +4134,8 @@
   </sheetPr>
   <dimension ref="A1:Q462"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="I167" sqref="I167"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="J354" sqref="J354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4117,7 +4165,7 @@
         <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
@@ -4143,7 +4191,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6004,7 +6052,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>6</v>
       </c>
@@ -6027,7 +6075,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
         <v>34</v>
       </c>
@@ -6035,7 +6083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
         <v>35</v>
       </c>
@@ -6043,7 +6091,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="158" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B158" s="17" t="s">
         <v>37</v>
       </c>
@@ -6051,7 +6099,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="159" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
         <v>39</v>
       </c>
@@ -6059,7 +6107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
         <v>41</v>
       </c>
@@ -6067,7 +6115,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="161" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
         <v>43</v>
       </c>
@@ -6075,7 +6123,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
         <v>45</v>
       </c>
@@ -6083,12 +6131,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C164" s="12" t="s">
         <v>48</v>
       </c>
@@ -6108,7 +6156,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C165" s="10" t="s">
         <v>200</v>
       </c>
@@ -6128,7 +6176,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="166" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C166" s="12" t="s">
         <v>167</v>
       </c>
@@ -6148,13 +6196,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="167" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="169" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C169" s="12" t="s">
         <v>48</v>
       </c>
@@ -6173,16 +6221,16 @@
       <c r="H169" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J169" s="32" t="s">
+      <c r="J169" s="57" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="12" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="170" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C170" s="12" t="s">
+      <c r="D170" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="E170" s="12" t="s">
         <v>91</v>
@@ -6194,62 +6242,62 @@
         <v>122</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J170" s="33"/>
     </row>
-    <row r="171" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C171" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D171" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F171" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H171" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J171" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E171" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F171" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G171" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H171" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J171" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="172" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C172" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D172" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F172" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G172" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="E172" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F172" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G172" s="12" t="s">
+      <c r="H172" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J172" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="H172" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J172" s="32" t="s">
+    </row>
+    <row r="173" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="173" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C173" s="12" t="s">
+      <c r="D173" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>91</v>
@@ -6267,12 +6315,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C174" s="12" t="s">
         <v>172</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>91</v>
@@ -6288,33 +6336,33 @@
       </c>
       <c r="J174" s="33"/>
     </row>
-    <row r="175" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C175" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D175" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D175" s="12" t="s">
+      <c r="E175" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F175" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H175" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J175" s="33"/>
+    </row>
+    <row r="176" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C176" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E175" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F175" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G175" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H175" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J175" s="33"/>
-    </row>
-    <row r="176" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C176" s="12" t="s">
+      <c r="D176" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="D176" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>91</v>
@@ -6323,18 +6371,18 @@
         <v>0</v>
       </c>
       <c r="G176" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H176" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="J176" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="H176" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="J176" s="32" t="s">
+    </row>
+    <row r="177" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C177" s="12" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C177" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="D177" s="12" t="s">
         <v>171</v>
@@ -6352,15 +6400,15 @@
         <v>127</v>
       </c>
       <c r="J177" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="178" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C178" s="12" t="s">
         <v>153</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>91</v>
@@ -6369,44 +6417,44 @@
         <v>1</v>
       </c>
       <c r="G178" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H178" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J178" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="H178" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J178" s="32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="179" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C179" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D179" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F179" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G179" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H179" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J179" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="E179" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F179" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G179" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H179" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J179" s="32" t="s">
+    </row>
+    <row r="180" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C180" s="12" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="180" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C180" s="12" t="s">
+      <c r="D180" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="D180" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>91</v>
@@ -6422,42 +6470,42 @@
       </c>
       <c r="J180" s="33"/>
     </row>
-    <row r="181" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C181" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D181" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="D181" s="29" t="s">
+      <c r="E181" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F181" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G181" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H181" s="29"/>
+      <c r="J181" s="57" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F182" s="31"/>
+    </row>
+    <row r="183" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F183" s="31"/>
+    </row>
+    <row r="184" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="J184" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E181" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F181" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G181" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="H181" s="29"/>
-      <c r="J181" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="182" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="F182" s="31"/>
-    </row>
-    <row r="183" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="F183" s="31"/>
-    </row>
-    <row r="184" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="52" t="s">
-        <v>420</v>
-      </c>
-      <c r="J184" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="185" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C185" s="12" t="s">
         <v>48</v>
       </c>
@@ -6477,92 +6525,92 @@
         <v>53</v>
       </c>
     </row>
-    <row r="186" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C186" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F186" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G186" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H186" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C187" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D186" s="12" t="s">
+      <c r="D187" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E186" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F186" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G186" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H186" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="187" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C187" s="12" t="s">
+      <c r="E187" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F187" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G187" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H187" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D187" s="12" t="s">
+      <c r="D188" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="E187" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F187" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G187" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H187" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="188" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C188" s="12" t="s">
+      <c r="E188" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F188" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H188" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C189" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D188" s="12" t="s">
+      <c r="D189" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E188" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F188" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G188" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H188" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="189" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C189" s="12" t="s">
+      <c r="E189" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F189" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G189" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H189" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C190" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D189" s="12" t="s">
+      <c r="D190" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="E189" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F189" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G189" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H189" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="190" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C190" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="E190" s="12" t="s">
         <v>91</v>
@@ -6577,13 +6625,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="191" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="193" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C193" s="12" t="s">
         <v>69</v>
       </c>
@@ -6594,7 +6642,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="194" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C194" s="12">
         <v>200</v>
       </c>
@@ -6605,7 +6653,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="195" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C195" s="12">
         <v>401</v>
       </c>
@@ -6616,7 +6664,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="196" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C196" s="12">
         <v>403</v>
       </c>
@@ -6627,7 +6675,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="197" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C197" s="12">
         <v>404</v>
       </c>
@@ -6638,12 +6686,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="198" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B198" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C199" s="12" t="s">
         <v>48</v>
       </c>
@@ -6657,7 +6705,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="200" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C200" s="12" t="s">
         <v>29</v>
       </c>
@@ -6671,7 +6719,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="201" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C201" s="12" t="s">
         <v>182</v>
       </c>
@@ -6685,12 +6733,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="202" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C202" s="12" t="s">
         <v>184</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E202" s="12" t="s">
         <v>58</v>
@@ -6699,7 +6747,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="203" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="204" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>7</v>
@@ -6728,7 +6776,7 @@
         <v>34</v>
       </c>
       <c r="C205" s="56" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="206" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6736,7 +6784,7 @@
         <v>35</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="207" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6760,7 +6808,7 @@
         <v>41</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="210" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6826,10 +6874,10 @@
     </row>
     <row r="215" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C215" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E215" s="12" t="s">
         <v>91</v>
@@ -6846,10 +6894,10 @@
     </row>
     <row r="216" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C216" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E216" s="12" t="s">
         <v>91</v>
@@ -6864,15 +6912,15 @@
         <v>127</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="217" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C217" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E217" s="12" t="s">
         <v>91</v>
@@ -6884,13 +6932,13 @@
         <v>122</v>
       </c>
       <c r="H217" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="218" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="219" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B219" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="220" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6913,107 +6961,107 @@
         <v>53</v>
       </c>
       <c r="J220" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C221" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F221" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G221" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H221" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J221" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C222" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E222" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F222" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G222" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H222" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J222" s="56" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C223" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E223" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F223" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G223" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H223" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J223" s="10" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="221" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C221" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D221" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="E221" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F221" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G221" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H221" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J221" s="10" t="s">
+    <row r="224" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C224" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F224" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G224" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H224" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J224" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="222" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C222" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D222" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="E222" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F222" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G222" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H222" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J222" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="223" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C223" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D223" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E223" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F223" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G223" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H223" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J223" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="224" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C224" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D224" s="12" t="s">
+    <row r="225" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C225" s="56" t="s">
+        <v>425</v>
+      </c>
+      <c r="D225" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="E224" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F224" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G224" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H224" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J224" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C225" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="E225" s="12" t="s">
         <v>91</v>
@@ -7028,7 +7076,7 @@
         <v>127</v>
       </c>
       <c r="J225" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="226" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
@@ -7145,7 +7193,7 @@
         <v>184</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E238" s="12" t="s">
         <v>58</v>
@@ -7174,7 +7222,7 @@
         <v>6.8</v>
       </c>
       <c r="H239" s="35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="240" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7190,7 +7238,7 @@
         <v>35</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7198,7 +7246,7 @@
         <v>37</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7214,7 +7262,7 @@
         <v>41</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="245" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7258,7 +7306,7 @@
         <v>53</v>
       </c>
       <c r="J248" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="249" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7284,10 +7332,10 @@
     </row>
     <row r="250" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C250" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E250" s="10" t="s">
         <v>91</v>
@@ -7296,10 +7344,10 @@
         <v>1</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H250" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J250" s="12"/>
     </row>
@@ -7308,7 +7356,7 @@
     </row>
     <row r="252" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B252" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="253" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7331,15 +7379,15 @@
         <v>53</v>
       </c>
       <c r="J253" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="254" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C254" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D254" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="D254" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="E254" s="12" t="s">
         <v>91</v>
@@ -7351,16 +7399,16 @@
         <v>122</v>
       </c>
       <c r="H254" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J254" s="12"/>
     </row>
     <row r="255" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C255" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E255" s="12" t="s">
         <v>91</v>
@@ -7375,7 +7423,7 @@
         <v>127</v>
       </c>
       <c r="J255" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="256" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7383,7 +7431,7 @@
         <v>133</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E256" s="12" t="s">
         <v>91</v>
@@ -7398,15 +7446,15 @@
         <v>127</v>
       </c>
       <c r="J256" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="257" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C257" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E257" s="12" t="s">
         <v>91</v>
@@ -7421,16 +7469,16 @@
         <v>127</v>
       </c>
       <c r="J257" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K257" s="18"/>
     </row>
     <row r="258" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C258" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E258" s="12" t="s">
         <v>91</v>
@@ -7445,15 +7493,15 @@
         <v>127</v>
       </c>
       <c r="J258" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="259" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C259" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E259" s="12" t="s">
         <v>91</v>
@@ -7468,15 +7516,15 @@
         <v>127</v>
       </c>
       <c r="J259" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="260" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C260" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E260" s="12" t="s">
         <v>91</v>
@@ -7485,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H260" s="12" t="s">
         <v>127</v>
@@ -7497,7 +7545,7 @@
         <v>172</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E261" s="12" t="s">
         <v>91</v>
@@ -7512,7 +7560,7 @@
         <v>127</v>
       </c>
       <c r="J261" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="262" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7520,7 +7568,7 @@
         <v>153</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E262" s="12" t="s">
         <v>91</v>
@@ -7535,7 +7583,7 @@
         <v>127</v>
       </c>
       <c r="J262" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="263" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7543,7 +7591,7 @@
         <v>161</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E263" s="10" t="s">
         <v>91</v>
@@ -7558,7 +7606,7 @@
         <v>127</v>
       </c>
       <c r="J263" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="264" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7582,7 +7630,7 @@
     </row>
     <row r="267" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B267" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="268" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7607,10 +7655,10 @@
     </row>
     <row r="269" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C269" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E269" s="12" t="s">
         <v>91</v>
@@ -7627,10 +7675,10 @@
     </row>
     <row r="270" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C270" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E270" s="12" t="s">
         <v>91</v>
@@ -7647,10 +7695,10 @@
     </row>
     <row r="271" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C271" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E271" s="12" t="s">
         <v>91</v>
@@ -7659,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H271" s="12" t="s">
         <v>127</v>
@@ -7667,10 +7715,10 @@
     </row>
     <row r="272" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C272" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E272" s="12" t="s">
         <v>91</v>
@@ -7687,10 +7735,10 @@
     </row>
     <row r="273" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C273" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E273" s="12" t="s">
         <v>91</v>
@@ -7758,7 +7806,7 @@
         <v>184</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E279" s="12" t="s">
         <v>192</v>
@@ -7840,7 +7888,7 @@
       </c>
     </row>
     <row r="288" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="289" spans="1:8" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>9</v>
       </c>
@@ -7863,7 +7911,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B290" s="10" t="s">
         <v>34</v>
       </c>
@@ -7871,26 +7919,26 @@
         <v>19</v>
       </c>
       <c r="E290" s="39" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B291" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B292" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B293" s="10" t="s">
         <v>39</v>
       </c>
@@ -7898,15 +7946,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B294" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B295" s="10" t="s">
         <v>43</v>
       </c>
@@ -7914,7 +7962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B296" s="10" t="s">
         <v>45</v>
       </c>
@@ -7922,12 +7970,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B297" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C298" s="12" t="s">
         <v>48</v>
       </c>
@@ -7947,7 +7995,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C299" s="12" t="s">
         <v>167</v>
       </c>
@@ -7967,12 +8015,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C300" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E300" s="12" t="s">
         <v>91</v>
@@ -7981,19 +8029,19 @@
         <v>1</v>
       </c>
       <c r="G300" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H300" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B302" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C303" s="12" t="s">
         <v>48</v>
       </c>
@@ -8013,7 +8061,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C304" s="10" t="s">
         <v>87</v>
       </c>
@@ -8027,16 +8075,16 @@
         <v>1</v>
       </c>
       <c r="G304" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H304" s="12"/>
     </row>
-    <row r="305" spans="2:10" s="3" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:10" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C305" s="40" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D305" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E305" s="10" t="s">
         <v>89</v>
@@ -8045,16 +8093,16 @@
         <v>1</v>
       </c>
       <c r="G305" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H305" s="12"/>
+    </row>
+    <row r="306" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C306" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="H305" s="12"/>
-    </row>
-    <row r="306" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C306" s="10" t="s">
-        <v>295</v>
-      </c>
       <c r="D306" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E306" s="10" t="s">
         <v>89</v>
@@ -8066,10 +8114,10 @@
         <v>92</v>
       </c>
       <c r="H306" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="307" spans="2:10" s="3" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="307" spans="2:10" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C307" s="41"/>
       <c r="D307" s="41"/>
       <c r="E307" s="42"/>
@@ -8077,12 +8125,12 @@
       <c r="G307" s="42"/>
       <c r="H307" s="42"/>
     </row>
-    <row r="308" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B308" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="309" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="309" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C309" s="12" t="s">
         <v>48</v>
       </c>
@@ -8105,12 +8153,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="310" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C310" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D310" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E310" s="12" t="s">
         <v>91</v>
@@ -8126,74 +8174,74 @@
       </c>
       <c r="J310" s="12"/>
     </row>
-    <row r="311" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C311" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D311" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E311" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F311" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G311" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H311" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J311" s="12"/>
+    </row>
+    <row r="312" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C312" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D312" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E312" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F312" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G312" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H312" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J312" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="E311" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F311" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G311" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H311" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J311" s="12"/>
-    </row>
-    <row r="312" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C312" s="10" t="s">
+    </row>
+    <row r="313" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C313" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D312" s="10" t="s">
+      <c r="D313" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="E312" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F312" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G312" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H312" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J312" s="17" t="s">
+      <c r="E313" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F313" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G313" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H313" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J313" s="12"/>
+    </row>
+    <row r="314" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C314" s="17" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="313" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C313" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="D313" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="E313" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F313" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G313" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H313" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J313" s="12"/>
-    </row>
-    <row r="314" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C314" s="17" t="s">
-        <v>307</v>
       </c>
       <c r="D314" s="17" t="s">
         <v>132</v>
@@ -8212,12 +8260,12 @@
       </c>
       <c r="J314" s="12"/>
     </row>
-    <row r="315" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C315" s="44" t="s">
         <v>153</v>
       </c>
       <c r="D315" s="44" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E315" s="45" t="s">
         <v>91</v>
@@ -8226,19 +8274,19 @@
         <v>1</v>
       </c>
       <c r="G315" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H315" s="45" t="s">
         <v>127</v>
       </c>
       <c r="J315" s="12"/>
     </row>
-    <row r="316" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C316" s="44" t="s">
         <v>105</v>
       </c>
       <c r="D316" s="44" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E316" s="45" t="s">
         <v>91</v>
@@ -8247,19 +8295,19 @@
         <v>1</v>
       </c>
       <c r="G316" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H316" s="45" t="s">
         <v>127</v>
       </c>
       <c r="J316" s="12"/>
     </row>
-    <row r="317" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B317" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="318" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C318" s="12" t="s">
         <v>48</v>
       </c>
@@ -8273,7 +8321,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="319" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C319" s="12" t="s">
         <v>29</v>
       </c>
@@ -8287,7 +8335,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="320" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C320" s="12" t="s">
         <v>182</v>
       </c>
@@ -8301,12 +8349,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C321" s="12" t="s">
         <v>184</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E321" s="12" t="s">
         <v>192</v>
@@ -8315,13 +8363,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="323" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="323" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B323" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C324" s="12" t="s">
         <v>69</v>
       </c>
@@ -8332,7 +8380,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C325" s="12">
         <v>200</v>
       </c>
@@ -8343,7 +8391,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C326" s="12">
         <v>201</v>
       </c>
@@ -8354,7 +8402,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C327" s="12">
         <v>401</v>
       </c>
@@ -8365,7 +8413,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C328" s="12">
         <v>403</v>
       </c>
@@ -8376,7 +8424,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C329" s="12">
         <v>404</v>
       </c>
@@ -8387,9 +8435,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="331" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="332" spans="1:8" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="331" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="332" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>10</v>
       </c>
@@ -8409,10 +8457,10 @@
         <v>22</v>
       </c>
       <c r="H332" s="35" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B333" s="10" t="s">
         <v>34</v>
       </c>
@@ -8420,23 +8468,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B334" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C334" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B335" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B336" s="10" t="s">
         <v>39</v>
       </c>
@@ -8444,15 +8492,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="337" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B337" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="338" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="338" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B338" s="10" t="s">
         <v>43</v>
       </c>
@@ -8460,7 +8508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="339" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B339" s="10" t="s">
         <v>45</v>
       </c>
@@ -8468,12 +8516,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="340" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B340" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="341" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C341" s="12" t="s">
         <v>48</v>
       </c>
@@ -8496,7 +8544,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="342" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C342" s="12" t="s">
         <v>167</v>
       </c>
@@ -8517,12 +8565,12 @@
       </c>
       <c r="J342" s="12"/>
     </row>
-    <row r="343" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C343" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D343" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E343" s="10" t="s">
         <v>89</v>
@@ -8531,22 +8579,22 @@
         <v>1</v>
       </c>
       <c r="G343" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H343" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J343" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="344" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="345" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="344" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="345" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B345" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="346" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="346" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C346" s="12" t="s">
         <v>48</v>
       </c>
@@ -8566,18 +8614,18 @@
         <v>53</v>
       </c>
       <c r="J346" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K346" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="347" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C347" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D347" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E347" s="10" t="s">
         <v>89</v>
@@ -8586,20 +8634,20 @@
         <v>1</v>
       </c>
       <c r="G347" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H347" s="12"/>
       <c r="J347" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K347" s="12"/>
     </row>
-    <row r="348" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C348" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D348" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E348" s="12" t="s">
         <v>91</v>
@@ -8608,40 +8656,40 @@
         <v>1</v>
       </c>
       <c r="G348" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H348" s="12"/>
       <c r="J348" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K348" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="349" spans="2:11" s="5" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="349" spans="2:11" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C349" s="47" t="s">
         <v>161</v>
       </c>
       <c r="D349" s="47" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E349" s="47"/>
       <c r="F349" s="48"/>
       <c r="G349" s="47"/>
       <c r="H349" s="47"/>
       <c r="J349" s="47" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K349" s="47" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="350" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="350" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C350" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D350" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E350" s="12" t="s">
         <v>91</v>
@@ -8653,19 +8701,19 @@
         <v>92</v>
       </c>
       <c r="H350" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J350" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K350" s="12"/>
     </row>
-    <row r="351" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C351" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E351" s="12" t="s">
         <v>91</v>
@@ -8674,20 +8722,20 @@
         <v>1</v>
       </c>
       <c r="G351" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H351" s="10"/>
       <c r="J351" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K351" s="12"/>
     </row>
-    <row r="352" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C352" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D352" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E352" s="12" t="s">
         <v>91</v>
@@ -8700,16 +8748,16 @@
       </c>
       <c r="H352" s="12"/>
       <c r="J352" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K352" s="12"/>
     </row>
-    <row r="353" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C353" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D353" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E353" s="12" t="s">
         <v>91</v>
@@ -8721,11 +8769,12 @@
         <v>58</v>
       </c>
       <c r="H353" s="12"/>
-      <c r="J353" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="354" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J353" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="K353" s="12"/>
+    </row>
+    <row r="354" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C354" s="19"/>
       <c r="D354" s="19"/>
       <c r="E354" s="21"/>
@@ -8734,15 +8783,15 @@
       <c r="H354" s="21"/>
       <c r="J354" s="2"/>
     </row>
-    <row r="355" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B355" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J355" s="50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="356" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="356" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C356" s="12" t="s">
         <v>48</v>
       </c>
@@ -8762,15 +8811,15 @@
         <v>53</v>
       </c>
       <c r="J356" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="357" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="357" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C357" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D357" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E357" s="12" t="s">
         <v>91</v>
@@ -8785,15 +8834,15 @@
         <v>127</v>
       </c>
       <c r="J357" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="358" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="358" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C358" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D358" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E358" s="12" t="s">
         <v>91</v>
@@ -8806,15 +8855,15 @@
       </c>
       <c r="H358" s="12"/>
       <c r="J358" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="359" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="359" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C359" s="45" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D359" s="45" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E359" s="45" t="s">
         <v>91</v>
@@ -8827,12 +8876,12 @@
       </c>
       <c r="H359" s="45"/>
       <c r="J359" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="360" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="360" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C360" s="45" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D360" s="45" t="s">
         <v>132</v>
@@ -8851,12 +8900,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="361" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C361" s="44" t="s">
         <v>153</v>
       </c>
       <c r="D361" s="44" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E361" s="45" t="s">
         <v>91</v>
@@ -8865,19 +8914,19 @@
         <v>1</v>
       </c>
       <c r="G361" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H361" s="45"/>
       <c r="J361" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="362" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="362" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C362" s="44" t="s">
         <v>105</v>
       </c>
       <c r="D362" s="44" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E362" s="45" t="s">
         <v>91</v>
@@ -8886,20 +8935,20 @@
         <v>1</v>
       </c>
       <c r="G362" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H362" s="45"/>
       <c r="J362" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="363" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="364" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="363" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="364" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B364" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="365" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C365" s="12" t="s">
         <v>48</v>
       </c>
@@ -8913,7 +8962,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="366" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C366" s="12" t="s">
         <v>29</v>
       </c>
@@ -8927,7 +8976,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="367" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C367" s="12" t="s">
         <v>182</v>
       </c>
@@ -8941,12 +8990,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="368" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C368" s="12" t="s">
         <v>184</v>
       </c>
       <c r="D368" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E368" s="12" t="s">
         <v>192</v>
@@ -8955,13 +9004,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="370" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="370" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B370" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C371" s="12" t="s">
         <v>69</v>
       </c>
@@ -8972,7 +9021,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C372" s="12">
         <v>200</v>
       </c>
@@ -8983,7 +9032,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C373" s="12">
         <v>201</v>
       </c>
@@ -8994,7 +9043,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C374" s="12">
         <v>401</v>
       </c>
@@ -9005,7 +9054,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C375" s="12">
         <v>403</v>
       </c>
@@ -9016,7 +9065,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C376" s="12">
         <v>404</v>
       </c>
@@ -9027,7 +9076,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="377" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="378" spans="1:9" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>11</v>
@@ -9036,7 +9085,7 @@
         <v>31</v>
       </c>
       <c r="C378" s="35" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D378" s="35" t="s">
         <v>32</v>
@@ -9048,7 +9097,7 @@
         <v>6.11</v>
       </c>
       <c r="H378" s="35" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="379" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9065,7 +9114,7 @@
         <v>35</v>
       </c>
       <c r="C380" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="381" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9073,7 +9122,7 @@
         <v>37</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="382" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9089,7 +9138,7 @@
         <v>41</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="384" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9155,10 +9204,10 @@
     </row>
     <row r="389" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C389" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D389" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E389" s="12" t="s">
         <v>91</v>
@@ -9167,18 +9216,18 @@
         <v>1</v>
       </c>
       <c r="G389" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H389" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="390" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C390" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D390" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E390" s="12" t="s">
         <v>114</v>
@@ -9193,19 +9242,19 @@
         <v>127</v>
       </c>
       <c r="J390" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="391" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="392" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B392" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L392" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q392" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="393" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9231,15 +9280,15 @@
         <v>86</v>
       </c>
       <c r="Q393" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="394" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C394" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D394" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="D394" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="E394" s="12" t="s">
         <v>91</v>
@@ -9251,18 +9300,18 @@
         <v>122</v>
       </c>
       <c r="H394" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J394" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="395" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C395" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D395" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E395" s="12" t="s">
         <v>91</v>
@@ -9277,15 +9326,15 @@
         <v>127</v>
       </c>
       <c r="J395" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="396" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C396" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D396" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E396" s="12" t="s">
         <v>91</v>
@@ -9300,15 +9349,15 @@
         <v>127</v>
       </c>
       <c r="J396" s="17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="397" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C397" s="37" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D397" s="37" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E397" s="37" t="s">
         <v>91</v>
@@ -9320,10 +9369,10 @@
         <v>92</v>
       </c>
       <c r="H397" s="37" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J397" s="37" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="398" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9338,14 +9387,14 @@
     </row>
     <row r="399" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B399" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C399" s="18"/>
       <c r="E399" s="18"/>
       <c r="G399" s="18"/>
       <c r="I399" s="18"/>
       <c r="J399" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K399" s="18"/>
     </row>
@@ -9374,10 +9423,10 @@
     </row>
     <row r="401" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C401" s="37" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D401" s="37" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E401" s="29" t="s">
         <v>91</v>
@@ -9396,10 +9445,10 @@
     </row>
     <row r="402" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C402" s="37" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D402" s="37" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E402" s="29" t="s">
         <v>91</v>
@@ -9415,7 +9464,7 @@
       </c>
       <c r="I402" s="18"/>
       <c r="J402" s="37" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K402" s="18"/>
     </row>
@@ -9428,7 +9477,7 @@
     </row>
     <row r="404" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B404" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="405" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9453,10 +9502,10 @@
     </row>
     <row r="406" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C406" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D406" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E406" s="12" t="s">
         <v>91</v>
@@ -9473,10 +9522,10 @@
     </row>
     <row r="407" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C407" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D407" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E407" s="12" t="s">
         <v>91</v>
@@ -9493,10 +9542,10 @@
     </row>
     <row r="408" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C408" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D408" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E408" s="12" t="s">
         <v>91</v>
@@ -9505,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="G408" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H408" s="12" t="s">
         <v>127</v>
@@ -9513,10 +9562,10 @@
     </row>
     <row r="409" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C409" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D409" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E409" s="12" t="s">
         <v>91</v>
@@ -9533,10 +9582,10 @@
     </row>
     <row r="410" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C410" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D410" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E410" s="12" t="s">
         <v>91</v>
@@ -9604,7 +9653,7 @@
         <v>184</v>
       </c>
       <c r="D416" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E416" s="12" t="s">
         <v>192</v>
@@ -9694,7 +9743,7 @@
         <v>31</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D426" s="8" t="s">
         <v>32</v>
@@ -9706,7 +9755,7 @@
         <v>6.12</v>
       </c>
       <c r="H426" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="427" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9715,7 +9764,7 @@
         <v>接⼝地址</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="428" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9723,7 +9772,7 @@
         <v>37</v>
       </c>
       <c r="C428" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="429" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9731,7 +9780,7 @@
         <v>35</v>
       </c>
       <c r="C429" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="430" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9750,7 +9799,7 @@
         <v>接⼝描述</v>
       </c>
       <c r="C431" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="432" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9794,7 +9843,7 @@
         <v>53</v>
       </c>
       <c r="J435" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="436" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9819,10 +9868,10 @@
     </row>
     <row r="437" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C437" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D437" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E437" s="12" t="s">
         <v>91</v>
@@ -9839,10 +9888,10 @@
     </row>
     <row r="438" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C438" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D438" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E438" s="12" t="s">
         <v>91</v>
@@ -9857,15 +9906,15 @@
         <v>127</v>
       </c>
       <c r="J438" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="439" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C439" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D439" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E439" s="12" t="s">
         <v>91</v>
@@ -9880,15 +9929,15 @@
         <v>127</v>
       </c>
       <c r="J439" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="440" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C440" s="12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D440" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E440" s="10" t="s">
         <v>91</v>
@@ -9909,7 +9958,7 @@
     </row>
     <row r="442" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B442" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="443" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9934,10 +9983,10 @@
     </row>
     <row r="444" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C444" s="12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D444" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E444" s="12" t="s">
         <v>91</v>
@@ -9954,10 +10003,10 @@
     </row>
     <row r="445" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C445" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D445" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E445" s="12" t="s">
         <v>91</v>
@@ -9974,10 +10023,10 @@
     </row>
     <row r="446" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C446" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D446" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E446" s="12" t="s">
         <v>91</v>
@@ -9992,7 +10041,7 @@
         <v>127</v>
       </c>
       <c r="J446" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="447" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10000,7 +10049,7 @@
         <v>59</v>
       </c>
       <c r="D447" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E447" s="12" t="s">
         <v>91</v>
@@ -10015,18 +10064,18 @@
         <v>127</v>
       </c>
       <c r="J447" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K447" s="18" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="448" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C448" s="17" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D448" s="17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E448" s="12" t="s">
         <v>91</v>
@@ -10041,7 +10090,7 @@
         <v>127</v>
       </c>
       <c r="J448" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="449" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10165,10 +10214,10 @@
         <v>184</v>
       </c>
       <c r="D461" s="12" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E461" s="12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F461" s="14" t="s">
         <v>127</v>
@@ -10189,20 +10238,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Z28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -10210,7 +10259,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -10218,7 +10267,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -10226,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -10243,7 +10292,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -10251,7 +10300,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -10267,7 +10316,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -10275,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -10283,7 +10332,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -10291,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -10299,7 +10348,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -10307,7 +10356,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -10315,7 +10364,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
@@ -10323,13 +10372,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="U17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="W17" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
@@ -10337,10 +10386,10 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F18" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
@@ -10348,10 +10397,10 @@
         <v>8</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
@@ -10359,13 +10408,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="X20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Z20" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
@@ -10373,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
@@ -10381,7 +10430,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
@@ -10389,7 +10438,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
@@ -10397,7 +10446,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E25" s="55"/>
     </row>
@@ -10406,7 +10455,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
@@ -10414,7 +10463,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
@@ -10422,10 +10471,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I28" s="52" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/docs/ITSM-DEVOPS接口对接-接口规范&参数说明.xlsx
+++ b/src/test/resources/docs/ITSM-DEVOPS接口对接-接口规范&参数说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\slicee\ws\gitws\kvps\src\test\resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DD2630-F1C5-4610-A895-DB8A4CF8393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEAE146-1FA3-443F-85C8-D5DAADCC29BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口列表" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="443">
   <si>
     <t>No.</t>
   </si>
@@ -770,31 +770,6 @@
   </si>
   <si>
     <t>项⽬状态（0:进⾏中｜1:已投产｜2:已验收｜3:已归档）不传默认是进⾏中。此字段暂未实现</t>
-  </si>
-  <si>
-    <t>flowID</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>流程I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">d </t>
-    </r>
   </si>
   <si>
     <t>项目流程记录</t>
@@ -990,9 +965,6 @@
     <t>需求主办系统</t>
   </si>
   <si>
-    <t>hostSystemProjectOid</t>
-  </si>
-  <si>
     <t>主办系统项⽬ID</t>
   </si>
   <si>
@@ -1091,9 +1063,6 @@
     <t>根需求ID</t>
   </si>
   <si>
-    <t>reqEnts</t>
-  </si>
-  <si>
     <t>需求条目列表</t>
   </si>
   <si>
@@ -1140,9 +1109,6 @@
     <t>0：废弃，非零，需求可用或保留</t>
   </si>
   <si>
-    <t>schedId</t>
-  </si>
-  <si>
     <t>排期ID</t>
   </si>
   <si>
@@ -1195,9 +1161,6 @@
   </si>
   <si>
     <t>[reqEnt]</t>
-  </si>
-  <si>
-    <t>attachment</t>
   </si>
   <si>
     <t>附件地址</t>
@@ -1513,9 +1476,6 @@
     <t>用户角色</t>
   </si>
   <si>
-    <t>用户角色,用户角色（0厂商项目经理｜1厂商研发人员｜2厂商测试人员｜3项目测试经理｜4运维工程师）</t>
-  </si>
-  <si>
     <t>返回数据</t>
   </si>
   <si>
@@ -1611,10 +1571,6 @@
       </rPr>
       <t xml:space="preserve">ID </t>
     </r>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
@@ -1703,12 +1659,147 @@
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>KVPS-模拟ITSM</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVOPS的排期ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduleTestRecordId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVOPS提测的Id，一个schedId可能有多个scheduleTestRecordId，例如 提测被打回的情况，每提一次都会生成一个相应的scheduleTestRecordId。但是schedId保持不变。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色,用户角色（0厂商项目经理｜1厂商研发人员｜2厂商测试人员｜3项目测试经理｜4运维工程师）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostSystemProjectOid</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/itsm/devops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/reqents</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/itsm/devop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/reqents</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分解-结果回传（需求分解之DEVOPS-&gt;ITSM）需求条目</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/itsm/devops/uattest_apply</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/oa/schedule/approval/{scheduleTestRecordId}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/oa/businessSheet/insert</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>projCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqRootCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqEnts</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rojCode</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求条目列表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachment</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT提测申请 ( DEVOPS-&gt;ITSM）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>环翠分局羊亭派出所</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1806,6 +1897,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39991454817346722"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1869,7 +1976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1980,9 +2087,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2038,6 +2142,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2061,13 +2187,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>392</xdr:row>
+      <xdr:row>389</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>393</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2124,13 +2250,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>394</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>392</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2187,13 +2313,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>393</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>394</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2254,13 +2380,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>393</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>394</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2310,13 +2436,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>394</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>392</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3624,6 +3750,402 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>14824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1D99DE-9E71-1256-A9A5-2BE899204F7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10507980" y="7878664"/>
+          <a:ext cx="10507980" cy="6043075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="对话气泡: 矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3509336-0D71-0ED6-1921-CD7EC4092078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15057120" y="11277600"/>
+          <a:ext cx="830580" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63009"/>
+            <a:gd name="adj2" fmla="val -87480"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>reqents</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="对话气泡: 矩形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35E4F43-ED3F-4DFE-8D45-14EDD6B3F2E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16261080" y="10172700"/>
+          <a:ext cx="1028700" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49584"/>
+            <a:gd name="adj2" fmla="val 101091"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>uattest_apply</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="对话气泡: 矩形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAD0CF2-8392-4475-A086-00BB66F56E7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16939260" y="10706100"/>
+          <a:ext cx="2095500" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -18645"/>
+            <a:gd name="adj2" fmla="val -110337"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>approval/{scheduleTestRecordId}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="对话气泡: 矩形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2FB513C-9BD7-45BD-93F1-0A065186CE69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18097500" y="11384280"/>
+          <a:ext cx="2095500" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56100"/>
+            <a:gd name="adj2" fmla="val 15377"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>approval/{scheduleTestRecordId}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="对话气泡: 矩形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD206AC-222A-4993-9427-DD0269C0C229}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11925300" y="10561320"/>
+          <a:ext cx="1516380" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 56589"/>
+            <a:gd name="adj2" fmla="val -27480"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>businessSheet/insert</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3918,7 +4440,7 @@
   <dimension ref="B2:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4097,28 +4619,28 @@
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="51"/>
+      <c r="B59" s="50"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="51"/>
+      <c r="B60" s="50"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="51"/>
+      <c r="B61" s="50"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="51"/>
+      <c r="B62" s="50"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="51"/>
+      <c r="B63" s="50"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="51"/>
+      <c r="B64" s="50"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="51"/>
+      <c r="B65" s="50"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="51"/>
+      <c r="B66" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -4132,10 +4654,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q462"/>
+  <dimension ref="A1:Q459"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="J354" sqref="J354"/>
+    <sheetView showGridLines="0" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4145,6 +4667,7 @@
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="6"/>
     <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4164,8 +4687,8 @@
       <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>412</v>
+      <c r="I1" s="51" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
@@ -4190,8 +4713,8 @@
       <c r="H2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="53" t="s">
-        <v>413</v>
+      <c r="I2" s="52" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6221,8 +6744,8 @@
       <c r="H169" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J169" s="57" t="s">
-        <v>427</v>
+      <c r="J169" s="56" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="170" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6292,26 +6815,26 @@
         <v>210</v>
       </c>
     </row>
-    <row r="173" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C173" s="12" t="s">
+    <row r="173" spans="2:10" s="53" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="D173" s="12" t="s">
+      <c r="D173" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="E173" s="12" t="s">
+      <c r="E173" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F173" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G173" s="12" t="s">
+      <c r="F173" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G173" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="H173" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J173" s="32" t="s">
+      <c r="H173" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="J173" s="59" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6355,7 +6878,9 @@
       <c r="H175" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J175" s="33"/>
+      <c r="J175" s="56" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="176" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C176" s="12" t="s">
@@ -6471,58 +6996,57 @@
       <c r="J180" s="33"/>
     </row>
     <row r="181" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C181" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="D181" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E181" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F181" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G181" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="H181" s="29"/>
-      <c r="J181" s="57" t="s">
-        <v>426</v>
-      </c>
+      <c r="F181" s="31"/>
     </row>
     <row r="182" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F182" s="31"/>
     </row>
     <row r="183" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="F183" s="31"/>
+      <c r="B183" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="J183" s="10" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="184" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="52" t="s">
-        <v>416</v>
-      </c>
-      <c r="J184" s="10" t="s">
-        <v>229</v>
+      <c r="C184" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G184" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H184" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="185" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C185" s="12" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F185" s="14" t="s">
-        <v>51</v>
+        <v>91</v>
+      </c>
+      <c r="F185" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
     </row>
     <row r="186" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6559,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="G187" s="12" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="H187" s="12" t="s">
         <v>127</v>
@@ -6579,7 +7103,7 @@
         <v>1</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c r="H188" s="12" t="s">
         <v>127</v>
@@ -6596,7 +7120,7 @@
         <v>91</v>
       </c>
       <c r="F189" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" s="12" t="s">
         <v>58</v>
@@ -6605,60 +7129,51 @@
         <v>127</v>
       </c>
     </row>
-    <row r="190" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C190" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E190" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F190" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G190" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H190" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="191" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="192" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="2" t="s">
-        <v>68</v>
+      <c r="C192" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="193" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C193" s="12" t="s">
-        <v>69</v>
+      <c r="C193" s="12">
+        <v>200</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="194" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C194" s="12">
-        <v>200</v>
+        <v>401</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
     </row>
     <row r="195" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C195" s="12">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E195" s="12" t="s">
         <v>127</v>
@@ -6666,51 +7181,54 @@
     </row>
     <row r="196" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C196" s="12">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E196" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="197" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C197" s="12">
-        <v>404</v>
-      </c>
-      <c r="D197" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E197" s="12" t="s">
-        <v>127</v>
+      <c r="B197" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="198" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="2" t="s">
-        <v>76</v>
+      <c r="C198" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F198" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="199" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C199" s="12" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F199" s="14" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
     </row>
     <row r="200" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C200" s="12" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="E200" s="12" t="s">
         <v>58</v>
@@ -6721,10 +7239,10 @@
     </row>
     <row r="201" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C201" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="E201" s="12" t="s">
         <v>58</v>
@@ -6733,134 +7251,140 @@
         <v>127</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C202" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D202" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E202" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F202" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="202" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>7</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B203" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C203" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D204" s="8" t="s">
+      <c r="D203" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E204" s="8" t="s">
+      <c r="E203" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F204" s="9">
+      <c r="F203" s="9">
         <v>6.7</v>
       </c>
-      <c r="H204" s="8" t="s">
+      <c r="H203" s="8" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C204" s="55" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="205" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B205" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C205" s="56" t="s">
-        <v>419</v>
+        <v>35</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="206" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="10" t="s">
-        <v>35</v>
+      <c r="B206" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
     </row>
     <row r="207" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="17" t="s">
-        <v>37</v>
+      <c r="B207" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
     </row>
     <row r="209" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B209" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>242</v>
+        <v>44</v>
       </c>
     </row>
     <row r="210" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="211" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>46</v>
+      <c r="B211" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="212" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="2" t="s">
-        <v>47</v>
+      <c r="C212" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D212" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E212" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F212" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G212" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H212" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="213" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C213" s="12" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F213" s="14" t="s">
-        <v>51</v>
+        <v>169</v>
+      </c>
+      <c r="F213" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="G213" s="12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H213" s="12" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
     </row>
     <row r="214" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C214" s="12" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="F214" s="14" t="b">
         <v>1</v>
@@ -6874,10 +7398,10 @@
     </row>
     <row r="215" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C215" s="12" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="E215" s="12" t="s">
         <v>91</v>
@@ -6891,10 +7415,13 @@
       <c r="H215" s="12" t="s">
         <v>127</v>
       </c>
+      <c r="J215" s="2" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="216" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C216" s="12" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="D216" s="12" t="s">
         <v>244</v>
@@ -6906,67 +7433,67 @@
         <v>1</v>
       </c>
       <c r="G216" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H216" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C219" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D219" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E219" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F219" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G219" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H219" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J219" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C220" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F220" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G220" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H216" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J216" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="217" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C217" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D217" s="12" t="s">
+      <c r="H220" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J220" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E217" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F217" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G217" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H217" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="218" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="220" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C220" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D220" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E220" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F220" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G220" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H220" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J220" s="10" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="221" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C221" s="56" t="s">
-        <v>420</v>
+      <c r="C221" s="55" t="s">
+        <v>413</v>
       </c>
       <c r="D221" s="12" t="s">
         <v>231</v>
@@ -6983,13 +7510,13 @@
       <c r="H221" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J221" s="10" t="s">
-        <v>248</v>
+      <c r="J221" s="55" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="222" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C222" s="56" t="s">
-        <v>421</v>
+      <c r="C222" s="55" t="s">
+        <v>415</v>
       </c>
       <c r="D222" s="12" t="s">
         <v>233</v>
@@ -7001,18 +7528,18 @@
         <v>1</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="H222" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J222" s="56" t="s">
-        <v>422</v>
+      <c r="J222" s="10" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="223" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C223" s="56" t="s">
-        <v>423</v>
+      <c r="C223" s="55" t="s">
+        <v>416</v>
       </c>
       <c r="D223" s="12" t="s">
         <v>235</v>
@@ -7024,18 +7551,18 @@
         <v>1</v>
       </c>
       <c r="G223" s="12" t="s">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c r="H223" s="12" t="s">
         <v>127</v>
       </c>
       <c r="J223" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C224" s="56" t="s">
-        <v>424</v>
+      <c r="C224" s="55" t="s">
+        <v>417</v>
       </c>
       <c r="D224" s="12" t="s">
         <v>237</v>
@@ -7044,7 +7571,7 @@
         <v>91</v>
       </c>
       <c r="F224" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224" s="12" t="s">
         <v>58</v>
@@ -7053,119 +7580,110 @@
         <v>127</v>
       </c>
       <c r="J224" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C225" s="56" t="s">
-        <v>425</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E225" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F225" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G225" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C227" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E227" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C228" s="12">
+        <v>200</v>
+      </c>
+      <c r="D228" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E228" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C229" s="12">
+        <v>401</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E229" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C230" s="12">
+        <v>403</v>
+      </c>
+      <c r="D230" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E230" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C231" s="12">
+        <v>404</v>
+      </c>
+      <c r="D231" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E231" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C234" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D234" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E234" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F234" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C235" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D235" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E235" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H225" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J225" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="227" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C228" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D228" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E228" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C229" s="12">
-        <v>200</v>
-      </c>
-      <c r="D229" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E229" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C230" s="12">
-        <v>401</v>
-      </c>
-      <c r="D230" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E230" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C231" s="12">
-        <v>403</v>
-      </c>
-      <c r="D231" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E231" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C232" s="12">
-        <v>404</v>
-      </c>
-      <c r="D232" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E232" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C235" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D235" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E235" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="F235" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C236" s="12" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="E236" s="12" t="s">
         <v>58</v>
@@ -7174,12 +7692,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C237" s="12" t="s">
-        <v>182</v>
+    <row r="237" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C237" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="E237" s="12" t="s">
         <v>58</v>
@@ -7188,224 +7706,233 @@
         <v>127</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C238" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D238" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E238" s="12" t="s">
+    <row r="238" spans="1:8" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>8</v>
+      </c>
+      <c r="B238" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C238" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D238" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E238" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F238" s="36">
+        <v>6.8</v>
+      </c>
+      <c r="H238" s="35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C239" s="55" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C241" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="245" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="246" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="247" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C247" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E247" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F247" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G247" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H247" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J247" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="248" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C248" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F248" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G248" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F238" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="4">
-        <v>8</v>
-      </c>
-      <c r="B239" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C239" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D239" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E239" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F239" s="36">
-        <v>6.8</v>
-      </c>
-      <c r="H239" s="35" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="241" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C241" s="17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="242" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C242" s="17" t="s">
+      <c r="H248" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J248" s="12"/>
+    </row>
+    <row r="249" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C249" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E249" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F249" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G249" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H249" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J249" s="12"/>
+    </row>
+    <row r="250" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C250" s="18"/>
+    </row>
+    <row r="251" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C252" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F252" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G252" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H252" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J252" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="243" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="244" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="245" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="246" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="247" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="248" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C248" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D248" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E248" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F248" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G248" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H248" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J248" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="249" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C249" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D249" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E249" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F249" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G249" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H249" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J249" s="12"/>
-    </row>
-    <row r="250" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C250" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D250" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E250" s="10" t="s">
+    <row r="253" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C253" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E253" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F250" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G250" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="H250" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="J250" s="12"/>
-    </row>
-    <row r="251" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C251" s="18"/>
-    </row>
-    <row r="252" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="253" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C253" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D253" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E253" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F253" s="14" t="s">
-        <v>51</v>
+      <c r="F253" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="H253" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J253" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="254" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="J253" s="12"/>
+    </row>
+    <row r="254" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C254" s="12" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="E254" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F254" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G254" s="12" t="s">
         <v>122</v>
       </c>
       <c r="H254" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J254" s="12"/>
-    </row>
-    <row r="255" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="J254" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="255" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C255" s="12" t="s">
-        <v>261</v>
+        <v>133</v>
       </c>
       <c r="D255" s="12" t="s">
         <v>262</v>
@@ -7414,10 +7941,10 @@
         <v>91</v>
       </c>
       <c r="F255" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H255" s="12" t="s">
         <v>127</v>
@@ -7426,12 +7953,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="256" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C256" s="12" t="s">
-        <v>133</v>
+        <v>264</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E256" s="12" t="s">
         <v>91</v>
@@ -7440,18 +7967,19 @@
         <v>1</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="H256" s="12" t="s">
         <v>127</v>
       </c>
       <c r="J256" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="257" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="K256" s="18"/>
+    </row>
+    <row r="257" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C257" s="12" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="D257" s="12" t="s">
         <v>267</v>
@@ -7471,11 +7999,10 @@
       <c r="J257" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="K257" s="18"/>
-    </row>
-    <row r="258" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C258" s="12" t="s">
-        <v>211</v>
+    </row>
+    <row r="258" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C258" s="55" t="s">
+        <v>427</v>
       </c>
       <c r="D258" s="12" t="s">
         <v>269</v>
@@ -7484,7 +8011,7 @@
         <v>91</v>
       </c>
       <c r="F258" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G258" s="12" t="s">
         <v>58</v>
@@ -7496,7 +8023,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="259" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C259" s="12" t="s">
         <v>271</v>
       </c>
@@ -7507,112 +8034,97 @@
         <v>91</v>
       </c>
       <c r="F259" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
       <c r="H259" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J259" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="260" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J259" s="12"/>
+    </row>
+    <row r="260" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C260" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D260" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="D260" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="E260" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F260" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G260" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H260" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J260" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="261" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C261" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D261" s="12" t="s">
         <v>276</v>
-      </c>
-      <c r="H260" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J260" s="12"/>
-    </row>
-    <row r="261" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C261" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D261" s="12" t="s">
-        <v>277</v>
       </c>
       <c r="E261" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F261" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G261" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H261" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J261" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C262" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E262" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F262" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G262" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H261" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J261" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="262" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C262" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D262" s="12" t="s">
+      <c r="H262" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J262" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E262" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F262" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G262" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H262" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J262" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="263" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C263" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D263" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E263" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F263" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G263" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H263" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J263" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="264" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="F264"/>
-    </row>
-    <row r="265" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F263"/>
+    </row>
+    <row r="264" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C264" s="19"/>
+      <c r="D264" s="21"/>
+      <c r="E264" s="19"/>
+      <c r="F264" s="31"/>
+      <c r="G264" s="19"/>
+      <c r="H264" s="21"/>
+    </row>
+    <row r="265" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C265" s="19"/>
       <c r="D265" s="21"/>
       <c r="E265" s="19"/>
@@ -7620,40 +8132,52 @@
       <c r="G265" s="19"/>
       <c r="H265" s="21"/>
     </row>
-    <row r="266" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C266" s="19"/>
-      <c r="D266" s="21"/>
-      <c r="E266" s="19"/>
-      <c r="F266" s="31"/>
-      <c r="G266" s="19"/>
-      <c r="H266" s="21"/>
-    </row>
-    <row r="267" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="2" t="s">
+    <row r="266" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="268" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C267" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E267" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F267" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G267" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H267" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C268" s="12" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F268" s="14" t="s">
-        <v>51</v>
+        <v>91</v>
+      </c>
+      <c r="F268" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="G268" s="12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H268" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="269" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C269" s="12" t="s">
         <v>230</v>
       </c>
@@ -7673,7 +8197,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="270" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C270" s="12" t="s">
         <v>232</v>
       </c>
@@ -7687,13 +8211,13 @@
         <v>1</v>
       </c>
       <c r="G270" s="12" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="H270" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="271" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C271" s="12" t="s">
         <v>234</v>
       </c>
@@ -7707,13 +8231,13 @@
         <v>1</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c r="H271" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="272" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C272" s="12" t="s">
         <v>236</v>
       </c>
@@ -7724,7 +8248,7 @@
         <v>91</v>
       </c>
       <c r="F272" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G272" s="12" t="s">
         <v>58</v>
@@ -7733,340 +8257,338 @@
         <v>127</v>
       </c>
     </row>
-    <row r="273" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C273" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D273" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E273" s="12" t="s">
+    <row r="273" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="274" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C275" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D275" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E275" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F275" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C276" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D276" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E276" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F276" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C277" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F277" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C278" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F278" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C281" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D281" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E281" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C282" s="12">
+        <v>200</v>
+      </c>
+      <c r="D282" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E282" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C283" s="12">
+        <v>201</v>
+      </c>
+      <c r="D283" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E283" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C284" s="12">
+        <v>401</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E284" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C285" s="12">
+        <v>403</v>
+      </c>
+      <c r="D285" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E285" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C286" s="12">
+        <v>404</v>
+      </c>
+      <c r="D286" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E286" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:8" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>9</v>
+      </c>
+      <c r="B288" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C288" s="61" t="s">
+        <v>430</v>
+      </c>
+      <c r="D288" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E288" s="60" t="s">
+        <v>429</v>
+      </c>
+      <c r="F288" s="36">
+        <v>6.9</v>
+      </c>
+      <c r="H288" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C289" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="E289" s="38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C292" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C294" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="296" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C297" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D297" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F297" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G297" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H297" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C298" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F298" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G298" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H298" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C299" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D299" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E299" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F273" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G273" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H273" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="274" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="275" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="276" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C276" s="12" t="s">
+      <c r="F299" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G299" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H299" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B301" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="302" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C302" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D276" s="12" t="s">
+      <c r="D302" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E276" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F276" s="14" t="s">
+      <c r="E302" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F302" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G302" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H302" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="277" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C277" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D277" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E277" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F277" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="278" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C278" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D278" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E278" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F278" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="279" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C279" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D279" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E279" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F279" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="280" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="282" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C282" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D282" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E282" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="283" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C283" s="12">
-        <v>200</v>
-      </c>
-      <c r="D283" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E283" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="284" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C284" s="12">
-        <v>201</v>
-      </c>
-      <c r="D284" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E284" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="285" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C285" s="12">
-        <v>401</v>
-      </c>
-      <c r="D285" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E285" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="286" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C286" s="12">
-        <v>403</v>
-      </c>
-      <c r="D286" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E286" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="287" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C287" s="12">
-        <v>404</v>
-      </c>
-      <c r="D287" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E287" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="288" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="289" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="4">
-        <v>9</v>
-      </c>
-      <c r="B289" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C289" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D289" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E289" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F289" s="36">
-        <v>6.9</v>
-      </c>
-      <c r="H289" s="35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C290" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E290" s="39" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C291" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C292" s="10" t="s">
+    <row r="303" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C303" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="D303" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E303" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F303" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G303" s="10" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C293" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C294" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C295" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C296" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C298" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D298" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E298" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F298" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G298" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H298" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C299" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D299" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E299" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F299" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G299" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H299" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C300" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="D300" s="10" t="s">
+      <c r="H303" s="12"/>
+    </row>
+    <row r="304" spans="2:8" s="3" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C304" s="62" t="s">
+        <v>435</v>
+      </c>
+      <c r="D304" s="39" t="s">
         <v>288</v>
-      </c>
-      <c r="E300" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F300" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G300" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="H300" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C303" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D303" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E303" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F303" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G303" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H303" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C304" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D304" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="E304" s="10" t="s">
         <v>89</v>
@@ -8075,16 +8597,16 @@
         <v>1</v>
       </c>
       <c r="G304" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H304" s="12"/>
+    </row>
+    <row r="305" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C305" s="55" t="s">
+        <v>436</v>
+      </c>
+      <c r="D305" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="H304" s="12"/>
-    </row>
-    <row r="305" spans="2:10" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C305" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="D305" s="40" t="s">
-        <v>291</v>
       </c>
       <c r="E305" s="10" t="s">
         <v>89</v>
@@ -8093,72 +8615,75 @@
         <v>1</v>
       </c>
       <c r="G305" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="H305" s="12"/>
-    </row>
-    <row r="306" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C306" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H305" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="306" spans="2:10" s="3" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C306" s="40"/>
+      <c r="D306" s="40"/>
+      <c r="E306" s="41"/>
+      <c r="F306" s="42"/>
+      <c r="G306" s="41"/>
+      <c r="H306" s="41"/>
+    </row>
+    <row r="307" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="308" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C308" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D308" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E308" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F308" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G308" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H308" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J308" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="309" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C309" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="D306" s="10" t="s">
+      <c r="D309" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="E306" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F306" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G306" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H306" s="10" t="s">
+      <c r="E309" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F309" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G309" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H309" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J309" s="12"/>
+    </row>
+    <row r="310" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C310" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D310" s="10" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="307" spans="2:10" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C307" s="41"/>
-      <c r="D307" s="41"/>
-      <c r="E307" s="42"/>
-      <c r="F307" s="43"/>
-      <c r="G307" s="42"/>
-      <c r="H307" s="42"/>
-    </row>
-    <row r="308" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="309" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C309" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D309" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E309" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F309" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G309" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H309" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J309" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="310" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C310" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D310" s="10" t="s">
-        <v>297</v>
       </c>
       <c r="E310" s="12" t="s">
         <v>91</v>
@@ -8174,12 +8699,12 @@
       </c>
       <c r="J310" s="12"/>
     </row>
-    <row r="311" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C311" s="10" t="s">
-        <v>161</v>
+        <v>295</v>
       </c>
       <c r="D311" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E311" s="12" t="s">
         <v>91</v>
@@ -8193,14 +8718,16 @@
       <c r="H311" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J311" s="12"/>
-    </row>
-    <row r="312" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C312" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D312" s="10" t="s">
-        <v>300</v>
+      <c r="J311" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="312" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C312" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="D312" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="E312" s="12" t="s">
         <v>91</v>
@@ -8214,16 +8741,14 @@
       <c r="H312" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J312" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="313" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J312" s="12"/>
+    </row>
+    <row r="313" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C313" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="E313" s="12" t="s">
         <v>91</v>
@@ -8239,457 +8764,464 @@
       </c>
       <c r="J313" s="12"/>
     </row>
-    <row r="314" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C314" s="17" t="s">
+    <row r="314" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B314" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="315" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C315" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D315" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E315" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F315" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="316" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C316" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D316" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E316" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F316" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="317" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C317" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D317" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E317" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F317" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="318" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C318" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D318" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E318" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F318" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="319" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="320" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C321" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E321" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C322" s="12">
+        <v>200</v>
+      </c>
+      <c r="D322" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E322" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C323" s="12">
+        <v>201</v>
+      </c>
+      <c r="D323" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E323" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C324" s="12">
+        <v>401</v>
+      </c>
+      <c r="D324" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E324" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C325" s="12">
+        <v>403</v>
+      </c>
+      <c r="D325" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E325" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C326" s="12">
+        <v>404</v>
+      </c>
+      <c r="D326" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E326" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="328" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="329" spans="1:8" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="4">
+        <v>10</v>
+      </c>
+      <c r="B329" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C329" s="61" t="s">
+        <v>441</v>
+      </c>
+      <c r="D329" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E329" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="F329" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H329" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C330" s="55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B331" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C331" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C332" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D314" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E314" s="12" t="s">
+    </row>
+    <row r="333" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C333" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B334" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C334" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C335" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C336" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="337" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="338" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C338" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D338" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E338" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F338" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G338" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H338" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J338" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="339" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C339" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D339" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E339" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F339" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G339" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H339" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J339" s="12"/>
+    </row>
+    <row r="340" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C340" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D340" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E340" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F340" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G340" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H340" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="J340" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="341" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="342" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B342" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="343" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C343" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D343" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E343" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F343" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G343" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H343" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J343" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="K343" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="344" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C344" s="55" t="s">
+        <v>437</v>
+      </c>
+      <c r="D344" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E344" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F344" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G344" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H344" s="12"/>
+      <c r="J344" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="K344" s="12"/>
+    </row>
+    <row r="345" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C345" s="55" t="s">
+        <v>435</v>
+      </c>
+      <c r="D345" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E345" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F314" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G314" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H314" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J314" s="12"/>
-    </row>
-    <row r="315" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C315" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="D315" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="E315" s="45" t="s">
+      <c r="F345" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G345" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H345" s="12"/>
+      <c r="J345" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="K345" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="346" spans="2:11" s="5" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C346" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="D346" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="E346" s="46"/>
+      <c r="F346" s="47"/>
+      <c r="G346" s="46"/>
+      <c r="H346" s="46"/>
+      <c r="J346" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="K346" s="46" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="347" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C347" s="55" t="s">
+        <v>436</v>
+      </c>
+      <c r="D347" s="55" t="s">
+        <v>439</v>
+      </c>
+      <c r="E347" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F315" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G315" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="H315" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="J315" s="12"/>
-    </row>
-    <row r="316" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C316" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D316" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="E316" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F316" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G316" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="H316" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="J316" s="12"/>
-    </row>
-    <row r="317" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="318" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C318" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D318" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E318" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F318" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="319" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C319" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D319" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E319" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F319" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="320" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C320" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D320" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E320" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F320" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C321" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D321" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E321" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F321" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="323" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B323" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C324" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D324" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E324" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C325" s="12">
-        <v>200</v>
-      </c>
-      <c r="D325" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E325" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C326" s="12">
-        <v>201</v>
-      </c>
-      <c r="D326" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E326" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C327" s="12">
-        <v>401</v>
-      </c>
-      <c r="D327" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E327" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C328" s="12">
-        <v>403</v>
-      </c>
-      <c r="D328" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E328" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C329" s="12">
-        <v>404</v>
-      </c>
-      <c r="D329" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E329" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="331" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="332" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="4">
-        <v>10</v>
-      </c>
-      <c r="B332" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C332" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D332" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E332" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F332" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H332" s="35" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B333" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C333" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C334" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C335" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C336" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="337" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C337" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="338" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C338" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="339" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C339" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="340" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B340" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="341" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C341" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D341" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E341" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F341" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G341" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H341" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J341" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="342" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C342" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D342" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E342" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F342" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G342" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H342" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J342" s="12"/>
-    </row>
-    <row r="343" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C343" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D343" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="E343" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F343" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G343" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="H343" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="J343" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="344" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="345" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="346" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C346" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D346" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E346" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F346" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G346" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H346" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J346" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="K346" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="347" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C347" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D347" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="E347" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="F347" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G347" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H347" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="J347" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="H347" s="12"/>
-      <c r="J347" s="10" t="s">
-        <v>260</v>
-      </c>
       <c r="K347" s="12"/>
     </row>
-    <row r="348" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C348" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="D348" s="10" t="s">
-        <v>314</v>
+    <row r="348" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C348" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="D348" s="17" t="s">
+        <v>316</v>
       </c>
       <c r="E348" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F348" s="14" t="b">
+      <c r="F348" s="48" t="b">
         <v>1</v>
       </c>
       <c r="G348" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="H348" s="12"/>
+        <v>286</v>
+      </c>
+      <c r="H348" s="10"/>
       <c r="J348" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="K348" s="10" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="349" spans="2:11" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C349" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D349" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="E349" s="47"/>
-      <c r="F349" s="48"/>
-      <c r="G349" s="47"/>
-      <c r="H349" s="47"/>
-      <c r="J349" s="47" t="s">
+      <c r="K348" s="12"/>
+    </row>
+    <row r="349" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C349" s="55" t="s">
+        <v>423</v>
+      </c>
+      <c r="D349" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E349" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F349" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G349" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H349" s="12"/>
+      <c r="J349" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="K349" s="55" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="350" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C350" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="D350" s="10" t="s">
         <v>318</v>
-      </c>
-      <c r="K349" s="47" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="350" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C350" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D350" s="10" t="s">
-        <v>293</v>
       </c>
       <c r="E350" s="12" t="s">
         <v>91</v>
@@ -8697,815 +9229,809 @@
       <c r="F350" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="G350" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H350" s="10" t="s">
+      <c r="G350" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H350" s="12"/>
+      <c r="J350" s="55" t="s">
+        <v>420</v>
+      </c>
+      <c r="K350" s="55" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="351" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C351" s="19"/>
+      <c r="D351" s="19"/>
+      <c r="E351" s="21"/>
+      <c r="F351" s="31"/>
+      <c r="G351" s="21"/>
+      <c r="H351" s="21"/>
+      <c r="J351" s="2"/>
+    </row>
+    <row r="352" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B352" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J352" s="49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="353" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C353" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D353" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E353" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F353" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G353" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H353" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J353" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="354" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C354" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="J350" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="K350" s="12"/>
-    </row>
-    <row r="351" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C351" s="17" t="s">
+      <c r="D354" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="D351" s="17" t="s">
+      <c r="E354" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F354" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G354" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H354" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J354" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="E351" s="12" t="s">
+    </row>
+    <row r="355" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C355" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D355" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E355" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F351" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G351" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="H351" s="10"/>
-      <c r="J351" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="K351" s="12"/>
-    </row>
-    <row r="352" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C352" s="10" t="s">
+      <c r="F355" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G355" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H355" s="12"/>
+      <c r="J355" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="356" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C356" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="D356" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="E356" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F356" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G356" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H356" s="44"/>
+      <c r="J356" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="357" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C357" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="D357" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E357" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F357" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G357" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H357" s="44"/>
+      <c r="J357" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="358" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C358" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D358" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="E358" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F358" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G358" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H358" s="44"/>
+      <c r="J358" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="359" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C359" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D359" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="E359" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F359" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G359" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H359" s="44"/>
+      <c r="J359" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="360" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="361" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B361" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="362" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C362" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D362" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E362" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F362" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="363" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C363" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D363" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E363" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F363" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="364" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C364" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D364" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E364" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F364" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="365" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C365" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D365" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E365" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F365" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="366" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="367" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B367" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="368" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C368" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D368" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E368" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C369" s="12">
+        <v>200</v>
+      </c>
+      <c r="D369" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E369" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C370" s="12">
+        <v>201</v>
+      </c>
+      <c r="D370" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E370" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C371" s="12">
+        <v>401</v>
+      </c>
+      <c r="D371" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E371" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C372" s="12">
+        <v>403</v>
+      </c>
+      <c r="D372" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E372" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C373" s="12">
+        <v>404</v>
+      </c>
+      <c r="D373" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E373" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="375" spans="1:9" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="4">
+        <v>11</v>
+      </c>
+      <c r="B375" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C375" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="D375" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E375" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F375" s="36">
+        <v>6.11</v>
+      </c>
+      <c r="H375" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="D352" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E352" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F352" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G352" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H352" s="12"/>
-      <c r="J352" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="K352" s="12"/>
-    </row>
-    <row r="353" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C353" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D353" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="E353" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F353" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G353" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H353" s="12"/>
-      <c r="J353" s="56" t="s">
-        <v>428</v>
-      </c>
-      <c r="K353" s="12"/>
-    </row>
-    <row r="354" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C354" s="19"/>
-      <c r="D354" s="19"/>
-      <c r="E354" s="21"/>
-      <c r="F354" s="31"/>
-      <c r="G354" s="21"/>
-      <c r="H354" s="21"/>
-      <c r="J354" s="2"/>
-    </row>
-    <row r="355" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B355" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="J355" s="50" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="356" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C356" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D356" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E356" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F356" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G356" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H356" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J356" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="357" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C357" s="10" t="s">
+    </row>
+    <row r="376" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B376" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C376" s="55" t="s">
+        <v>432</v>
+      </c>
+      <c r="I376" s="2"/>
+    </row>
+    <row r="377" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B377" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C377" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D357" s="10" t="s">
+    </row>
+    <row r="378" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B378" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C378" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="E357" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F357" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G357" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H357" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J357" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="358" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C358" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D358" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="E358" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F358" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G358" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H358" s="12"/>
-      <c r="J358" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="359" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C359" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="D359" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="E359" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F359" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G359" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="H359" s="45"/>
-      <c r="J359" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="360" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C360" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="D360" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E360" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F360" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G360" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="H360" s="45"/>
-      <c r="J360" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="361" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C361" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="D361" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="E361" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F361" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G361" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="H361" s="45"/>
-      <c r="J361" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="362" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C362" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D362" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="E362" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F362" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G362" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="H362" s="45"/>
-      <c r="J362" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="363" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="364" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="365" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C365" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D365" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E365" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F365" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="366" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C366" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D366" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E366" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F366" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="367" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C367" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D367" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E367" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F367" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="368" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C368" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D368" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="E368" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F368" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="370" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C371" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D371" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E371" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C372" s="12">
-        <v>200</v>
-      </c>
-      <c r="D372" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E372" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C373" s="12">
-        <v>201</v>
-      </c>
-      <c r="D373" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E373" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C374" s="12">
-        <v>401</v>
-      </c>
-      <c r="D374" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E374" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C375" s="12">
-        <v>403</v>
-      </c>
-      <c r="D375" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E375" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C376" s="12">
-        <v>404</v>
-      </c>
-      <c r="D376" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E376" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="378" spans="1:9" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="4">
-        <v>11</v>
-      </c>
-      <c r="B378" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C378" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="D378" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E378" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F378" s="36">
-        <v>6.11</v>
-      </c>
-      <c r="H378" s="35" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="379" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B379" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C379" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I379" s="2"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="380" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B380" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C380" s="10" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
     </row>
     <row r="381" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B381" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>333</v>
+        <v>44</v>
       </c>
     </row>
     <row r="382" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B382" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C382" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="383" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B383" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C383" s="10" t="s">
-        <v>310</v>
+      <c r="B383" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="384" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C384" s="10" t="s">
-        <v>44</v>
+      <c r="C384" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D384" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E384" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F384" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G384" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H384" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="385" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B385" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C385" s="10" t="s">
-        <v>46</v>
+      <c r="C385" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D385" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E385" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F385" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G385" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H385" s="12" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="386" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B386" s="2" t="s">
-        <v>47</v>
+      <c r="C386" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D386" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E386" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F386" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G386" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="H386" s="12" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="387" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C387" s="12" t="s">
+      <c r="C387" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D387" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E387" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F387" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G387" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H387" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J387" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="388" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="389" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B389" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L389" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q389" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="390" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C390" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D387" s="12" t="s">
+      <c r="D390" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E387" s="10" t="s">
+      <c r="E390" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F387" s="14" t="s">
+      <c r="F390" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G387" s="12" t="s">
+      <c r="G390" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H387" s="12" t="s">
+      <c r="H390" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="388" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C388" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D388" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E388" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F388" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G388" s="12" t="s">
+      <c r="J390" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q390" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="391" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C391" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D391" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E391" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F391" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G391" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H391" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J391" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="392" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C392" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D392" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E392" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F392" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G392" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H392" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J392" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="393" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C393" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D393" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E393" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F393" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G393" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H388" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="389" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C389" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D389" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="E389" s="12" t="s">
+      <c r="H393" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J393" s="17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="394" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C394" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="D394" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="E394" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="F389" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G389" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="H389" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="390" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C390" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D390" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="E390" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F390" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G390" s="12" t="s">
+      <c r="F394" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G394" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H394" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="J394" s="37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="395" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C395" s="21"/>
+      <c r="D395" s="21"/>
+      <c r="E395" s="21"/>
+      <c r="F395" s="31"/>
+      <c r="G395" s="21"/>
+      <c r="H395" s="21"/>
+      <c r="I395" s="18"/>
+      <c r="K395" s="18"/>
+    </row>
+    <row r="396" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B396" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C396" s="18"/>
+      <c r="E396" s="18"/>
+      <c r="G396" s="18"/>
+      <c r="I396" s="18"/>
+      <c r="J396" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K396" s="18"/>
+    </row>
+    <row r="397" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B397" s="2"/>
+      <c r="C397" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D397" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E397" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F397" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G397" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H397" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I397" s="18"/>
+      <c r="K397" s="18"/>
+    </row>
+    <row r="398" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C398" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="D398" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="E398" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F398" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G398" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H390" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J390" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="391" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="392" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B392" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="L392" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q392" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="393" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C393" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D393" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E393" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F393" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G393" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H393" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J393" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q393" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="394" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C394" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D394" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E394" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F394" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G394" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H394" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J394" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="395" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C395" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D395" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="E395" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F395" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G395" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H395" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J395" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="396" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C396" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="D396" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E396" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F396" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G396" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H396" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J396" s="17" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="397" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C397" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="D397" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="E397" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="F397" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G397" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="H397" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="J397" s="37" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="398" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C398" s="21"/>
-      <c r="D398" s="21"/>
-      <c r="E398" s="21"/>
-      <c r="F398" s="31"/>
-      <c r="G398" s="21"/>
-      <c r="H398" s="21"/>
+      <c r="H398" s="29" t="s">
+        <v>127</v>
+      </c>
       <c r="I398" s="18"/>
       <c r="K398" s="18"/>
     </row>
     <row r="399" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B399" s="2" t="s">
+      <c r="C399" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D399" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="E399" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F399" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G399" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H399" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I399" s="18"/>
+      <c r="J399" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="C399" s="18"/>
-      <c r="E399" s="18"/>
-      <c r="G399" s="18"/>
-      <c r="I399" s="18"/>
-      <c r="J399" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="K399" s="18"/>
     </row>
     <row r="400" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B400" s="2"/>
-      <c r="C400" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D400" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E400" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F400" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G400" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H400" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="C400" s="18"/>
+      <c r="E400" s="18"/>
+      <c r="G400" s="18"/>
       <c r="I400" s="18"/>
       <c r="K400" s="18"/>
     </row>
-    <row r="401" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C401" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="D401" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="E401" s="29" t="s">
+    <row r="401" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B401" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="402" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C402" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D402" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E402" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F402" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G402" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H402" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="403" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C403" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D403" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E403" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F401" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G401" s="29" t="s">
+      <c r="F403" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G403" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H401" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="I401" s="18"/>
-      <c r="K401" s="18"/>
-    </row>
-    <row r="402" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C402" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="D402" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="E402" s="29" t="s">
+      <c r="H403" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="404" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C404" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D404" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E404" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F402" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G402" s="29" t="s">
+      <c r="F404" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G404" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H402" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="I402" s="18"/>
-      <c r="J402" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="K402" s="18"/>
-    </row>
-    <row r="403" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C403" s="18"/>
-      <c r="E403" s="18"/>
-      <c r="G403" s="18"/>
-      <c r="I403" s="18"/>
-      <c r="K403" s="18"/>
-    </row>
-    <row r="404" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B404" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="405" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H404" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="405" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C405" s="12" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="D405" s="12" t="s">
-        <v>49</v>
+        <v>351</v>
       </c>
       <c r="E405" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F405" s="14" t="s">
-        <v>51</v>
+        <v>91</v>
+      </c>
+      <c r="F405" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="G405" s="12" t="s">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c r="H405" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="406" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="406" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C406" s="12" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D406" s="12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E406" s="12" t="s">
         <v>91</v>
@@ -9520,18 +10046,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="407" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C407" s="12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D407" s="12" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E407" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F407" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G407" s="12" t="s">
         <v>58</v>
@@ -9540,321 +10066,326 @@
         <v>127</v>
       </c>
     </row>
-    <row r="408" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C408" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D408" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E408" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F408" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G408" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H408" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="409" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C409" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D409" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E409" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F409" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G409" s="12" t="s">
+    <row r="408" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="409" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B409" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="410" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C410" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D410" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E410" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F410" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="411" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C411" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D411" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E411" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F411" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="412" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C412" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D412" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E412" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H409" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="410" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C410" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D410" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E410" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F410" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G410" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H410" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="411" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="412" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="413" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F412" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="413" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C413" s="12" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="D413" s="12" t="s">
-        <v>49</v>
+        <v>324</v>
       </c>
       <c r="E413" s="12" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="F413" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="414" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="415" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B415" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="416" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C416" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D416" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E416" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="414" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C414" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D414" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E414" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F414" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="415" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C415" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D415" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E415" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F415" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="416" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C416" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D416" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="E416" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F416" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="418" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B418" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C419" s="12" t="s">
-        <v>69</v>
+    <row r="417" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C417" s="12">
+        <v>200</v>
+      </c>
+      <c r="D417" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E417" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C418" s="12">
+        <v>201</v>
+      </c>
+      <c r="D418" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E418" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C419" s="12">
+        <v>401</v>
       </c>
       <c r="D419" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E419" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C420" s="12">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="D420" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E420" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C421" s="12">
-        <v>201</v>
+        <v>404</v>
       </c>
       <c r="D421" s="12" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="E421" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C422" s="12">
-        <v>401</v>
-      </c>
-      <c r="D422" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E422" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C423" s="12">
-        <v>403</v>
-      </c>
-      <c r="D423" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E423" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C424" s="12">
-        <v>404</v>
-      </c>
-      <c r="D424" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E424" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="426" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A426">
+    <row r="422" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="423" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A423">
         <v>12</v>
       </c>
-      <c r="B426" s="8" t="s">
+      <c r="B423" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C426" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D426" s="8" t="s">
+      <c r="C423" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D423" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E426" s="8" t="s">
+      <c r="E423" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F426" s="9">
+      <c r="F423" s="9">
         <v>6.12</v>
       </c>
-      <c r="H426" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B427" s="12" t="str">
+      <c r="H423" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B424" s="12" t="str">
         <f>B3</f>
         <v>接⼝地址</v>
       </c>
-      <c r="C427" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B428" s="10" t="s">
+      <c r="C424" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B425" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C428" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B429" s="10" t="s">
+      <c r="C425" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B426" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C429" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B430" s="12" t="str">
+      <c r="C426" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B427" s="12" t="str">
         <f>B6</f>
         <v>请求⽅式</v>
       </c>
-      <c r="C430" s="12" t="str">
+      <c r="C427" s="12" t="str">
         <f>C6</f>
         <v>POST</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B431" s="12" t="str">
+    <row r="428" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B428" s="12" t="str">
         <f>B7</f>
         <v>接⼝描述</v>
       </c>
-      <c r="C431" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="10" t="s">
+      <c r="C428" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B429" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C432" s="10" t="s">
+      <c r="C429" s="10" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="430" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B430" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C430" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B431" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C432" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D432" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E432" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F432" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G432" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H432" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J432" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
     <row r="433" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B433" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C433" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="C433" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D433" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E433" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F433" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G433" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H433" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J433" s="12"/>
     </row>
     <row r="434" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B434" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C434" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D434" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="E434" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F434" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G434" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H434" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J434" s="12"/>
     </row>
     <row r="435" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C435" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D435" s="12" t="s">
-        <v>49</v>
+        <v>360</v>
+      </c>
+      <c r="D435" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="E435" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F435" s="14" t="s">
-        <v>51</v>
+        <v>91</v>
+      </c>
+      <c r="F435" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="G435" s="12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H435" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J435" s="2" t="s">
-        <v>256</v>
+        <v>127</v>
+      </c>
+      <c r="J435" s="10" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="436" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C436" s="12" t="s">
-        <v>167</v>
+      <c r="C436" s="10" t="s">
+        <v>363</v>
       </c>
       <c r="D436" s="12" t="s">
-        <v>168</v>
+        <v>364</v>
       </c>
       <c r="E436" s="12" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="F436" s="14" t="b">
         <v>1</v>
@@ -9865,125 +10396,129 @@
       <c r="H436" s="12" t="s">
         <v>127</v>
       </c>
+      <c r="J436" s="10" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="437" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C437" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D437" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="E437" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="E437" s="10" t="s">
         <v>91</v>
       </c>
       <c r="F437" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G437" s="12" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="H437" s="12" t="s">
         <v>127</v>
       </c>
+      <c r="J437" s="12"/>
     </row>
     <row r="438" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C438" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="D438" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="E438" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F438" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G438" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H438" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J438" s="2" t="s">
-        <v>368</v>
-      </c>
+      <c r="C438" s="18"/>
+      <c r="D438" s="18"/>
     </row>
     <row r="439" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C439" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D439" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E439" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F439" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G439" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H439" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J439" s="2" t="s">
-        <v>259</v>
+      <c r="B439" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="440" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C440" s="12" t="s">
-        <v>371</v>
+        <v>31</v>
       </c>
       <c r="D440" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="E440" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E440" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F440" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G440" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H440" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J440" s="12"/>
+    </row>
+    <row r="441" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C441" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D441" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="E441" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F440" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G440" s="12" t="s">
+      <c r="F441" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G441" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H440" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="441" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C441" s="18"/>
-      <c r="D441" s="18"/>
+      <c r="H441" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J441" s="12"/>
     </row>
     <row r="442" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B442" s="2" t="s">
-        <v>364</v>
-      </c>
+      <c r="C442" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D442" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E442" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F442" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G442" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H442" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J442" s="12"/>
     </row>
     <row r="443" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C443" s="12" t="s">
-        <v>31</v>
+        <v>371</v>
       </c>
       <c r="D443" s="12" t="s">
-        <v>49</v>
+        <v>372</v>
       </c>
       <c r="E443" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F443" s="14" t="s">
-        <v>51</v>
+        <v>91</v>
+      </c>
+      <c r="F443" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="G443" s="12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H443" s="12" t="s">
-        <v>53</v>
+        <v>127</v>
+      </c>
+      <c r="J443" s="10" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="444" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C444" s="12" t="s">
-        <v>373</v>
+        <v>59</v>
       </c>
       <c r="D444" s="12" t="s">
         <v>374</v>
@@ -10000,13 +10535,19 @@
       <c r="H444" s="12" t="s">
         <v>127</v>
       </c>
+      <c r="J444" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="K444" s="18" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="445" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C445" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="D445" s="12" t="s">
-        <v>376</v>
+      <c r="C445" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D445" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="E445" s="12" t="s">
         <v>91</v>
@@ -10020,211 +10561,142 @@
       <c r="H445" s="12" t="s">
         <v>127</v>
       </c>
+      <c r="J445" s="55" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="446" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C446" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D446" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="E446" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F446" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G446" s="12" t="s">
+      <c r="C446" s="18"/>
+      <c r="D446" s="18"/>
+      <c r="E446" s="21"/>
+      <c r="F446" s="31"/>
+      <c r="G446" s="21"/>
+      <c r="H446" s="21"/>
+    </row>
+    <row r="447" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B447" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="448" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C448" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D448" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E448" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="449" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C449" s="12">
+        <v>200</v>
+      </c>
+      <c r="D449" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E449" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="450" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C450" s="12">
+        <v>401</v>
+      </c>
+      <c r="D450" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E450" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="451" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C451" s="12">
+        <v>403</v>
+      </c>
+      <c r="D451" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E451" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="452" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C452" s="12">
+        <v>404</v>
+      </c>
+      <c r="D452" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E452" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="453" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="454" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B454" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="455" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C455" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D455" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E455" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F455" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="456" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C456" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D456" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E456" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H446" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J446" s="2" t="s">
+      <c r="F456" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="457" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C457" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D457" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E457" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F457" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="458" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C458" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D458" s="12" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="447" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C447" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D447" s="12" t="s">
+      <c r="E458" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="E447" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F447" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G447" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H447" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J447" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K447" s="18" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="448" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C448" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="D448" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="E448" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F448" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G448" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H448" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J448" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="449" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C449" s="18"/>
-      <c r="D449" s="18"/>
-      <c r="E449" s="21"/>
-      <c r="F449" s="31"/>
-      <c r="G449" s="21"/>
-      <c r="H449" s="21"/>
-    </row>
-    <row r="450" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B450" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="451" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C451" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D451" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E451" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="452" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C452" s="12">
-        <v>200</v>
-      </c>
-      <c r="D452" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E452" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="453" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C453" s="12">
-        <v>401</v>
-      </c>
-      <c r="D453" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E453" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="454" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C454" s="12">
-        <v>403</v>
-      </c>
-      <c r="D454" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E454" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="455" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C455" s="12">
-        <v>404</v>
-      </c>
-      <c r="D455" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E455" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="456" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="457" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B457" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="458" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C458" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D458" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E458" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="F458" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="459" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C459" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D459" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E459" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F459" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="460" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C460" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D460" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E460" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F460" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="461" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C461" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D461" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="E461" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="F461" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="462" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C462" s="18"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="459" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C459" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -10236,22 +10708,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:Z28"/>
+  <dimension ref="B1:Z57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="R49" workbookViewId="0">
+      <selection activeCell="AK62" sqref="AK62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -10259,7 +10731,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -10267,7 +10739,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -10275,7 +10747,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -10292,7 +10764,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -10300,7 +10772,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -10316,7 +10788,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -10324,7 +10796,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -10332,7 +10804,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -10340,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -10348,7 +10820,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -10356,7 +10828,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -10364,7 +10836,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
@@ -10372,13 +10844,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="U17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="W17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
@@ -10386,21 +10858,21 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F18" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>8</v>
       </c>
-      <c r="D19" s="54" t="s">
-        <v>418</v>
-      </c>
-      <c r="F19" s="52" t="s">
-        <v>417</v>
+      <c r="D19" s="53" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
@@ -10408,13 +10880,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="X20" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="Z20" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
@@ -10422,7 +10894,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
@@ -10430,7 +10902,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
@@ -10438,24 +10910,24 @@
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="E25" s="55"/>
+      <c r="D25" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="E25" s="54"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="54" t="s">
-        <v>410</v>
+      <c r="D26" s="53" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
@@ -10463,18 +10935,26 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="52" t="s">
-        <v>414</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>415</v>
+      <c r="D28" s="51" t="s">
+        <v>406</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M55" s="51"/>
+    </row>
+    <row r="57" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="51" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/docs/ITSM-DEVOPS接口对接-接口规范&参数说明.xlsx
+++ b/src/test/resources/docs/ITSM-DEVOPS接口对接-接口规范&参数说明.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\slicee\ws\gitws\kvps\src\test\resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEAE146-1FA3-443F-85C8-D5DAADCC29BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2EBB83-4CE4-46C6-A0C6-094603429ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口列表" sheetId="3" r:id="rId1"/>
     <sheet name="DEVOPS接口" sheetId="4" r:id="rId2"/>
     <sheet name="接口对接说明" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DEVOPS接口!$A$1:$Q$1</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="452">
   <si>
     <t>No.</t>
   </si>
@@ -123,6 +126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -133,6 +137,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,6 +330,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,6 +341,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -342,9 +349,6 @@
     </r>
   </si>
   <si>
-    <t>milestones</t>
-  </si>
-  <si>
     <t>body</t>
   </si>
   <si>
@@ -362,6 +366,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -372,6 +377,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -400,9 +406,6 @@
     <t>里程碑交付物</t>
   </si>
   <si>
-    <t>delivarableUrl</t>
-  </si>
-  <si>
     <t>里程碑交付物路径</t>
   </si>
   <si>
@@ -813,6 +816,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,6 +827,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -833,6 +838,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -866,6 +872,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -876,6 +883,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -915,6 +923,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -925,6 +934,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1015,6 +1025,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1025,6 +1036,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1040,6 +1052,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1050,6 +1063,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1071,6 +1085,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1081,6 +1096,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1180,6 +1196,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1190,6 +1207,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1220,6 +1238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1230,6 +1249,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1240,6 +1260,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1261,6 +1282,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1271,6 +1293,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1287,12 +1310,6 @@
     <t>流程节点序列</t>
   </si>
   <si>
-    <t>approvalStatus</t>
-  </si>
-  <si>
-    <t>0=审批中，1=审批失败，2=审批通过，3=测试失败，4= 投产失败，5=投产成功</t>
-  </si>
-  <si>
     <t>审批结果</t>
   </si>
   <si>
@@ -1300,9 +1317,6 @@
   </si>
   <si>
     <t>schedId,排期ID</t>
-  </si>
-  <si>
-    <t>testEnts</t>
   </si>
   <si>
     <t>需求条目以及对应的测试结果列表</t>
@@ -1319,6 +1333,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1329,6 +1344,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1356,6 +1372,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1366,6 +1383,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1456,6 +1474,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1466,6 +1485,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1556,6 +1576,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1566,15 +1587,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">ID </t>
     </r>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>21位的纯数字 ：202111291751105649078</t>
@@ -1652,15 +1670,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>单的主键</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>KVPS-模拟ITSM</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1696,6 +1711,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1723,6 +1739,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1767,6 +1784,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1794,12 +1812,74 @@
     <t>环翠分局羊亭派出所</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态字段尚未实现</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚未测试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/milepost/instance/insert</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>milestones</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivarableUrl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dto</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalNodes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalStatus</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=审批中，1=审批失败，2=审批通过，3=测试失败，4= 投产失败，5=投产成功</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>testEnts</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1811,6 +1891,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1818,6 +1899,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1825,6 +1907,7 @@
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1832,6 +1915,7 @@
       <sz val="11"/>
       <color theme="3" tint="0.39991454817346722"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1839,6 +1923,7 @@
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1846,6 +1931,7 @@
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1854,6 +1940,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1862,6 +1949,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1913,8 +2001,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1933,8 +2027,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1970,13 +2070,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2073,8 +2199,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2129,9 +2253,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2141,14 +2262,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2164,11 +2283,604 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4619,28 +5331,28 @@
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="50"/>
+      <c r="B59" s="48"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="50"/>
+      <c r="B60" s="48"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="50"/>
+      <c r="B61" s="48"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="50"/>
+      <c r="B62" s="48"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="50"/>
+      <c r="B63" s="48"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="50"/>
+      <c r="B64" s="48"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="50"/>
+      <c r="B65" s="48"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="50"/>
+      <c r="B66" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -4651,13 +5363,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Q459"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C464" sqref="C464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4667,11 +5379,11 @@
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="6"/>
     <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" customWidth="1"/>
+    <col min="9" max="9" width="15" style="91" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4687,11 +5399,14 @@
       <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="84" t="s">
+        <v>450</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4710,14 +5425,17 @@
       <c r="F2" s="9">
         <v>6.2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="52" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
@@ -4725,8 +5443,9 @@
         <v>5</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>35</v>
       </c>
@@ -4734,8 +5453,9 @@
         <v>36</v>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="85"/>
+    </row>
+    <row r="5" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
@@ -4743,45 +5463,51 @@
         <v>38</v>
       </c>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="85"/>
+    </row>
+    <row r="6" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="85"/>
+    </row>
+    <row r="7" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="85"/>
+    </row>
+    <row r="8" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="85"/>
+    </row>
+    <row r="10" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="85"/>
+    </row>
+    <row r="11" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>48</v>
       </c>
@@ -4797,11 +5523,12 @@
       <c r="G11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="61" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="85"/>
+    </row>
+    <row r="12" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>54</v>
       </c>
@@ -4817,9 +5544,10 @@
       <c r="G12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="62"/>
+      <c r="I12" s="85"/>
+    </row>
+    <row r="13" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
         <v>59</v>
       </c>
@@ -4835,9 +5563,10 @@
       <c r="G13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="62"/>
+      <c r="I13" s="85"/>
+    </row>
+    <row r="14" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
         <v>62</v>
       </c>
@@ -4853,9 +5582,10 @@
       <c r="G14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="62"/>
+      <c r="I14" s="85"/>
+    </row>
+    <row r="15" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
         <v>64</v>
       </c>
@@ -4871,9 +5601,10 @@
       <c r="G15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="62"/>
+      <c r="I15" s="85"/>
+    </row>
+    <row r="16" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
         <v>66</v>
       </c>
@@ -4889,15 +5620,19 @@
       <c r="G16" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="62"/>
+      <c r="I16" s="85"/>
+    </row>
+    <row r="17" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="85"/>
+    </row>
+    <row r="18" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="85"/>
+    </row>
+    <row r="19" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
         <v>69</v>
       </c>
@@ -4907,8 +5642,9 @@
       <c r="E19" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="85"/>
+    </row>
+    <row r="20" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C20" s="12">
         <v>200</v>
       </c>
@@ -4918,8 +5654,9 @@
       <c r="E20" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="85"/>
+    </row>
+    <row r="21" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C21" s="12">
         <v>401</v>
       </c>
@@ -4927,8 +5664,9 @@
         <v>73</v>
       </c>
       <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="85"/>
+    </row>
+    <row r="22" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C22" s="12">
         <v>403</v>
       </c>
@@ -4936,8 +5674,9 @@
         <v>74</v>
       </c>
       <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="85"/>
+    </row>
+    <row r="23" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C23" s="12">
         <v>404</v>
       </c>
@@ -4945,13 +5684,15 @@
         <v>75</v>
       </c>
       <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="85"/>
+    </row>
+    <row r="24" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="85"/>
+    </row>
+    <row r="25" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
         <v>48</v>
       </c>
@@ -4964,8 +5705,9 @@
       <c r="F25" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="85"/>
+    </row>
+    <row r="26" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C26" s="10" t="s">
         <v>78</v>
       </c>
@@ -4976,12 +5718,21 @@
         <v>58</v>
       </c>
       <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="85"/>
+    </row>
+    <row r="27" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="85"/>
+    </row>
+    <row r="28" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="85"/>
+    </row>
+    <row r="29" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="85"/>
+    </row>
+    <row r="30" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="85"/>
+    </row>
+    <row r="31" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -5000,20 +5751,27 @@
       <c r="F31" s="9">
         <v>6.3</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="60" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="J31" s="82" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>7</v>
+      <c r="C32" s="82" t="s">
+        <v>441</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="I32" s="85"/>
     </row>
     <row r="33" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
@@ -5022,6 +5780,7 @@
       <c r="C33" s="10" t="s">
         <v>83</v>
       </c>
+      <c r="I33" s="85"/>
     </row>
     <row r="34" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
@@ -5030,6 +5789,7 @@
       <c r="C34" s="10" t="s">
         <v>84</v>
       </c>
+      <c r="I34" s="85"/>
     </row>
     <row r="35" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
@@ -5038,6 +5798,7 @@
       <c r="C35" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="I35" s="85"/>
     </row>
     <row r="36" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
@@ -5046,6 +5807,7 @@
       <c r="C36" s="10" t="s">
         <v>85</v>
       </c>
+      <c r="I36" s="85"/>
     </row>
     <row r="37" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
@@ -5054,6 +5816,7 @@
       <c r="C37" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="I37" s="85"/>
     </row>
     <row r="38" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
@@ -5062,11 +5825,13 @@
       <c r="C38" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="I38" s="85"/>
     </row>
     <row r="39" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="I39" s="85"/>
     </row>
     <row r="40" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C40" s="10" t="s">
@@ -5084,10 +5849,11 @@
       <c r="G40" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="I40" s="85"/>
+      <c r="J40" s="71" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5107,30 +5873,32 @@
       <c r="G41" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="12"/>
-      <c r="J41" s="12"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="72"/>
     </row>
     <row r="42" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="10" t="s">
-        <v>90</v>
+      <c r="C42" s="82" t="s">
+        <v>442</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F42" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G42" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="I42" s="85"/>
+      <c r="J42" s="73" t="s">
         <v>93</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="43" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5140,10 +5908,11 @@
       <c r="F43" s="7"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
+      <c r="I43" s="85"/>
     </row>
     <row r="44" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5151,8 +5920,9 @@
       <c r="F44" s="7"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="J44" s="10" t="s">
-        <v>96</v>
+      <c r="I44" s="85"/>
+      <c r="J44" s="71" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5171,19 +5941,20 @@
       <c r="G45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="61" t="s">
         <v>53</v>
       </c>
+      <c r="I45" s="85"/>
     </row>
     <row r="46" spans="2:10" s="3" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C46" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>98</v>
-      </c>
       <c r="E46" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46" s="16" t="b">
         <v>1</v>
@@ -5191,17 +5962,18 @@
       <c r="G46" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="15"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="86"/>
     </row>
     <row r="47" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C47" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>100</v>
-      </c>
       <c r="E47" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F47" s="11" t="b">
         <v>1</v>
@@ -5209,17 +5981,18 @@
       <c r="G47" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="85"/>
     </row>
     <row r="48" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C48" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>102</v>
-      </c>
       <c r="E48" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F48" s="11" t="b">
         <v>1</v>
@@ -5227,17 +6000,18 @@
       <c r="G48" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="17" t="s">
-        <v>103</v>
+      <c r="H48" s="62"/>
+      <c r="I48" s="85"/>
+    </row>
+    <row r="49" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="28" t="s">
+        <v>443</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F49" s="11" t="b">
         <v>1</v>
@@ -5245,17 +6019,18 @@
       <c r="G49" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="62"/>
+      <c r="I49" s="85"/>
+    </row>
+    <row r="50" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C50" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F50" s="11" t="b">
         <v>1</v>
@@ -5263,22 +6038,25 @@
       <c r="G50" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="62"/>
+      <c r="I50" s="85"/>
+    </row>
+    <row r="51" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
       <c r="G51" s="19"/>
       <c r="H51" s="21"/>
-    </row>
-    <row r="52" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="85"/>
+    </row>
+    <row r="52" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="85"/>
+    </row>
+    <row r="53" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C53" s="10" t="s">
         <v>69</v>
       </c>
@@ -5288,8 +6066,9 @@
       <c r="E53" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="85"/>
+    </row>
+    <row r="54" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C54" s="12">
         <v>200</v>
       </c>
@@ -5299,8 +6078,9 @@
       <c r="E54" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="85"/>
+    </row>
+    <row r="55" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C55" s="12">
         <v>401</v>
       </c>
@@ -5308,8 +6088,9 @@
         <v>73</v>
       </c>
       <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="85"/>
+    </row>
+    <row r="56" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C56" s="12">
         <v>403</v>
       </c>
@@ -5317,8 +6098,9 @@
         <v>74</v>
       </c>
       <c r="E56" s="12"/>
-    </row>
-    <row r="57" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="85"/>
+    </row>
+    <row r="57" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C57" s="12">
         <v>404</v>
       </c>
@@ -5326,13 +6108,15 @@
         <v>75</v>
       </c>
       <c r="E57" s="12"/>
-    </row>
-    <row r="58" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="85"/>
+    </row>
+    <row r="58" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="85"/>
+    </row>
+    <row r="59" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C59" s="10" t="s">
         <v>48</v>
       </c>
@@ -5345,8 +6129,9 @@
       <c r="F59" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="85"/>
+    </row>
+    <row r="60" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C60" s="10" t="s">
         <v>78</v>
       </c>
@@ -5357,8 +6142,9 @@
         <v>58</v>
       </c>
       <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="85"/>
+    </row>
+    <row r="61" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B61" s="21"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -5366,8 +6152,9 @@
       <c r="F61" s="20"/>
       <c r="G61" s="19"/>
       <c r="H61" s="21"/>
-    </row>
-    <row r="62" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="85"/>
+    </row>
+    <row r="62" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -5375,10 +6162,10 @@
         <v>31</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>32</v>
@@ -5387,38 +6174,47 @@
         <v>32</v>
       </c>
       <c r="G62" s="25"/>
-      <c r="H62" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="81" t="s">
+        <v>436</v>
+      </c>
+      <c r="J62" s="82" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B63" s="26" t="s">
         <v>81</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D63" s="21"/>
-    </row>
-    <row r="64" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="85"/>
+    </row>
+    <row r="64" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B64" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D64" s="21"/>
-    </row>
-    <row r="65" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="85"/>
+    </row>
+    <row r="65" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B65" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D65" s="21"/>
-    </row>
-    <row r="66" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="85"/>
+    </row>
+    <row r="66" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B66" s="26" t="s">
         <v>39</v>
       </c>
@@ -5426,17 +6222,19 @@
         <v>40</v>
       </c>
       <c r="D66" s="21"/>
-    </row>
-    <row r="67" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="85"/>
+    </row>
+    <row r="67" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D67" s="21"/>
-    </row>
-    <row r="68" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="85"/>
+    </row>
+    <row r="68" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B68" s="26" t="s">
         <v>43</v>
       </c>
@@ -5444,8 +6242,9 @@
         <v>44</v>
       </c>
       <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="85"/>
+    </row>
+    <row r="69" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B69" s="26" t="s">
         <v>45</v>
       </c>
@@ -5453,13 +6252,15 @@
         <v>46</v>
       </c>
       <c r="D69" s="21"/>
-    </row>
-    <row r="70" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="85"/>
+    </row>
+    <row r="70" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="85"/>
+    </row>
+    <row r="71" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C71" s="10" t="s">
         <v>48</v>
       </c>
@@ -5475,11 +6276,12 @@
       <c r="G71" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H71" s="61" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="85"/>
+    </row>
+    <row r="72" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C72" s="10" t="s">
         <v>54</v>
       </c>
@@ -5495,65 +6297,72 @@
       <c r="G72" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H72" s="12"/>
-    </row>
-    <row r="73" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="62"/>
+      <c r="I72" s="85"/>
+    </row>
+    <row r="73" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C73" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="F73" s="11" t="s">
         <v>57</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H73" s="12"/>
-    </row>
-    <row r="74" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="H73" s="62"/>
+      <c r="I73" s="85"/>
+    </row>
+    <row r="74" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C74" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>88</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>57</v>
       </c>
       <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-    </row>
-    <row r="75" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="62"/>
+      <c r="I74" s="85"/>
+    </row>
+    <row r="75" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C75" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="11" t="s">
         <v>57</v>
       </c>
       <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-    </row>
-    <row r="76" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="62"/>
+      <c r="I75" s="85"/>
+    </row>
+    <row r="76" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="85"/>
+    </row>
+    <row r="77" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="I77" s="85"/>
+    </row>
+    <row r="78" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C78" s="10" t="s">
         <v>48</v>
       </c>
@@ -5569,79 +6378,83 @@
       <c r="G78" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H78" s="10" t="s">
+      <c r="H78" s="61" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="79" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="85"/>
+    </row>
+    <row r="79" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C79" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F79" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G79" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H79" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="I79" s="85"/>
+    </row>
+    <row r="80" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H79" s="12" t="s">
+      <c r="D80" s="12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="E80" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F80" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G80" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I80" s="85"/>
+    </row>
+    <row r="81" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="H80" s="12" t="s">
+      <c r="D81" s="12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="81" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="E81" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F81" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G81" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H81" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I81" s="85"/>
+    </row>
+    <row r="82" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H81" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>132</v>
-      </c>
       <c r="E82" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F82" s="14" t="b">
         <v>0</v>
@@ -5649,39 +6462,41 @@
       <c r="G82" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H82" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I82" s="85"/>
+    </row>
+    <row r="83" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C83" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F83" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G83" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H83" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I83" s="85"/>
+    </row>
+    <row r="84" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H83" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>137</v>
-      </c>
       <c r="E84" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F84" s="14" t="b">
         <v>0</v>
@@ -5689,19 +6504,20 @@
       <c r="G84" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H84" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I84" s="85"/>
+    </row>
+    <row r="85" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C85" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F85" s="14" t="b">
         <v>0</v>
@@ -5709,59 +6525,62 @@
       <c r="G85" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H85" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I85" s="85"/>
+    </row>
+    <row r="86" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C86" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F86" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H86" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="H86" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I86" s="85"/>
+    </row>
+    <row r="87" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C87" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F87" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H87" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H87" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="I87" s="85"/>
+    </row>
+    <row r="88" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="88" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="E88" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F88" s="14" t="b">
         <v>1</v>
@@ -5769,19 +6588,20 @@
       <c r="G88" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H88" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I88" s="85"/>
+    </row>
+    <row r="89" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C89" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F89" s="14" t="b">
         <v>0</v>
@@ -5789,19 +6609,20 @@
       <c r="G89" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H89" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I89" s="85"/>
+    </row>
+    <row r="90" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C90" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F90" s="14" t="b">
         <v>0</v>
@@ -5809,39 +6630,41 @@
       <c r="G90" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H90" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I90" s="85"/>
+    </row>
+    <row r="91" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C91" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F91" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="H91" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I91" s="85"/>
+    </row>
+    <row r="92" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C92" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F92" s="14" t="b">
         <v>1</v>
@@ -5849,39 +6672,41 @@
       <c r="G92" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H92" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H92" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I92" s="85"/>
+    </row>
+    <row r="93" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C93" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F93" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="H93" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I93" s="85"/>
+    </row>
+    <row r="94" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C94" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F94" s="14" t="b">
         <v>0</v>
@@ -5889,19 +6714,20 @@
       <c r="G94" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H94" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I94" s="85"/>
+    </row>
+    <row r="95" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C95" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F95" s="14" t="b">
         <v>0</v>
@@ -5909,19 +6735,20 @@
       <c r="G95" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H95" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I95" s="85"/>
+    </row>
+    <row r="96" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C96" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F96" s="14" t="b">
         <v>0</v>
@@ -5929,19 +6756,20 @@
       <c r="G96" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H96" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="H96" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I96" s="85"/>
     </row>
     <row r="97" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C97" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F97" s="14" t="b">
         <v>1</v>
@@ -5949,11 +6777,14 @@
       <c r="G97" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H97" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+      <c r="H97" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I97" s="85"/>
+    </row>
+    <row r="98" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I98" s="85"/>
+    </row>
     <row r="99" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
@@ -5973,8 +6804,14 @@
       <c r="F99" s="9">
         <v>6.4</v>
       </c>
-      <c r="H99" s="8" t="s">
-        <v>163</v>
+      <c r="H99" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="I99" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="J99" s="82" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="100" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5984,22 +6821,25 @@
       <c r="C100" s="17" t="s">
         <v>9</v>
       </c>
+      <c r="I100" s="85"/>
     </row>
     <row r="101" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>164</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="I101" s="85"/>
     </row>
     <row r="102" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B102" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>164</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="I102" s="85"/>
     </row>
     <row r="103" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
@@ -6008,14 +6848,16 @@
       <c r="C103" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="I103" s="85"/>
     </row>
     <row r="104" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>165</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="I104" s="85"/>
     </row>
     <row r="105" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
@@ -6024,6 +6866,7 @@
       <c r="C105" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="I105" s="85"/>
     </row>
     <row r="106" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
@@ -6032,11 +6875,13 @@
       <c r="C106" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="I106" s="85"/>
     </row>
     <row r="107" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="I107" s="85"/>
     </row>
     <row r="108" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C108" s="12" t="s">
@@ -6046,7 +6891,7 @@
         <v>49</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F108" s="14" t="s">
         <v>51</v>
@@ -6054,22 +6899,23 @@
       <c r="G108" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H108" s="12" t="s">
+      <c r="H108" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="J108" s="10" t="s">
+      <c r="I108" s="85"/>
+      <c r="J108" s="71" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C109" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E109" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="F109" s="14" t="b">
         <v>1</v>
@@ -6077,20 +6923,21 @@
       <c r="G109" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H109" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J109" s="12"/>
+      <c r="H109" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I109" s="85"/>
+      <c r="J109" s="72"/>
     </row>
     <row r="110" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C110" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F110" s="14" t="b">
         <v>1</v>
@@ -6098,20 +6945,21 @@
       <c r="G110" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H110" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J110" s="12"/>
+      <c r="H110" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I110" s="85"/>
+      <c r="J110" s="72"/>
     </row>
     <row r="111" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C111" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F111" s="14" t="b">
         <v>1</v>
@@ -6119,25 +6967,26 @@
       <c r="G111" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H111" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J111" s="10" t="s">
-        <v>174</v>
+      <c r="H111" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I111" s="85"/>
+      <c r="J111" s="71" t="s">
+        <v>172</v>
       </c>
       <c r="K111" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C112" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F112" s="14" t="b">
         <v>1</v>
@@ -6145,20 +6994,21 @@
       <c r="G112" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H112" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J112" s="12"/>
+      <c r="H112" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I112" s="85"/>
+      <c r="J112" s="72"/>
     </row>
     <row r="113" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C113" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F113" s="14" t="b">
         <v>1</v>
@@ -6166,20 +7016,21 @@
       <c r="G113" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H113" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J113" s="12"/>
+      <c r="H113" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I113" s="85"/>
+      <c r="J113" s="72"/>
     </row>
     <row r="114" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C114" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F114" s="14" t="b">
         <v>1</v>
@@ -6187,16 +7038,20 @@
       <c r="G114" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H114" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J114" s="12"/>
-    </row>
-    <row r="115" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+      <c r="H114" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I114" s="85"/>
+      <c r="J114" s="72"/>
+    </row>
+    <row r="115" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="85"/>
+    </row>
     <row r="116" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="I116" s="85"/>
     </row>
     <row r="117" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C117" s="12" t="s">
@@ -6208,6 +7063,7 @@
       <c r="E117" s="12" t="s">
         <v>53</v>
       </c>
+      <c r="I117" s="85"/>
     </row>
     <row r="118" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C118" s="12">
@@ -6219,6 +7075,7 @@
       <c r="E118" s="12" t="s">
         <v>72</v>
       </c>
+      <c r="I118" s="85"/>
     </row>
     <row r="119" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C119" s="12">
@@ -6228,8 +7085,9 @@
         <v>73</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>127</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I119" s="85"/>
     </row>
     <row r="120" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C120" s="12">
@@ -6239,8 +7097,9 @@
         <v>74</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>127</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I120" s="85"/>
     </row>
     <row r="121" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C121" s="12">
@@ -6250,14 +7109,18 @@
         <v>75</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+        <v>125</v>
+      </c>
+      <c r="I121" s="85"/>
+    </row>
+    <row r="122" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I122" s="85"/>
+    </row>
     <row r="123" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="I123" s="85"/>
     </row>
     <row r="124" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C124" s="12" t="s">
@@ -6272,6 +7135,7 @@
       <c r="F124" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="I124" s="85"/>
     </row>
     <row r="125" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C125" s="12" t="s">
@@ -6284,39 +7148,44 @@
         <v>58</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>127</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I125" s="85"/>
     </row>
     <row r="126" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C126" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>127</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I126" s="85"/>
     </row>
     <row r="127" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C127" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I127" s="85"/>
+    </row>
+    <row r="128" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I128" s="85"/>
+    </row>
+    <row r="129" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -6335,72 +7204,86 @@
       <c r="F129" s="9">
         <v>6.5</v>
       </c>
-      <c r="H129" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H129" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="I129" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="J129" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C130" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I130" s="85"/>
+    </row>
+    <row r="131" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="I131" s="85"/>
+    </row>
+    <row r="132" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B132" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="I132" s="85"/>
+    </row>
+    <row r="133" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="I133" s="85"/>
+    </row>
+    <row r="134" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="I134" s="85"/>
+    </row>
+    <row r="135" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C135" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I135" s="85"/>
+    </row>
+    <row r="136" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I136" s="85"/>
+    </row>
+    <row r="137" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I137" s="85"/>
+    </row>
+    <row r="138" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C138" s="12" t="s">
         <v>48</v>
       </c>
@@ -6416,19 +7299,20 @@
       <c r="G138" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H138" s="12" t="s">
+      <c r="H138" s="62" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I138" s="85"/>
+    </row>
+    <row r="139" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C139" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E139" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="F139" s="14" t="b">
         <v>0</v>
@@ -6436,17 +7320,21 @@
       <c r="G139" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H139" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H139" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I139" s="85"/>
+    </row>
+    <row r="140" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I140" s="85"/>
+    </row>
+    <row r="141" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I141" s="85"/>
+    </row>
+    <row r="142" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C142" s="12" t="s">
         <v>48</v>
       </c>
@@ -6459,56 +7347,63 @@
       <c r="F142" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I142" s="85"/>
+    </row>
+    <row r="143" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C143" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="I143" s="85"/>
+    </row>
+    <row r="144" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C144" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I144" s="85"/>
+    </row>
+    <row r="145" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C145" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D145" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I145" s="85"/>
+    </row>
+    <row r="146" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I146" s="85"/>
+    </row>
+    <row r="147" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E145" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F145" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I147" s="85"/>
+    </row>
+    <row r="148" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C148" s="12" t="s">
         <v>69</v>
       </c>
@@ -6518,8 +7413,9 @@
       <c r="E148" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I148" s="85"/>
+    </row>
+    <row r="149" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C149" s="12">
         <v>200</v>
       </c>
@@ -6527,21 +7423,23 @@
         <v>71</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="I149" s="85"/>
+    </row>
+    <row r="150" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C150" s="12">
         <v>201</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I150" s="85"/>
+    </row>
+    <row r="151" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C151" s="12">
         <v>401</v>
       </c>
@@ -6549,10 +7447,11 @@
         <v>73</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I151" s="85"/>
+    </row>
+    <row r="152" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C152" s="12">
         <v>403</v>
       </c>
@@ -6560,10 +7459,11 @@
         <v>74</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I152" s="85"/>
+    </row>
+    <row r="153" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C153" s="12">
         <v>404</v>
       </c>
@@ -6571,11 +7471,14 @@
         <v>75</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I153" s="85"/>
+    </row>
+    <row r="154" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I154" s="85"/>
+    </row>
+    <row r="155" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>6</v>
       </c>
@@ -6594,49 +7497,60 @@
       <c r="F155" s="9">
         <v>6.6</v>
       </c>
-      <c r="H155" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H155" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="I155" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="J155" s="82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I156" s="85"/>
+    </row>
+    <row r="157" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="I157" s="85"/>
+    </row>
+    <row r="158" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B158" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="I158" s="85"/>
+    </row>
+    <row r="159" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I159" s="85"/>
+    </row>
+    <row r="160" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>199</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="I160" s="85"/>
     </row>
     <row r="161" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
@@ -6645,6 +7559,7 @@
       <c r="C161" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="I161" s="85"/>
     </row>
     <row r="162" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
@@ -6653,11 +7568,13 @@
       <c r="C162" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="I162" s="85"/>
     </row>
     <row r="163" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="I163" s="85"/>
     </row>
     <row r="164" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C164" s="12" t="s">
@@ -6675,39 +7592,41 @@
       <c r="G164" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H164" s="12" t="s">
+      <c r="H164" s="62" t="s">
         <v>53</v>
       </c>
+      <c r="I164" s="85"/>
     </row>
     <row r="165" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C165" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F165" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H165" s="12" t="s">
-        <v>201</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H165" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="I165" s="85"/>
     </row>
     <row r="166" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C166" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E166" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E166" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="F166" s="14" t="b">
         <v>0</v>
@@ -6715,15 +7634,19 @@
       <c r="G166" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H166" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="167" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+      <c r="H166" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I166" s="85"/>
+    </row>
+    <row r="167" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I167" s="85"/>
+    </row>
     <row r="168" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I168" s="85"/>
     </row>
     <row r="169" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C169" s="12" t="s">
@@ -6741,43 +7664,45 @@
       <c r="G169" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H169" s="12" t="s">
+      <c r="H169" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="J169" s="56" t="s">
-        <v>419</v>
+      <c r="I169" s="85"/>
+      <c r="J169" s="74" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="170" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C170" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F170" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G170" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H170" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J170" s="33"/>
+        <v>120</v>
+      </c>
+      <c r="H170" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="I170" s="85"/>
+      <c r="J170" s="75"/>
     </row>
     <row r="171" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C171" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F171" s="14" t="b">
         <v>1</v>
@@ -6785,68 +7710,71 @@
       <c r="G171" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H171" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J171" s="32" t="s">
-        <v>207</v>
+      <c r="H171" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I171" s="85"/>
+      <c r="J171" s="76" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="172" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C172" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F172" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G172" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H172" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I172" s="85"/>
+      <c r="J172" s="76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" s="50" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="H172" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J172" s="32" t="s">
+      <c r="D173" s="53" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="173" spans="2:10" s="53" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C173" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="D173" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="E173" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F173" s="58" t="b">
+      <c r="E173" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F173" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="G173" s="57" t="s">
+      <c r="G173" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="H173" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="J173" s="59" t="s">
-        <v>173</v>
+      <c r="H173" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="I173" s="87"/>
+      <c r="J173" s="77" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C174" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F174" s="14" t="b">
         <v>0</v>
@@ -6854,20 +7782,21 @@
       <c r="G174" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H174" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J174" s="33"/>
+      <c r="H174" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I174" s="85"/>
+      <c r="J174" s="75"/>
     </row>
     <row r="175" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C175" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F175" s="14" t="b">
         <v>1</v>
@@ -6875,45 +7804,47 @@
       <c r="G175" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H175" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J175" s="56" t="s">
-        <v>418</v>
+      <c r="H175" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I175" s="85"/>
+      <c r="J175" s="74" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="176" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C176" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F176" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="H176" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="J176" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="H176" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="I176" s="85"/>
+      <c r="J176" s="76" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C177" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F177" s="14" t="b">
         <v>1</v>
@@ -6921,45 +7852,47 @@
       <c r="G177" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H177" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J177" s="32" t="s">
-        <v>221</v>
+      <c r="H177" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I177" s="85"/>
+      <c r="J177" s="76" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="178" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C178" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F178" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G178" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H178" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J178" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="H178" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I178" s="85"/>
+      <c r="J178" s="76" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="179" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C179" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F179" s="14" t="b">
         <v>1</v>
@@ -6967,22 +7900,23 @@
       <c r="G179" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H179" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J179" s="32" t="s">
-        <v>224</v>
+      <c r="H179" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I179" s="85"/>
+      <c r="J179" s="76" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="180" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C180" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F180" s="14" t="b">
         <v>0</v>
@@ -6990,23 +7924,27 @@
       <c r="G180" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H180" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J180" s="33"/>
+      <c r="H180" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I180" s="85"/>
+      <c r="J180" s="75"/>
     </row>
     <row r="181" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F181" s="31"/>
+      <c r="I181" s="85"/>
     </row>
     <row r="182" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F182" s="31"/>
+      <c r="I182" s="85"/>
     </row>
     <row r="183" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="J183" s="10" t="s">
-        <v>227</v>
+      <c r="B183" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="I183" s="85"/>
+      <c r="J183" s="71" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="184" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7025,19 +7963,20 @@
       <c r="G184" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H184" s="12" t="s">
+      <c r="H184" s="62" t="s">
         <v>53</v>
       </c>
+      <c r="I184" s="85"/>
     </row>
     <row r="185" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C185" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F185" s="14" t="b">
         <v>1</v>
@@ -7045,19 +7984,20 @@
       <c r="G185" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H185" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="H185" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I185" s="85"/>
     </row>
     <row r="186" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C186" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F186" s="14" t="b">
         <v>1</v>
@@ -7065,39 +8005,41 @@
       <c r="G186" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H186" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="H186" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I186" s="85"/>
     </row>
     <row r="187" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C187" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F187" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G187" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H187" s="12" t="s">
-        <v>127</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="H187" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I187" s="85"/>
     </row>
     <row r="188" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C188" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F188" s="14" t="b">
         <v>1</v>
@@ -7105,19 +8047,20 @@
       <c r="G188" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H188" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="H188" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I188" s="85"/>
     </row>
     <row r="189" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C189" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F189" s="14" t="b">
         <v>0</v>
@@ -7125,15 +8068,19 @@
       <c r="G189" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H189" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="190" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+      <c r="H189" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I189" s="85"/>
+    </row>
+    <row r="190" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I190" s="85"/>
+    </row>
     <row r="191" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="I191" s="85"/>
     </row>
     <row r="192" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C192" s="12" t="s">
@@ -7145,8 +8092,9 @@
       <c r="E192" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I192" s="85"/>
+    </row>
+    <row r="193" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C193" s="12">
         <v>200</v>
       </c>
@@ -7156,8 +8104,9 @@
       <c r="E193" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I193" s="85"/>
+    </row>
+    <row r="194" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C194" s="12">
         <v>401</v>
       </c>
@@ -7165,10 +8114,11 @@
         <v>73</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I194" s="85"/>
+    </row>
+    <row r="195" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C195" s="12">
         <v>403</v>
       </c>
@@ -7176,10 +8126,11 @@
         <v>74</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I195" s="85"/>
+    </row>
+    <row r="196" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C196" s="12">
         <v>404</v>
       </c>
@@ -7187,15 +8138,17 @@
         <v>75</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I196" s="85"/>
+    </row>
+    <row r="197" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B197" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I197" s="85"/>
+    </row>
+    <row r="198" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C198" s="12" t="s">
         <v>48</v>
       </c>
@@ -7208,8 +8161,9 @@
       <c r="F198" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I198" s="85"/>
+    </row>
+    <row r="199" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C199" s="12" t="s">
         <v>29</v>
       </c>
@@ -7220,39 +8174,44 @@
         <v>58</v>
       </c>
       <c r="F199" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I199" s="85"/>
+    </row>
+    <row r="200" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C200" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E200" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I200" s="85"/>
+    </row>
+    <row r="201" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C201" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E201" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I201" s="85"/>
+    </row>
+    <row r="202" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I202" s="85"/>
+    </row>
+    <row r="203" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>7</v>
       </c>
@@ -7271,49 +8230,60 @@
       <c r="F203" s="9">
         <v>6.7</v>
       </c>
-      <c r="H203" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H203" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="I203" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="J203" s="82" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C204" s="55" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C204" s="52" t="s">
+        <v>405</v>
+      </c>
+      <c r="I204" s="85"/>
+    </row>
+    <row r="205" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B205" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="I205" s="85"/>
+    </row>
+    <row r="206" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B206" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="I206" s="85"/>
+    </row>
+    <row r="207" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B207" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C207" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I207" s="85"/>
+    </row>
+    <row r="208" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>240</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="I208" s="85"/>
     </row>
     <row r="209" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B209" s="10" t="s">
@@ -7322,6 +8292,7 @@
       <c r="C209" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="I209" s="85"/>
     </row>
     <row r="210" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
@@ -7330,11 +8301,13 @@
       <c r="C210" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="I210" s="85"/>
     </row>
     <row r="211" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="I211" s="85"/>
     </row>
     <row r="212" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C212" s="12" t="s">
@@ -7352,19 +8325,20 @@
       <c r="G212" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H212" s="12" t="s">
+      <c r="H212" s="62" t="s">
         <v>53</v>
       </c>
+      <c r="I212" s="85"/>
     </row>
     <row r="213" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C213" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E213" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D213" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E213" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="F213" s="14" t="b">
         <v>1</v>
@@ -7372,19 +8346,20 @@
       <c r="G213" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H213" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="H213" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I213" s="85"/>
     </row>
     <row r="214" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C214" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F214" s="14" t="b">
         <v>1</v>
@@ -7392,19 +8367,20 @@
       <c r="G214" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H214" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="H214" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I214" s="85"/>
     </row>
     <row r="215" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C215" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F215" s="14" t="b">
         <v>1</v>
@@ -7412,38 +8388,43 @@
       <c r="G215" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H215" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="H215" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I215" s="85"/>
       <c r="J215" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="216" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C216" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F216" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G216" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H216" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="217" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+        <v>120</v>
+      </c>
+      <c r="H216" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="I216" s="85"/>
+    </row>
+    <row r="217" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I217" s="85"/>
+    </row>
     <row r="218" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B218" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="I218" s="85"/>
     </row>
     <row r="219" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C219" s="12" t="s">
@@ -7461,22 +8442,23 @@
       <c r="G219" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H219" s="12" t="s">
+      <c r="H219" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="J219" s="10" t="s">
-        <v>245</v>
+      <c r="I219" s="85"/>
+      <c r="J219" s="71" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="220" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C220" s="55" t="s">
-        <v>412</v>
+      <c r="C220" s="52" t="s">
+        <v>406</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F220" s="14" t="b">
         <v>1</v>
@@ -7484,22 +8466,23 @@
       <c r="G220" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H220" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J220" s="10" t="s">
-        <v>246</v>
+      <c r="H220" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I220" s="85"/>
+      <c r="J220" s="71" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="221" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C221" s="55" t="s">
-        <v>413</v>
+      <c r="C221" s="52" t="s">
+        <v>407</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F221" s="14" t="b">
         <v>1</v>
@@ -7507,45 +8490,47 @@
       <c r="G221" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H221" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J221" s="55" t="s">
-        <v>414</v>
+      <c r="H221" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I221" s="85"/>
+      <c r="J221" s="78" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="222" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C222" s="55" t="s">
-        <v>415</v>
+      <c r="C222" s="52" t="s">
+        <v>409</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F222" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H222" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J222" s="10" t="s">
-        <v>247</v>
+        <v>207</v>
+      </c>
+      <c r="H222" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I222" s="85"/>
+      <c r="J222" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="223" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C223" s="55" t="s">
-        <v>416</v>
+      <c r="C223" s="52" t="s">
+        <v>410</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F223" s="14" t="b">
         <v>1</v>
@@ -7553,22 +8538,23 @@
       <c r="G223" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H223" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J223" s="10" t="s">
-        <v>248</v>
+      <c r="H223" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I223" s="85"/>
+      <c r="J223" s="71" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="224" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C224" s="55" t="s">
-        <v>417</v>
+      <c r="C224" s="52" t="s">
+        <v>411</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F224" s="14" t="b">
         <v>0</v>
@@ -7576,20 +8562,24 @@
       <c r="G224" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H224" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J224" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H224" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I224" s="85"/>
+      <c r="J224" s="71" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I225" s="85"/>
+    </row>
+    <row r="226" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B226" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I226" s="85"/>
+    </row>
+    <row r="227" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C227" s="12" t="s">
         <v>69</v>
       </c>
@@ -7599,8 +8589,9 @@
       <c r="E227" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I227" s="85"/>
+    </row>
+    <row r="228" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C228" s="12">
         <v>200</v>
       </c>
@@ -7610,8 +8601,9 @@
       <c r="E228" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I228" s="85"/>
+    </row>
+    <row r="229" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C229" s="12">
         <v>401</v>
       </c>
@@ -7619,10 +8611,11 @@
         <v>73</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I229" s="85"/>
+    </row>
+    <row r="230" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C230" s="12">
         <v>403</v>
       </c>
@@ -7630,10 +8623,11 @@
         <v>74</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I230" s="85"/>
+    </row>
+    <row r="231" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C231" s="12">
         <v>404</v>
       </c>
@@ -7641,16 +8635,20 @@
         <v>75</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I231" s="85"/>
+    </row>
+    <row r="232" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I232" s="85"/>
+    </row>
+    <row r="233" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I233" s="85"/>
+    </row>
+    <row r="234" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C234" s="12" t="s">
         <v>48</v>
       </c>
@@ -7663,8 +8661,9 @@
       <c r="F234" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I234" s="85"/>
+    </row>
+    <row r="235" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C235" s="12" t="s">
         <v>29</v>
       </c>
@@ -7675,83 +8674,95 @@
         <v>58</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I235" s="85"/>
+    </row>
+    <row r="236" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C236" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E236" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F236" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C237" s="34" t="s">
-        <v>184</v>
+        <v>125</v>
+      </c>
+      <c r="I236" s="85"/>
+    </row>
+    <row r="237" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C237" s="32" t="s">
+        <v>182</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E237" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F237" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I237" s="85"/>
+    </row>
+    <row r="238" spans="1:10" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>8</v>
       </c>
-      <c r="B238" s="35" t="s">
+      <c r="B238" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C238" s="35" t="s">
+      <c r="C238" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D238" s="35" t="s">
+      <c r="D238" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E238" s="35" t="s">
+      <c r="E238" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F238" s="36">
+      <c r="F238" s="34">
         <v>6.8</v>
       </c>
-      <c r="H238" s="35" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H238" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="I238" s="81" t="s">
+        <v>436</v>
+      </c>
+      <c r="J238" s="82" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B239" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C239" s="55" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C239" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="I239" s="85"/>
+    </row>
+    <row r="240" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B240" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>251</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I240" s="85"/>
     </row>
     <row r="241" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B241" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>252</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="I241" s="85"/>
     </row>
     <row r="242" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B242" s="10" t="s">
@@ -7760,14 +8771,16 @@
       <c r="C242" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="I242" s="85"/>
     </row>
     <row r="243" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B243" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>253</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="I243" s="85"/>
     </row>
     <row r="244" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B244" s="10" t="s">
@@ -7776,6 +8789,7 @@
       <c r="C244" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="I244" s="85"/>
     </row>
     <row r="245" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B245" s="10" t="s">
@@ -7784,11 +8798,13 @@
       <c r="C245" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="I245" s="85"/>
     </row>
     <row r="246" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B246" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="I246" s="85"/>
     </row>
     <row r="247" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C247" s="12" t="s">
@@ -7806,22 +8822,23 @@
       <c r="G247" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H247" s="12" t="s">
+      <c r="H247" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="J247" s="10" t="s">
-        <v>254</v>
+      <c r="I247" s="85"/>
+      <c r="J247" s="71" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="248" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C248" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E248" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D248" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E248" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="F248" s="14" t="b">
         <v>0</v>
@@ -7829,39 +8846,43 @@
       <c r="G248" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H248" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J248" s="12"/>
+      <c r="H248" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I248" s="85"/>
+      <c r="J248" s="72"/>
     </row>
     <row r="249" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C249" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F249" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="H249" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="J249" s="12"/>
+        <v>254</v>
+      </c>
+      <c r="H249" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="I249" s="85"/>
+      <c r="J249" s="72"/>
     </row>
     <row r="250" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C250" s="18"/>
+      <c r="I250" s="85"/>
     </row>
     <row r="251" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B251" s="2" t="s">
-        <v>256</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="I251" s="85"/>
     </row>
     <row r="252" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C252" s="12" t="s">
@@ -7879,89 +8900,93 @@
       <c r="G252" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H252" s="12" t="s">
+      <c r="H252" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="J252" s="10" t="s">
-        <v>254</v>
+      <c r="I252" s="85"/>
+      <c r="J252" s="71" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="253" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C253" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F253" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H253" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J253" s="12"/>
+        <v>120</v>
+      </c>
+      <c r="H253" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="I253" s="85"/>
+      <c r="J253" s="72"/>
     </row>
     <row r="254" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C254" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F254" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H254" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J254" s="10" t="s">
-        <v>261</v>
+        <v>120</v>
+      </c>
+      <c r="H254" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I254" s="85"/>
+      <c r="J254" s="71" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="255" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C255" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F255" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H255" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J255" s="10" t="s">
-        <v>263</v>
+        <v>133</v>
+      </c>
+      <c r="H255" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I255" s="85"/>
+      <c r="J255" s="71" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="256" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C256" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F256" s="14" t="b">
         <v>1</v>
@@ -7969,23 +8994,24 @@
       <c r="G256" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H256" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J256" s="10" t="s">
-        <v>266</v>
+      <c r="H256" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I256" s="85"/>
+      <c r="J256" s="71" t="s">
+        <v>264</v>
       </c>
       <c r="K256" s="18"/>
     </row>
     <row r="257" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C257" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F257" s="14" t="b">
         <v>1</v>
@@ -7993,22 +9019,23 @@
       <c r="G257" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H257" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J257" s="10" t="s">
-        <v>268</v>
+      <c r="H257" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I257" s="85"/>
+      <c r="J257" s="71" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="258" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C258" s="55" t="s">
-        <v>427</v>
+      <c r="C258" s="52" t="s">
+        <v>420</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F258" s="14" t="b">
         <v>0</v>
@@ -8016,43 +9043,45 @@
       <c r="G258" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H258" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J258" s="10" t="s">
-        <v>270</v>
+      <c r="H258" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I258" s="85"/>
+      <c r="J258" s="71" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="259" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C259" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F259" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="H259" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J259" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="H259" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I259" s="85"/>
+      <c r="J259" s="72"/>
     </row>
     <row r="260" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C260" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F260" s="14" t="b">
         <v>0</v>
@@ -8060,45 +9089,47 @@
       <c r="G260" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H260" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J260" s="10" t="s">
-        <v>275</v>
+      <c r="H260" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I260" s="85"/>
+      <c r="J260" s="71" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="261" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C261" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F261" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H261" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J261" s="10" t="s">
-        <v>277</v>
+        <v>133</v>
+      </c>
+      <c r="H261" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I261" s="85"/>
+      <c r="J261" s="71" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="262" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C262" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F262" s="14" t="b">
         <v>1</v>
@@ -8106,15 +9137,17 @@
       <c r="G262" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H262" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J262" s="10" t="s">
-        <v>279</v>
+      <c r="H262" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I262" s="85"/>
+      <c r="J262" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="263" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F263"/>
+      <c r="I263" s="85"/>
     </row>
     <row r="264" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C264" s="19"/>
@@ -8123,6 +9156,7 @@
       <c r="F264" s="31"/>
       <c r="G264" s="19"/>
       <c r="H264" s="21"/>
+      <c r="I264" s="85"/>
     </row>
     <row r="265" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C265" s="19"/>
@@ -8131,11 +9165,13 @@
       <c r="F265" s="31"/>
       <c r="G265" s="19"/>
       <c r="H265" s="21"/>
+      <c r="I265" s="85"/>
     </row>
     <row r="266" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B266" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="I266" s="85"/>
     </row>
     <row r="267" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C267" s="12" t="s">
@@ -8153,19 +9189,20 @@
       <c r="G267" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H267" s="12" t="s">
+      <c r="H267" s="62" t="s">
         <v>53</v>
       </c>
+      <c r="I267" s="85"/>
     </row>
     <row r="268" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C268" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F268" s="14" t="b">
         <v>1</v>
@@ -8173,19 +9210,20 @@
       <c r="G268" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H268" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="H268" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I268" s="85"/>
     </row>
     <row r="269" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C269" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F269" s="14" t="b">
         <v>1</v>
@@ -8193,39 +9231,41 @@
       <c r="G269" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H269" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="H269" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I269" s="85"/>
     </row>
     <row r="270" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C270" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F270" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G270" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H270" s="12" t="s">
-        <v>127</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="H270" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I270" s="85"/>
     </row>
     <row r="271" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C271" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F271" s="14" t="b">
         <v>1</v>
@@ -8233,19 +9273,20 @@
       <c r="G271" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H271" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="H271" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I271" s="85"/>
     </row>
     <row r="272" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C272" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F272" s="14" t="b">
         <v>0</v>
@@ -8253,17 +9294,21 @@
       <c r="G272" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H272" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="274" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H272" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I272" s="85"/>
+    </row>
+    <row r="273" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I273" s="85"/>
+    </row>
+    <row r="274" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B274" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I274" s="85"/>
+    </row>
+    <row r="275" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C275" s="12" t="s">
         <v>48</v>
       </c>
@@ -8276,56 +9321,63 @@
       <c r="F275" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I275" s="85"/>
+    </row>
+    <row r="276" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C276" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F276" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="I276" s="85"/>
+    </row>
+    <row r="277" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C277" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E277" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I277" s="85"/>
+    </row>
+    <row r="278" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C278" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I278" s="85"/>
+    </row>
+    <row r="279" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I279" s="85"/>
+    </row>
+    <row r="280" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B280" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="I280" s="85"/>
+    </row>
+    <row r="281" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C281" s="12" t="s">
         <v>69</v>
       </c>
@@ -8335,8 +9387,9 @@
       <c r="E281" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I281" s="85"/>
+    </row>
+    <row r="282" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C282" s="12">
         <v>200</v>
       </c>
@@ -8344,21 +9397,23 @@
         <v>71</v>
       </c>
       <c r="E282" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="I282" s="85"/>
+    </row>
+    <row r="283" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C283" s="12">
         <v>201</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E283" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I283" s="85"/>
+    </row>
+    <row r="284" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C284" s="12">
         <v>401</v>
       </c>
@@ -8366,10 +9421,11 @@
         <v>73</v>
       </c>
       <c r="E284" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I284" s="85"/>
+    </row>
+    <row r="285" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C285" s="12">
         <v>403</v>
       </c>
@@ -8377,10 +9433,11 @@
         <v>74</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I285" s="85"/>
+    </row>
+    <row r="286" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C286" s="12">
         <v>404</v>
       </c>
@@ -8388,98 +9445,115 @@
         <v>75</v>
       </c>
       <c r="E286" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="1:8" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I286" s="85"/>
+    </row>
+    <row r="287" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I287" s="85"/>
+    </row>
+    <row r="288" spans="1:10" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>9</v>
       </c>
-      <c r="B288" s="35" t="s">
+      <c r="B288" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C288" s="61" t="s">
-        <v>430</v>
-      </c>
-      <c r="D288" s="35" t="s">
+      <c r="C288" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D288" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E288" s="60" t="s">
-        <v>429</v>
-      </c>
-      <c r="F288" s="36">
+      <c r="E288" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="F288" s="34">
         <v>6.9</v>
       </c>
-      <c r="H288" s="35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="289" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H288" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="I288" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="J288" s="82" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B289" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C289" s="55" t="s">
-        <v>428</v>
-      </c>
-      <c r="E289" s="38" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="290" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C289" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="E289" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="I289" s="85"/>
+    </row>
+    <row r="290" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B290" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="291" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="I290" s="85"/>
+    </row>
+    <row r="291" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B291" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="292" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="I291" s="85"/>
+    </row>
+    <row r="292" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B292" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C292" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="293" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I292" s="85"/>
+    </row>
+    <row r="293" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B293" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="294" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="I293" s="85"/>
+    </row>
+    <row r="294" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B294" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C294" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="295" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I294" s="85"/>
+    </row>
+    <row r="295" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B295" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C295" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="296" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I295" s="85"/>
+    </row>
+    <row r="296" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B296" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="297" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I296" s="85"/>
+    </row>
+    <row r="297" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C297" s="12" t="s">
         <v>48</v>
       </c>
@@ -8495,19 +9569,20 @@
       <c r="G297" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H297" s="12" t="s">
+      <c r="H297" s="62" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="298" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I297" s="85"/>
+    </row>
+    <row r="298" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C298" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E298" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D298" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E298" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="F298" s="14" t="b">
         <v>0</v>
@@ -8515,37 +9590,42 @@
       <c r="G298" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H298" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="299" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H298" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I298" s="85"/>
+    </row>
+    <row r="299" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C299" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E299" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F299" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G299" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="H299" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="300" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="301" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="H299" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="I299" s="85"/>
+    </row>
+    <row r="300" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I300" s="85"/>
+    </row>
+    <row r="301" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B301" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="302" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="I301" s="85"/>
+    </row>
+    <row r="302" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C302" s="12" t="s">
         <v>48</v>
       </c>
@@ -8561,13 +9641,14 @@
       <c r="G302" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H302" s="12" t="s">
+      <c r="H302" s="62" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="303" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C303" s="55" t="s">
-        <v>434</v>
+      <c r="I302" s="85"/>
+    </row>
+    <row r="303" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C303" s="52" t="s">
+        <v>427</v>
       </c>
       <c r="D303" s="10" t="s">
         <v>88</v>
@@ -8579,16 +9660,17 @@
         <v>1</v>
       </c>
       <c r="G303" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H303" s="62"/>
+      <c r="I303" s="85"/>
+    </row>
+    <row r="304" spans="2:9" s="3" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C304" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="D304" s="37" t="s">
         <v>286</v>
-      </c>
-      <c r="H303" s="12"/>
-    </row>
-    <row r="304" spans="2:8" s="3" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C304" s="62" t="s">
-        <v>435</v>
-      </c>
-      <c r="D304" s="39" t="s">
-        <v>288</v>
       </c>
       <c r="E304" s="10" t="s">
         <v>89</v>
@@ -8597,16 +9679,17 @@
         <v>1</v>
       </c>
       <c r="G304" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="H304" s="12"/>
+        <v>284</v>
+      </c>
+      <c r="H304" s="62"/>
+      <c r="I304" s="86"/>
     </row>
     <row r="305" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C305" s="55" t="s">
-        <v>436</v>
+      <c r="C305" s="52" t="s">
+        <v>429</v>
       </c>
       <c r="D305" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E305" s="10" t="s">
         <v>89</v>
@@ -8615,24 +9698,27 @@
         <v>1</v>
       </c>
       <c r="G305" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H305" s="10" t="s">
-        <v>290</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="H305" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="I305" s="85"/>
     </row>
     <row r="306" spans="2:10" s="3" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C306" s="40"/>
-      <c r="D306" s="40"/>
-      <c r="E306" s="41"/>
-      <c r="F306" s="42"/>
-      <c r="G306" s="41"/>
-      <c r="H306" s="41"/>
+      <c r="C306" s="38"/>
+      <c r="D306" s="38"/>
+      <c r="E306" s="39"/>
+      <c r="F306" s="40"/>
+      <c r="G306" s="39"/>
+      <c r="H306" s="39"/>
+      <c r="I306" s="86"/>
     </row>
     <row r="307" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B307" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="I307" s="85"/>
     </row>
     <row r="308" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C308" s="12" t="s">
@@ -8650,22 +9736,23 @@
       <c r="G308" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H308" s="12" t="s">
+      <c r="H308" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="J308" s="10" t="s">
+      <c r="I308" s="85"/>
+      <c r="J308" s="71" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="309" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C309" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D309" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E309" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F309" s="14" t="b">
         <v>1</v>
@@ -8673,20 +9760,21 @@
       <c r="G309" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H309" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J309" s="12"/>
+      <c r="H309" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I309" s="85"/>
+      <c r="J309" s="72"/>
     </row>
     <row r="310" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C310" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D310" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E310" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F310" s="14" t="b">
         <v>1</v>
@@ -8694,20 +9782,21 @@
       <c r="G310" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H310" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J310" s="12"/>
+      <c r="H310" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I310" s="85"/>
+      <c r="J310" s="72"/>
     </row>
     <row r="311" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C311" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D311" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E311" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F311" s="14" t="b">
         <v>1</v>
@@ -8715,22 +9804,23 @@
       <c r="G311" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H311" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J311" s="17" t="s">
-        <v>297</v>
+      <c r="H311" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I311" s="85"/>
+      <c r="J311" s="73" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="312" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C312" s="64" t="s">
-        <v>423</v>
+      <c r="C312" s="59" t="s">
+        <v>416</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E312" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F312" s="14" t="b">
         <v>1</v>
@@ -8738,20 +9828,21 @@
       <c r="G312" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H312" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J312" s="12"/>
+      <c r="H312" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I312" s="85"/>
+      <c r="J312" s="72"/>
     </row>
     <row r="313" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C313" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E313" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F313" s="14" t="b">
         <v>1</v>
@@ -8759,15 +9850,17 @@
       <c r="G313" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H313" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J313" s="12"/>
+      <c r="H313" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I313" s="85"/>
+      <c r="J313" s="72"/>
     </row>
     <row r="314" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B314" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="I314" s="85"/>
     </row>
     <row r="315" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C315" s="12" t="s">
@@ -8782,56 +9875,63 @@
       <c r="F315" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="I315" s="85"/>
     </row>
     <row r="316" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C316" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E316" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F316" s="14" t="s">
-        <v>130</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="I316" s="85"/>
     </row>
     <row r="317" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C317" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E317" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F317" s="14" t="s">
-        <v>127</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I317" s="85"/>
     </row>
     <row r="318" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C318" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E318" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F318" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="319" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+        <v>125</v>
+      </c>
+      <c r="I318" s="85"/>
+    </row>
+    <row r="319" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I319" s="85"/>
+    </row>
     <row r="320" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B320" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="I320" s="85"/>
+    </row>
+    <row r="321" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C321" s="12" t="s">
         <v>69</v>
       </c>
@@ -8841,8 +9941,9 @@
       <c r="E321" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I321" s="85"/>
+    </row>
+    <row r="322" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C322" s="12">
         <v>200</v>
       </c>
@@ -8850,21 +9951,23 @@
         <v>71</v>
       </c>
       <c r="E322" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="I322" s="85"/>
+    </row>
+    <row r="323" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C323" s="12">
         <v>201</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E323" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I323" s="85"/>
+    </row>
+    <row r="324" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C324" s="12">
         <v>401</v>
       </c>
@@ -8872,10 +9975,11 @@
         <v>73</v>
       </c>
       <c r="E324" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I324" s="85"/>
+    </row>
+    <row r="325" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C325" s="12">
         <v>403</v>
       </c>
@@ -8883,10 +9987,11 @@
         <v>74</v>
       </c>
       <c r="E325" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I325" s="85"/>
+    </row>
+    <row r="326" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C326" s="12">
         <v>404</v>
       </c>
@@ -8894,94 +9999,113 @@
         <v>75</v>
       </c>
       <c r="E326" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="328" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="329" spans="1:8" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I326" s="85"/>
+    </row>
+    <row r="327" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I327" s="85"/>
+    </row>
+    <row r="328" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I328" s="85"/>
+    </row>
+    <row r="329" spans="1:10" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>10</v>
       </c>
-      <c r="B329" s="35" t="s">
+      <c r="B329" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C329" s="61" t="s">
-        <v>441</v>
-      </c>
-      <c r="D329" s="35" t="s">
+      <c r="C329" s="56" t="s">
+        <v>434</v>
+      </c>
+      <c r="D329" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E329" s="60" t="s">
-        <v>431</v>
-      </c>
-      <c r="F329" s="36" t="s">
+      <c r="E329" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="F329" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H329" s="35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H329" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="I329" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="J329" s="82" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B330" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C330" s="55" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C330" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="I330" s="85"/>
+    </row>
+    <row r="331" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B331" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="I331" s="85"/>
+    </row>
+    <row r="332" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B332" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C332" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="I332" s="85"/>
+    </row>
+    <row r="333" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B333" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C333" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I333" s="85"/>
+    </row>
+    <row r="334" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B334" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C334" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="I334" s="85"/>
+    </row>
+    <row r="335" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B335" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C335" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I335" s="85"/>
+    </row>
+    <row r="336" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B336" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C336" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="I336" s="85"/>
     </row>
     <row r="337" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B337" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="I337" s="85"/>
     </row>
     <row r="338" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C338" s="12" t="s">
@@ -8999,22 +10123,23 @@
       <c r="G338" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H338" s="12" t="s">
+      <c r="H338" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="J338" s="10" t="s">
+      <c r="I338" s="85"/>
+      <c r="J338" s="71" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="339" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C339" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D339" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E339" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D339" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E339" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="F339" s="14" t="b">
         <v>1</v>
@@ -9022,17 +10147,18 @@
       <c r="G339" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H339" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J339" s="12"/>
+      <c r="H339" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I339" s="85"/>
+      <c r="J339" s="72"/>
     </row>
     <row r="340" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C340" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D340" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E340" s="10" t="s">
         <v>89</v>
@@ -9041,20 +10167,24 @@
         <v>1</v>
       </c>
       <c r="G340" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H340" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="I340" s="85"/>
+      <c r="J340" s="71" t="s">
         <v>306</v>
       </c>
-      <c r="H340" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="J340" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="341" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="341" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I341" s="85"/>
+    </row>
     <row r="342" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B342" s="2" t="s">
-        <v>306</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="I342" s="85"/>
     </row>
     <row r="343" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C343" s="12" t="s">
@@ -9072,22 +10202,23 @@
       <c r="G343" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H343" s="12" t="s">
+      <c r="H343" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="J343" s="10" t="s">
-        <v>254</v>
+      <c r="I343" s="85"/>
+      <c r="J343" s="71" t="s">
+        <v>252</v>
       </c>
       <c r="K343" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="344" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C344" s="55" t="s">
-        <v>437</v>
+      <c r="C344" s="52" t="s">
+        <v>430</v>
       </c>
       <c r="D344" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E344" s="10" t="s">
         <v>89</v>
@@ -9096,111 +10227,116 @@
         <v>1</v>
       </c>
       <c r="G344" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="H344" s="12"/>
-      <c r="J344" s="10" t="s">
-        <v>258</v>
+        <v>284</v>
+      </c>
+      <c r="H344" s="62"/>
+      <c r="I344" s="85"/>
+      <c r="J344" s="71" t="s">
+        <v>256</v>
       </c>
       <c r="K344" s="12"/>
     </row>
     <row r="345" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C345" s="55" t="s">
-        <v>435</v>
+      <c r="C345" s="52" t="s">
+        <v>428</v>
       </c>
       <c r="D345" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E345" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F345" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G345" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="H345" s="12"/>
-      <c r="J345" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H345" s="62"/>
+      <c r="I345" s="85"/>
+      <c r="J345" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="K345" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="346" spans="2:11" s="5" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C346" s="58" t="s">
+        <v>431</v>
+      </c>
+      <c r="D346" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="K345" s="10" t="s">
+      <c r="E346" s="44"/>
+      <c r="F346" s="45"/>
+      <c r="G346" s="44"/>
+      <c r="H346" s="67"/>
+      <c r="I346" s="88"/>
+      <c r="J346" s="79" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="346" spans="2:11" s="5" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C346" s="63" t="s">
-        <v>438</v>
-      </c>
-      <c r="D346" s="46" t="s">
+      <c r="K346" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="E346" s="46"/>
-      <c r="F346" s="47"/>
-      <c r="G346" s="46"/>
-      <c r="H346" s="46"/>
-      <c r="J346" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="K346" s="46" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="347" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C347" s="55" t="s">
-        <v>436</v>
-      </c>
-      <c r="D347" s="55" t="s">
-        <v>439</v>
+      <c r="C347" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="D347" s="52" t="s">
+        <v>432</v>
       </c>
       <c r="E347" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F347" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G347" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H347" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="J347" s="10" t="s">
-        <v>289</v>
+        <v>91</v>
+      </c>
+      <c r="H347" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="I347" s="85"/>
+      <c r="J347" s="71" t="s">
+        <v>287</v>
       </c>
       <c r="K347" s="12"/>
     </row>
     <row r="348" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C348" s="64" t="s">
-        <v>440</v>
+      <c r="C348" s="59" t="s">
+        <v>433</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E348" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F348" s="48" t="b">
+        <v>90</v>
+      </c>
+      <c r="F348" s="46" t="b">
         <v>1</v>
       </c>
       <c r="G348" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="H348" s="10"/>
-      <c r="J348" s="10" t="s">
-        <v>316</v>
+        <v>284</v>
+      </c>
+      <c r="H348" s="61"/>
+      <c r="I348" s="85"/>
+      <c r="J348" s="71" t="s">
+        <v>314</v>
       </c>
       <c r="K348" s="12"/>
     </row>
     <row r="349" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C349" s="55" t="s">
-        <v>423</v>
+      <c r="C349" s="52" t="s">
+        <v>416</v>
       </c>
       <c r="D349" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E349" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F349" s="14" t="b">
         <v>1</v>
@@ -9208,23 +10344,24 @@
       <c r="G349" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H349" s="12"/>
-      <c r="J349" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="K349" s="55" t="s">
-        <v>422</v>
+      <c r="H349" s="62"/>
+      <c r="I349" s="85"/>
+      <c r="J349" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="K349" s="52" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="350" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C350" s="55" t="s">
-        <v>424</v>
+      <c r="C350" s="52" t="s">
+        <v>417</v>
       </c>
       <c r="D350" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E350" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F350" s="14" t="b">
         <v>1</v>
@@ -9232,12 +10369,13 @@
       <c r="G350" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H350" s="12"/>
-      <c r="J350" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="K350" s="55" t="s">
-        <v>425</v>
+      <c r="H350" s="62"/>
+      <c r="I350" s="85"/>
+      <c r="J350" s="78" t="s">
+        <v>414</v>
+      </c>
+      <c r="K350" s="52" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="351" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9247,14 +10385,16 @@
       <c r="F351" s="31"/>
       <c r="G351" s="21"/>
       <c r="H351" s="21"/>
+      <c r="I351" s="85"/>
       <c r="J351" s="2"/>
     </row>
     <row r="352" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B352" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="J352" s="49" t="s">
-        <v>319</v>
+        <v>289</v>
+      </c>
+      <c r="I352" s="85"/>
+      <c r="J352" s="47" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="353" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9273,22 +10413,23 @@
       <c r="G353" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H353" s="12" t="s">
+      <c r="H353" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="J353" s="10" t="s">
-        <v>254</v>
+      <c r="I353" s="85"/>
+      <c r="J353" s="71" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="354" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C354" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D354" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E354" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F354" s="14" t="b">
         <v>1</v>
@@ -9296,22 +10437,23 @@
       <c r="G354" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H354" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J354" s="10" t="s">
-        <v>322</v>
+      <c r="H354" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I354" s="85"/>
+      <c r="J354" s="71" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="355" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C355" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D355" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E355" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F355" s="14" t="b">
         <v>1</v>
@@ -9319,100 +10461,108 @@
       <c r="G355" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H355" s="12"/>
-      <c r="J355" s="10" t="s">
-        <v>323</v>
+      <c r="H355" s="62"/>
+      <c r="I355" s="85"/>
+      <c r="J355" s="71" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="356" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C356" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="D356" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="E356" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F356" s="45" t="b">
+      <c r="C356" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="D356" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="E356" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F356" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G356" s="44" t="s">
+      <c r="G356" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="H356" s="44"/>
-      <c r="J356" s="10" t="s">
-        <v>296</v>
+      <c r="H356" s="68"/>
+      <c r="I356" s="85"/>
+      <c r="J356" s="71" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="357" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C357" s="44" t="s">
+      <c r="C357" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="D357" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E357" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F357" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G357" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H357" s="68"/>
+      <c r="I357" s="85"/>
+      <c r="J357" s="71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="358" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C358" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D358" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="E358" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F358" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G358" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="H358" s="68"/>
+      <c r="I358" s="85"/>
+      <c r="J358" s="71" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="359" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C359" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D359" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="D357" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="E357" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F357" s="45" t="b">
+      <c r="E359" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F359" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G357" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="H357" s="44"/>
-      <c r="J357" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="358" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C358" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="D358" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="E358" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F358" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G358" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="H358" s="44"/>
-      <c r="J358" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="359" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C359" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D359" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="E359" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F359" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G359" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="H359" s="44"/>
-      <c r="J359" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="360" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+      <c r="G359" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="H359" s="68"/>
+      <c r="I359" s="85"/>
+      <c r="J359" s="71" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="360" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I360" s="85"/>
+    </row>
     <row r="361" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B361" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="I361" s="85"/>
     </row>
     <row r="362" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C362" s="12" t="s">
@@ -9427,54 +10577,61 @@
       <c r="F362" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="I362" s="85"/>
     </row>
     <row r="363" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C363" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D363" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E363" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F363" s="14" t="s">
-        <v>130</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="I363" s="85"/>
     </row>
     <row r="364" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C364" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D364" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E364" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F364" s="14" t="s">
-        <v>127</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I364" s="85"/>
     </row>
     <row r="365" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C365" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D365" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E365" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F365" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="366" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+        <v>125</v>
+      </c>
+      <c r="I365" s="85"/>
+    </row>
+    <row r="366" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I366" s="85"/>
+    </row>
     <row r="367" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B367" s="2" t="s">
-        <v>193</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="I367" s="85"/>
     </row>
     <row r="368" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C368" s="12" t="s">
@@ -9486,8 +10643,9 @@
       <c r="E368" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I368" s="85"/>
+    </row>
+    <row r="369" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C369" s="12">
         <v>200</v>
       </c>
@@ -9495,21 +10653,23 @@
         <v>71</v>
       </c>
       <c r="E369" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="I369" s="85"/>
+    </row>
+    <row r="370" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C370" s="12">
         <v>201</v>
       </c>
       <c r="D370" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E370" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I370" s="85"/>
+    </row>
+    <row r="371" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C371" s="12">
         <v>401</v>
       </c>
@@ -9517,10 +10677,11 @@
         <v>73</v>
       </c>
       <c r="E371" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I371" s="85"/>
+    </row>
+    <row r="372" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C372" s="12">
         <v>403</v>
       </c>
@@ -9528,10 +10689,11 @@
         <v>74</v>
       </c>
       <c r="E372" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I372" s="85"/>
+    </row>
+    <row r="373" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C373" s="12">
         <v>404</v>
       </c>
@@ -9539,96 +10701,112 @@
         <v>75</v>
       </c>
       <c r="E373" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="375" spans="1:9" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I373" s="85"/>
+    </row>
+    <row r="374" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I374" s="85"/>
+    </row>
+    <row r="375" spans="1:10" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <v>11</v>
       </c>
-      <c r="B375" s="35" t="s">
+      <c r="B375" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C375" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="D375" s="35" t="s">
+      <c r="C375" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="D375" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E375" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F375" s="36">
+      <c r="E375" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="F375" s="34">
         <v>6.11</v>
       </c>
-      <c r="H375" s="35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H375" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="I375" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="J375" s="82" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B376" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C376" s="55" t="s">
-        <v>432</v>
-      </c>
-      <c r="I376" s="2"/>
-    </row>
-    <row r="377" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C376" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="I376" s="89"/>
+    </row>
+    <row r="377" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B377" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I377" s="85"/>
+    </row>
+    <row r="378" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B378" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C378" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="I378" s="85"/>
+    </row>
+    <row r="379" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B379" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C379" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I379" s="85"/>
+    </row>
+    <row r="380" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B380" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C380" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="I380" s="85"/>
+    </row>
+    <row r="381" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B381" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C381" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I381" s="85"/>
+    </row>
+    <row r="382" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B382" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C382" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I382" s="85"/>
+    </row>
+    <row r="383" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B383" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I383" s="85"/>
+    </row>
+    <row r="384" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C384" s="12" t="s">
         <v>48</v>
       </c>
@@ -9644,19 +10822,20 @@
       <c r="G384" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H384" s="12" t="s">
+      <c r="H384" s="62" t="s">
         <v>53</v>
       </c>
+      <c r="I384" s="85"/>
     </row>
     <row r="385" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C385" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D385" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E385" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D385" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E385" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="F385" s="14" t="b">
         <v>1</v>
@@ -9664,39 +10843,41 @@
       <c r="G385" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H385" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="H385" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I385" s="85"/>
     </row>
     <row r="386" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C386" s="12" t="s">
-        <v>328</v>
+      <c r="C386" s="82" t="s">
+        <v>444</v>
       </c>
       <c r="D386" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E386" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F386" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G386" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="H386" s="12" t="s">
-        <v>329</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="H386" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="I386" s="85"/>
     </row>
     <row r="387" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C387" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D387" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E387" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F387" s="14" t="b">
         <v>1</v>
@@ -9704,23 +10885,27 @@
       <c r="G387" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H387" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="H387" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I387" s="85"/>
       <c r="J387" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="388" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="388" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I388" s="85"/>
+    </row>
     <row r="389" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B389" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I389" s="85"/>
+      <c r="L389" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="L389" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="Q389" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="390" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9739,71 +10924,74 @@
       <c r="G390" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H390" s="12" t="s">
+      <c r="H390" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="J390" s="10" t="s">
+      <c r="I390" s="85"/>
+      <c r="J390" s="71" t="s">
         <v>86</v>
       </c>
       <c r="Q390" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="391" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C391" s="12" t="s">
-        <v>203</v>
+      <c r="C391" s="82" t="s">
+        <v>445</v>
       </c>
       <c r="D391" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E391" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F391" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G391" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H391" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J391" s="10" t="s">
-        <v>334</v>
+        <v>120</v>
+      </c>
+      <c r="H391" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="I391" s="85"/>
+      <c r="J391" s="71" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="392" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C392" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="D392" s="10" t="s">
-        <v>336</v>
+      <c r="C392" s="82" t="s">
+        <v>446</v>
+      </c>
+      <c r="D392" s="82" t="s">
+        <v>447</v>
       </c>
       <c r="E392" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F392" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G392" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H392" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J392" s="10" t="s">
-        <v>337</v>
+        <v>128</v>
+      </c>
+      <c r="H392" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I392" s="85"/>
+      <c r="J392" s="71" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="393" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C393" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D393" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E393" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F393" s="14" t="b">
         <v>1</v>
@@ -9811,34 +10999,36 @@
       <c r="G393" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H393" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J393" s="17" t="s">
-        <v>339</v>
+      <c r="H393" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I393" s="85"/>
+      <c r="J393" s="73" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="394" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C394" s="37" t="s">
-        <v>340</v>
-      </c>
-      <c r="D394" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="E394" s="37" t="s">
-        <v>91</v>
+      <c r="C394" s="83" t="s">
+        <v>448</v>
+      </c>
+      <c r="D394" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="E394" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="F394" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="G394" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="H394" s="37" t="s">
-        <v>342</v>
-      </c>
-      <c r="J394" s="37" t="s">
-        <v>343</v>
+      <c r="G394" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H394" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="I394" s="85"/>
+      <c r="J394" s="80" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="395" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9848,19 +11038,19 @@
       <c r="F395" s="31"/>
       <c r="G395" s="21"/>
       <c r="H395" s="21"/>
-      <c r="I395" s="18"/>
+      <c r="I395" s="90"/>
       <c r="K395" s="18"/>
     </row>
     <row r="396" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B396" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C396" s="18"/>
       <c r="E396" s="18"/>
       <c r="G396" s="18"/>
-      <c r="I396" s="18"/>
+      <c r="I396" s="90"/>
       <c r="J396" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K396" s="18"/>
     </row>
@@ -9881,21 +11071,21 @@
       <c r="G397" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H397" s="12" t="s">
+      <c r="H397" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="I397" s="18"/>
+      <c r="I397" s="90"/>
       <c r="K397" s="18"/>
     </row>
     <row r="398" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C398" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="D398" s="37" t="s">
-        <v>347</v>
+      <c r="C398" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="D398" s="35" t="s">
+        <v>342</v>
       </c>
       <c r="E398" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F398" s="30" t="b">
         <v>1</v>
@@ -9903,21 +11093,21 @@
       <c r="G398" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H398" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="I398" s="18"/>
+      <c r="H398" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="I398" s="90"/>
       <c r="K398" s="18"/>
     </row>
     <row r="399" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C399" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="D399" s="37" t="s">
-        <v>349</v>
+      <c r="C399" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D399" s="35" t="s">
+        <v>344</v>
       </c>
       <c r="E399" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F399" s="30" t="b">
         <v>1</v>
@@ -9925,12 +11115,12 @@
       <c r="G399" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H399" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="I399" s="18"/>
-      <c r="J399" s="37" t="s">
-        <v>350</v>
+      <c r="H399" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="I399" s="90"/>
+      <c r="J399" s="80" t="s">
+        <v>345</v>
       </c>
       <c r="K399" s="18"/>
     </row>
@@ -9938,15 +11128,16 @@
       <c r="C400" s="18"/>
       <c r="E400" s="18"/>
       <c r="G400" s="18"/>
-      <c r="I400" s="18"/>
+      <c r="I400" s="90"/>
       <c r="K400" s="18"/>
     </row>
-    <row r="401" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B401" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="402" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="I401" s="85"/>
+    </row>
+    <row r="402" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C402" s="12" t="s">
         <v>48</v>
       </c>
@@ -9962,19 +11153,20 @@
       <c r="G402" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H402" s="12" t="s">
+      <c r="H402" s="62" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="403" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I402" s="85"/>
+    </row>
+    <row r="403" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C403" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D403" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E403" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F403" s="14" t="b">
         <v>1</v>
@@ -9982,19 +11174,20 @@
       <c r="G403" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H403" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="404" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H403" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I403" s="85"/>
+    </row>
+    <row r="404" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C404" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D404" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E404" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F404" s="14" t="b">
         <v>1</v>
@@ -10002,39 +11195,41 @@
       <c r="G404" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H404" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="405" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H404" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I404" s="85"/>
+    </row>
+    <row r="405" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C405" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D405" s="12" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E405" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F405" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G405" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H405" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="406" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="H405" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I405" s="85"/>
+    </row>
+    <row r="406" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C406" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D406" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E406" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F406" s="14" t="b">
         <v>1</v>
@@ -10042,19 +11237,20 @@
       <c r="G406" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H406" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="407" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H406" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I406" s="85"/>
+    </row>
+    <row r="407" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C407" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D407" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E407" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F407" s="14" t="b">
         <v>0</v>
@@ -10062,17 +11258,21 @@
       <c r="G407" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H407" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="408" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="409" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H407" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I407" s="85"/>
+    </row>
+    <row r="408" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I408" s="85"/>
+    </row>
+    <row r="409" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B409" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="410" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I409" s="85"/>
+    </row>
+    <row r="410" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C410" s="12" t="s">
         <v>48</v>
       </c>
@@ -10085,56 +11285,63 @@
       <c r="F410" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="411" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I410" s="85"/>
+    </row>
+    <row r="411" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C411" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D411" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E411" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F411" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="412" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="I411" s="85"/>
+    </row>
+    <row r="412" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C412" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D412" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E412" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F412" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="413" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I412" s="85"/>
+    </row>
+    <row r="413" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C413" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D413" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E413" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F413" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="414" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="415" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="I413" s="85"/>
+    </row>
+    <row r="414" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I414" s="85"/>
+    </row>
+    <row r="415" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B415" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="416" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="I415" s="85"/>
+    </row>
+    <row r="416" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C416" s="12" t="s">
         <v>69</v>
       </c>
@@ -10144,6 +11351,7 @@
       <c r="E416" s="12" t="s">
         <v>53</v>
       </c>
+      <c r="I416" s="85"/>
     </row>
     <row r="417" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C417" s="12">
@@ -10153,19 +11361,21 @@
         <v>71</v>
       </c>
       <c r="E417" s="12" t="s">
-        <v>194</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I417" s="85"/>
     </row>
     <row r="418" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C418" s="12">
         <v>201</v>
       </c>
       <c r="D418" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E418" s="12" t="s">
-        <v>127</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I418" s="85"/>
     </row>
     <row r="419" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C419" s="12">
@@ -10175,8 +11385,9 @@
         <v>73</v>
       </c>
       <c r="E419" s="12" t="s">
-        <v>127</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I419" s="85"/>
     </row>
     <row r="420" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C420" s="12">
@@ -10186,8 +11397,9 @@
         <v>74</v>
       </c>
       <c r="E420" s="12" t="s">
-        <v>127</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I420" s="85"/>
     </row>
     <row r="421" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C421" s="12">
@@ -10197,10 +11409,13 @@
         <v>75</v>
       </c>
       <c r="E421" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="422" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+        <v>125</v>
+      </c>
+      <c r="I421" s="85"/>
+    </row>
+    <row r="422" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I422" s="85"/>
+    </row>
     <row r="423" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>12</v>
@@ -10209,7 +11424,7 @@
         <v>31</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D423" s="8" t="s">
         <v>32</v>
@@ -10220,8 +11435,14 @@
       <c r="F423" s="9">
         <v>6.12</v>
       </c>
-      <c r="H423" s="8" t="s">
-        <v>353</v>
+      <c r="H423" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="I423" s="81" t="s">
+        <v>436</v>
+      </c>
+      <c r="J423" s="82" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="424" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10230,7 +11451,7 @@
         <v>接⼝地址</v>
       </c>
       <c r="C424" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="425" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10238,7 +11459,7 @@
         <v>37</v>
       </c>
       <c r="C425" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="426" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10246,7 +11467,7 @@
         <v>35</v>
       </c>
       <c r="C426" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="427" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10265,7 +11486,7 @@
         <v>接⼝描述</v>
       </c>
       <c r="C428" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="429" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10297,7 +11518,7 @@
         <v>49</v>
       </c>
       <c r="E432" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F432" s="14" t="s">
         <v>51</v>
@@ -10309,18 +11530,18 @@
         <v>53</v>
       </c>
       <c r="J432" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="433" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C433" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D433" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E433" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D433" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E433" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="F433" s="14" t="b">
         <v>1</v>
@@ -10329,40 +11550,40 @@
         <v>58</v>
       </c>
       <c r="H433" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J433" s="12"/>
     </row>
     <row r="434" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C434" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D434" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E434" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F434" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G434" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H434" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J434" s="12"/>
     </row>
     <row r="435" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C435" s="12" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D435" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E435" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F435" s="14" t="b">
         <v>1</v>
@@ -10371,21 +11592,21 @@
         <v>58</v>
       </c>
       <c r="H435" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J435" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="436" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C436" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D436" s="12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E436" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F436" s="14" t="b">
         <v>1</v>
@@ -10394,21 +11615,21 @@
         <v>58</v>
       </c>
       <c r="H436" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J436" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="437" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C437" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D437" s="12" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E437" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F437" s="14" t="b">
         <v>1</v>
@@ -10417,7 +11638,7 @@
         <v>58</v>
       </c>
       <c r="H437" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J437" s="12"/>
     </row>
@@ -10427,7 +11648,7 @@
     </row>
     <row r="439" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B439" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="440" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10438,7 +11659,7 @@
         <v>49</v>
       </c>
       <c r="E440" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F440" s="14" t="s">
         <v>51</v>
@@ -10453,13 +11674,13 @@
     </row>
     <row r="441" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C441" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D441" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E441" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F441" s="14" t="b">
         <v>1</v>
@@ -10468,19 +11689,19 @@
         <v>58</v>
       </c>
       <c r="H441" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J441" s="12"/>
     </row>
     <row r="442" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C442" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D442" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E442" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F442" s="14" t="b">
         <v>1</v>
@@ -10489,19 +11710,19 @@
         <v>58</v>
       </c>
       <c r="H442" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J442" s="12"/>
     </row>
     <row r="443" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C443" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D443" s="12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E443" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F443" s="14" t="b">
         <v>1</v>
@@ -10510,10 +11731,10 @@
         <v>58</v>
       </c>
       <c r="H443" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J443" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="444" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10521,10 +11742,10 @@
         <v>59</v>
       </c>
       <c r="D444" s="12" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E444" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F444" s="14" t="b">
         <v>1</v>
@@ -10533,24 +11754,24 @@
         <v>58</v>
       </c>
       <c r="H444" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J444" s="10" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K444" s="18" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="445" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C445" s="17" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D445" s="17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E445" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F445" s="14" t="b">
         <v>1</v>
@@ -10559,10 +11780,10 @@
         <v>58</v>
       </c>
       <c r="H445" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J445" s="55" t="s">
-        <v>426</v>
+        <v>125</v>
+      </c>
+      <c r="J445" s="52" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="446" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10608,7 +11829,7 @@
         <v>73</v>
       </c>
       <c r="E450" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="451" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10619,7 +11840,7 @@
         <v>74</v>
       </c>
       <c r="E451" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="452" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10630,7 +11851,7 @@
         <v>75</v>
       </c>
       <c r="E452" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="453" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
@@ -10664,42 +11885,312 @@
         <v>58</v>
       </c>
       <c r="F456" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="457" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C457" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D457" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E457" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F457" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="458" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C458" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D458" s="12" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E458" s="12" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F458" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="459" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C459" s="18"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+      <formula>"蓝"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="69" operator="equal">
+      <formula>"黄"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
+      <formula>"红"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
+      <formula>"绿"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="cellIs" dxfId="65" priority="63" operator="equal">
+      <formula>"蓝"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="-1" operator="equal">
+      <formula>"黄"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+      <formula>"红"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
+      <formula>"绿"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+      <formula>"蓝"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="-1" operator="equal">
+      <formula>"黄"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+      <formula>"红"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
+      <formula>"绿"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I99">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+      <formula>"蓝"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="-1" operator="equal">
+      <formula>"黄"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+      <formula>"红"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
+      <formula>"绿"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I99">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I129">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+      <formula>"蓝"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="-1" operator="equal">
+      <formula>"黄"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+      <formula>"红"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+      <formula>"绿"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I129">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I155">
+    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+      <formula>"蓝"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="-1" operator="equal">
+      <formula>"黄"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+      <formula>"红"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
+      <formula>"绿"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I155">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I203">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>"蓝"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="-1" operator="equal">
+      <formula>"黄"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>"红"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+      <formula>"绿"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I203">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I238">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+      <formula>"蓝"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="-1" operator="equal">
+      <formula>"黄"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>"红"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+      <formula>"绿"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I238">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I288">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"蓝"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="-1" operator="equal">
+      <formula>"黄"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>"红"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+      <formula>"绿"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I288">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I329">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+      <formula>"蓝"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="-1" operator="equal">
+      <formula>"黄"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"红"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+      <formula>"绿"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I329">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I375">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"蓝"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="-1" operator="equal">
+      <formula>"黄"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"红"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>"绿"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I375">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I423">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"蓝"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="-1" operator="equal">
+      <formula>"黄"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"红"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"绿"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I423">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I31 I62 I99 I129 I155 I203 I238 I288 I329 I375 I423" xr:uid="{3404A6C5-45BF-47FA-BE6F-91F76DAE827C}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10708,9 +12199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R49" workbookViewId="0">
+    <sheetView topLeftCell="R49" workbookViewId="0">
       <selection activeCell="AK62" sqref="AK62"/>
     </sheetView>
   </sheetViews>
@@ -10718,12 +12210,12 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -10731,7 +12223,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -10739,7 +12231,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -10747,7 +12239,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -10756,7 +12248,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -10764,7 +12256,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -10772,7 +12264,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -10788,7 +12280,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -10796,7 +12288,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -10804,7 +12296,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -10812,7 +12304,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -10820,7 +12312,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -10828,7 +12320,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -10836,7 +12328,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
@@ -10844,13 +12336,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="U17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="W17" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
@@ -10858,21 +12350,21 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F18" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>8</v>
       </c>
-      <c r="D19" s="53" t="s">
-        <v>410</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>409</v>
+      <c r="D19" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
@@ -10880,13 +12372,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="X20" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Z20" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
@@ -10894,7 +12386,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
@@ -10902,7 +12394,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
@@ -10910,24 +12402,24 @@
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>402</v>
-      </c>
-      <c r="E25" s="54"/>
+      <c r="D25" s="51" t="s">
+        <v>397</v>
+      </c>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="53" t="s">
-        <v>403</v>
+      <c r="D26" s="50" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
@@ -10935,26 +12427,26 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="51" t="s">
-        <v>406</v>
-      </c>
-      <c r="I28" s="51" t="s">
-        <v>407</v>
+      <c r="D28" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M55" s="51"/>
+      <c r="M55" s="49"/>
     </row>
     <row r="57" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="O57" s="51" t="s">
-        <v>442</v>
+      <c r="O57" s="49" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/docs/ITSM-DEVOPS接口对接-接口规范&参数说明.xlsx
+++ b/src/test/resources/docs/ITSM-DEVOPS接口对接-接口规范&参数说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\slicee\ws\gitws\kvps\src\test\resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2EBB83-4CE4-46C6-A0C6-094603429ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733065B0-B8F2-459D-AD8C-85F651FA89E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="454">
   <si>
     <t>No.</t>
   </si>
@@ -1418,9 +1418,6 @@
     <t>⽤户列表</t>
   </si>
   <si>
-    <t>serviceProvider</t>
-  </si>
-  <si>
     <t>服务提供商</t>
   </si>
   <si>
@@ -1467,30 +1464,6 @@
   </si>
   <si>
     <t>最好_给出中文全拼</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ole</t>
-    </r>
   </si>
   <si>
     <t>用户角色</t>
@@ -1695,10 +1668,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>用户角色,用户角色（0厂商项目经理｜1厂商研发人员｜2厂商测试人员｜3项目测试经理｜4运维工程师）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>hostSystemProjectOid</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1874,12 +1843,31 @@
     <t>-</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色（outsourceManager=厂商项目经理｜outsourceDeveloper=厂商研发人员｜outsourceTester=厂商测试人员｜testManager=项目测试经理）</t>
+  </si>
+  <si>
+    <t>serviceProvider</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>userListVO</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请考虑 是否把  serviceProvider 移动 userListVo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2007,6 +1995,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="63"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2102,7 +2096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2371,11 +2365,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="61">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2401,13 +2401,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2449,7 +2442,35 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2491,7 +2512,35 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2533,7 +2582,35 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2575,7 +2652,35 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF357C0E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2617,13 +2722,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -2653,181 +2751,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF357C0E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF357C0E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF357C0E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF357C0E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5155,14 +5078,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -5176,7 +5099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5">
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -5190,7 +5113,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" s="10">
         <v>2</v>
       </c>
@@ -5204,7 +5127,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" s="10">
         <v>3</v>
       </c>
@@ -5218,7 +5141,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5">
       <c r="B6" s="10">
         <v>4</v>
       </c>
@@ -5232,7 +5155,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5">
       <c r="B7" s="10">
         <v>5</v>
       </c>
@@ -5246,7 +5169,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5">
       <c r="B8" s="10">
         <v>6</v>
       </c>
@@ -5260,7 +5183,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" s="10">
         <v>7</v>
       </c>
@@ -5274,7 +5197,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10" s="10">
         <v>8</v>
       </c>
@@ -5288,7 +5211,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="B11" s="10">
         <v>9</v>
       </c>
@@ -5302,7 +5225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5">
       <c r="B12" s="10">
         <v>10</v>
       </c>
@@ -5316,7 +5239,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5">
       <c r="B13" s="10">
         <v>11</v>
       </c>
@@ -5330,28 +5253,28 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2">
       <c r="B59" s="48"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2">
       <c r="B60" s="48"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2">
       <c r="B61" s="48"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2">
       <c r="B62" s="48"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2">
       <c r="B63" s="48"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2">
       <c r="B64" s="48"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="48"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="48"/>
     </row>
   </sheetData>
@@ -5368,11 +5291,11 @@
   </sheetPr>
   <dimension ref="A1:Q459"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C464" sqref="C464"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="D436" sqref="D436"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="3" max="3" width="42.21875" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" customWidth="1"/>
@@ -5383,7 +5306,7 @@
     <col min="10" max="10" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5400,13 +5323,13 @@
         <v>30</v>
       </c>
       <c r="I1" s="84" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" collapsed="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5429,13 +5352,13 @@
         <v>33</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J2" s="82" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
@@ -5445,7 +5368,7 @@
       <c r="D3" s="2"/>
       <c r="I3" s="85"/>
     </row>
-    <row r="4" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B4" s="10" t="s">
         <v>35</v>
       </c>
@@ -5455,7 +5378,7 @@
       <c r="D4" s="2"/>
       <c r="I4" s="85"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
@@ -5465,7 +5388,7 @@
       <c r="D5" s="2"/>
       <c r="I5" s="85"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
@@ -5474,7 +5397,7 @@
       </c>
       <c r="I6" s="85"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B7" s="10" t="s">
         <v>41</v>
       </c>
@@ -5483,7 +5406,7 @@
       </c>
       <c r="I7" s="85"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B8" s="10" t="s">
         <v>43</v>
       </c>
@@ -5492,7 +5415,7 @@
       </c>
       <c r="I8" s="85"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B9" s="10" t="s">
         <v>45</v>
       </c>
@@ -5501,13 +5424,13 @@
       </c>
       <c r="I9" s="85"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="85"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C11" s="10" t="s">
         <v>48</v>
       </c>
@@ -5528,7 +5451,7 @@
       </c>
       <c r="I11" s="85"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C12" s="10" t="s">
         <v>54</v>
       </c>
@@ -5547,7 +5470,7 @@
       <c r="H12" s="62"/>
       <c r="I12" s="85"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C13" s="10" t="s">
         <v>59</v>
       </c>
@@ -5566,7 +5489,7 @@
       <c r="H13" s="62"/>
       <c r="I13" s="85"/>
     </row>
-    <row r="14" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C14" s="10" t="s">
         <v>62</v>
       </c>
@@ -5585,7 +5508,7 @@
       <c r="H14" s="62"/>
       <c r="I14" s="85"/>
     </row>
-    <row r="15" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C15" s="10" t="s">
         <v>64</v>
       </c>
@@ -5604,7 +5527,7 @@
       <c r="H15" s="62"/>
       <c r="I15" s="85"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C16" s="10" t="s">
         <v>66</v>
       </c>
@@ -5623,16 +5546,16 @@
       <c r="H16" s="62"/>
       <c r="I16" s="85"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I17" s="85"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I18" s="85"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C19" s="10" t="s">
         <v>69</v>
       </c>
@@ -5644,7 +5567,7 @@
       </c>
       <c r="I19" s="85"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C20" s="12">
         <v>200</v>
       </c>
@@ -5656,7 +5579,7 @@
       </c>
       <c r="I20" s="85"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C21" s="12">
         <v>401</v>
       </c>
@@ -5666,7 +5589,7 @@
       <c r="E21" s="12"/>
       <c r="I21" s="85"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C22" s="12">
         <v>403</v>
       </c>
@@ -5676,7 +5599,7 @@
       <c r="E22" s="12"/>
       <c r="I22" s="85"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C23" s="12">
         <v>404</v>
       </c>
@@ -5686,13 +5609,13 @@
       <c r="E23" s="12"/>
       <c r="I23" s="85"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B24" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I24" s="85"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C25" s="10" t="s">
         <v>48</v>
       </c>
@@ -5707,7 +5630,7 @@
       </c>
       <c r="I25" s="85"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C26" s="10" t="s">
         <v>78</v>
       </c>
@@ -5720,19 +5643,19 @@
       <c r="F26" s="14"/>
       <c r="I26" s="85"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I27" s="85"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I28" s="85"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I29" s="85"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I30" s="85"/>
     </row>
-    <row r="31" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" collapsed="1">
       <c r="A31">
         <v>2</v>
       </c>
@@ -5755,25 +5678,25 @@
         <v>80</v>
       </c>
       <c r="I31" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="J31" s="82" t="s">
         <v>437</v>
       </c>
-      <c r="J31" s="82" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B32" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>82</v>
       </c>
       <c r="I32" s="85"/>
     </row>
-    <row r="33" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B33" s="10" t="s">
         <v>37</v>
       </c>
@@ -5782,7 +5705,7 @@
       </c>
       <c r="I33" s="85"/>
     </row>
-    <row r="34" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B34" s="10" t="s">
         <v>35</v>
       </c>
@@ -5791,7 +5714,7 @@
       </c>
       <c r="I34" s="85"/>
     </row>
-    <row r="35" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B35" s="10" t="s">
         <v>39</v>
       </c>
@@ -5800,7 +5723,7 @@
       </c>
       <c r="I35" s="85"/>
     </row>
-    <row r="36" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B36" s="10" t="s">
         <v>41</v>
       </c>
@@ -5809,7 +5732,7 @@
       </c>
       <c r="I36" s="85"/>
     </row>
-    <row r="37" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B37" s="10" t="s">
         <v>43</v>
       </c>
@@ -5818,7 +5741,7 @@
       </c>
       <c r="I37" s="85"/>
     </row>
-    <row r="38" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
@@ -5827,13 +5750,13 @@
       </c>
       <c r="I38" s="85"/>
     </row>
-    <row r="39" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I39" s="85"/>
     </row>
-    <row r="40" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C40" s="10" t="s">
         <v>48</v>
       </c>
@@ -5857,7 +5780,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C41" s="10" t="s">
         <v>87</v>
       </c>
@@ -5877,9 +5800,9 @@
       <c r="I41" s="85"/>
       <c r="J41" s="72"/>
     </row>
-    <row r="42" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C42" s="82" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>80</v>
@@ -5901,7 +5824,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -5910,7 +5833,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="85"/>
     </row>
-    <row r="44" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B44" s="2" t="s">
         <v>94</v>
       </c>
@@ -5925,7 +5848,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C45" s="10" t="s">
         <v>48</v>
       </c>
@@ -5946,7 +5869,7 @@
       </c>
       <c r="I45" s="85"/>
     </row>
-    <row r="46" spans="2:10" s="3" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C46" s="15" t="s">
         <v>96</v>
       </c>
@@ -5965,7 +5888,7 @@
       <c r="H46" s="63"/>
       <c r="I46" s="86"/>
     </row>
-    <row r="47" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C47" s="17" t="s">
         <v>98</v>
       </c>
@@ -5984,7 +5907,7 @@
       <c r="H47" s="62"/>
       <c r="I47" s="85"/>
     </row>
-    <row r="48" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C48" s="17" t="s">
         <v>100</v>
       </c>
@@ -6003,9 +5926,9 @@
       <c r="H48" s="62"/>
       <c r="I48" s="85"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C49" s="28" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>102</v>
@@ -6022,7 +5945,7 @@
       <c r="H49" s="62"/>
       <c r="I49" s="85"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C50" s="17" t="s">
         <v>103</v>
       </c>
@@ -6041,7 +5964,7 @@
       <c r="H50" s="62"/>
       <c r="I50" s="85"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="19"/>
@@ -6050,13 +5973,13 @@
       <c r="H51" s="21"/>
       <c r="I51" s="85"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B52" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I52" s="85"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C53" s="10" t="s">
         <v>69</v>
       </c>
@@ -6068,7 +5991,7 @@
       </c>
       <c r="I53" s="85"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C54" s="12">
         <v>200</v>
       </c>
@@ -6080,7 +6003,7 @@
       </c>
       <c r="I54" s="85"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C55" s="12">
         <v>401</v>
       </c>
@@ -6090,7 +6013,7 @@
       <c r="E55" s="12"/>
       <c r="I55" s="85"/>
     </row>
-    <row r="56" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C56" s="12">
         <v>403</v>
       </c>
@@ -6100,7 +6023,7 @@
       <c r="E56" s="12"/>
       <c r="I56" s="85"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C57" s="12">
         <v>404</v>
       </c>
@@ -6110,13 +6033,13 @@
       <c r="E57" s="12"/>
       <c r="I57" s="85"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B58" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I58" s="85"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C59" s="10" t="s">
         <v>48</v>
       </c>
@@ -6131,7 +6054,7 @@
       </c>
       <c r="I59" s="85"/>
     </row>
-    <row r="60" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C60" s="10" t="s">
         <v>78</v>
       </c>
@@ -6144,7 +6067,7 @@
       <c r="F60" s="14"/>
       <c r="I60" s="85"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B61" s="21"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -6154,7 +6077,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="85"/>
     </row>
-    <row r="62" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" collapsed="1">
       <c r="A62">
         <v>3</v>
       </c>
@@ -6178,13 +6101,13 @@
         <v>107</v>
       </c>
       <c r="I62" s="81" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J62" s="82" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B63" s="26" t="s">
         <v>81</v>
       </c>
@@ -6194,7 +6117,7 @@
       <c r="D63" s="21"/>
       <c r="I63" s="85"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B64" s="26" t="s">
         <v>35</v>
       </c>
@@ -6204,7 +6127,7 @@
       <c r="D64" s="21"/>
       <c r="I64" s="85"/>
     </row>
-    <row r="65" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B65" s="27" t="s">
         <v>37</v>
       </c>
@@ -6214,7 +6137,7 @@
       <c r="D65" s="21"/>
       <c r="I65" s="85"/>
     </row>
-    <row r="66" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B66" s="26" t="s">
         <v>39</v>
       </c>
@@ -6224,7 +6147,7 @@
       <c r="D66" s="21"/>
       <c r="I66" s="85"/>
     </row>
-    <row r="67" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B67" s="26" t="s">
         <v>41</v>
       </c>
@@ -6234,7 +6157,7 @@
       <c r="D67" s="21"/>
       <c r="I67" s="85"/>
     </row>
-    <row r="68" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B68" s="26" t="s">
         <v>43</v>
       </c>
@@ -6244,7 +6167,7 @@
       <c r="D68" s="21"/>
       <c r="I68" s="85"/>
     </row>
-    <row r="69" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B69" s="26" t="s">
         <v>45</v>
       </c>
@@ -6254,13 +6177,13 @@
       <c r="D69" s="21"/>
       <c r="I69" s="85"/>
     </row>
-    <row r="70" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B70" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I70" s="85"/>
     </row>
-    <row r="71" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C71" s="10" t="s">
         <v>48</v>
       </c>
@@ -6281,7 +6204,7 @@
       </c>
       <c r="I71" s="85"/>
     </row>
-    <row r="72" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C72" s="10" t="s">
         <v>54</v>
       </c>
@@ -6300,7 +6223,7 @@
       <c r="H72" s="62"/>
       <c r="I72" s="85"/>
     </row>
-    <row r="73" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C73" s="17" t="s">
         <v>110</v>
       </c>
@@ -6319,7 +6242,7 @@
       <c r="H73" s="62"/>
       <c r="I73" s="85"/>
     </row>
-    <row r="74" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C74" s="17" t="s">
         <v>114</v>
       </c>
@@ -6336,7 +6259,7 @@
       <c r="H74" s="62"/>
       <c r="I74" s="85"/>
     </row>
-    <row r="75" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C75" s="17" t="s">
         <v>115</v>
       </c>
@@ -6353,16 +6276,16 @@
       <c r="H75" s="62"/>
       <c r="I75" s="85"/>
     </row>
-    <row r="76" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" hidden="1" outlineLevel="1">
       <c r="I76" s="85"/>
     </row>
-    <row r="77" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B77" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I77" s="85"/>
     </row>
-    <row r="78" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C78" s="10" t="s">
         <v>48</v>
       </c>
@@ -6383,7 +6306,7 @@
       </c>
       <c r="I78" s="85"/>
     </row>
-    <row r="79" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C79" s="17" t="s">
         <v>118</v>
       </c>
@@ -6404,7 +6327,7 @@
       </c>
       <c r="I79" s="85"/>
     </row>
-    <row r="80" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C80" s="17" t="s">
         <v>122</v>
       </c>
@@ -6425,7 +6348,7 @@
       </c>
       <c r="I80" s="85"/>
     </row>
-    <row r="81" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C81" s="17" t="s">
         <v>126</v>
       </c>
@@ -6446,7 +6369,7 @@
       </c>
       <c r="I81" s="85"/>
     </row>
-    <row r="82" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C82" s="17" t="s">
         <v>129</v>
       </c>
@@ -6467,7 +6390,7 @@
       </c>
       <c r="I82" s="85"/>
     </row>
-    <row r="83" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C83" s="17" t="s">
         <v>131</v>
       </c>
@@ -6488,7 +6411,7 @@
       </c>
       <c r="I83" s="85"/>
     </row>
-    <row r="84" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C84" s="17" t="s">
         <v>134</v>
       </c>
@@ -6509,7 +6432,7 @@
       </c>
       <c r="I84" s="85"/>
     </row>
-    <row r="85" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C85" s="17" t="s">
         <v>136</v>
       </c>
@@ -6530,7 +6453,7 @@
       </c>
       <c r="I85" s="85"/>
     </row>
-    <row r="86" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C86" s="17" t="s">
         <v>138</v>
       </c>
@@ -6551,7 +6474,7 @@
       </c>
       <c r="I86" s="85"/>
     </row>
-    <row r="87" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C87" s="17" t="s">
         <v>110</v>
       </c>
@@ -6572,7 +6495,7 @@
       </c>
       <c r="I87" s="85"/>
     </row>
-    <row r="88" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C88" s="17" t="s">
         <v>142</v>
       </c>
@@ -6593,7 +6516,7 @@
       </c>
       <c r="I88" s="85"/>
     </row>
-    <row r="89" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C89" s="17" t="s">
         <v>144</v>
       </c>
@@ -6614,7 +6537,7 @@
       </c>
       <c r="I89" s="85"/>
     </row>
-    <row r="90" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C90" s="17" t="s">
         <v>146</v>
       </c>
@@ -6635,7 +6558,7 @@
       </c>
       <c r="I90" s="85"/>
     </row>
-    <row r="91" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C91" s="17" t="s">
         <v>148</v>
       </c>
@@ -6656,7 +6579,7 @@
       </c>
       <c r="I91" s="85"/>
     </row>
-    <row r="92" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C92" s="17" t="s">
         <v>114</v>
       </c>
@@ -6677,7 +6600,7 @@
       </c>
       <c r="I92" s="85"/>
     </row>
-    <row r="93" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C93" s="17" t="s">
         <v>151</v>
       </c>
@@ -6698,7 +6621,7 @@
       </c>
       <c r="I93" s="85"/>
     </row>
-    <row r="94" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C94" s="17" t="s">
         <v>153</v>
       </c>
@@ -6719,7 +6642,7 @@
       </c>
       <c r="I94" s="85"/>
     </row>
-    <row r="95" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C95" s="17" t="s">
         <v>155</v>
       </c>
@@ -6740,7 +6663,7 @@
       </c>
       <c r="I95" s="85"/>
     </row>
-    <row r="96" spans="3:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:9" hidden="1" outlineLevel="1">
       <c r="C96" s="17" t="s">
         <v>157</v>
       </c>
@@ -6761,7 +6684,7 @@
       </c>
       <c r="I96" s="85"/>
     </row>
-    <row r="97" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" outlineLevel="1">
       <c r="C97" s="17" t="s">
         <v>159</v>
       </c>
@@ -6782,10 +6705,10 @@
       </c>
       <c r="I97" s="85"/>
     </row>
-    <row r="98" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" outlineLevel="1">
       <c r="I98" s="85"/>
     </row>
-    <row r="99" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" collapsed="1">
       <c r="A99">
         <v>4</v>
       </c>
@@ -6808,13 +6731,13 @@
         <v>161</v>
       </c>
       <c r="I99" s="81" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J99" s="82" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" outlineLevel="1">
       <c r="B100" s="10" t="s">
         <v>34</v>
       </c>
@@ -6823,7 +6746,7 @@
       </c>
       <c r="I100" s="85"/>
     </row>
-    <row r="101" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" outlineLevel="1">
       <c r="B101" s="10" t="s">
         <v>35</v>
       </c>
@@ -6832,7 +6755,7 @@
       </c>
       <c r="I101" s="85"/>
     </row>
-    <row r="102" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" outlineLevel="1">
       <c r="B102" s="17" t="s">
         <v>37</v>
       </c>
@@ -6841,7 +6764,7 @@
       </c>
       <c r="I102" s="85"/>
     </row>
-    <row r="103" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" outlineLevel="1">
       <c r="B103" s="10" t="s">
         <v>39</v>
       </c>
@@ -6850,7 +6773,7 @@
       </c>
       <c r="I103" s="85"/>
     </row>
-    <row r="104" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" outlineLevel="1">
       <c r="B104" s="10" t="s">
         <v>41</v>
       </c>
@@ -6859,7 +6782,7 @@
       </c>
       <c r="I104" s="85"/>
     </row>
-    <row r="105" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" outlineLevel="1">
       <c r="B105" s="10" t="s">
         <v>43</v>
       </c>
@@ -6868,7 +6791,7 @@
       </c>
       <c r="I105" s="85"/>
     </row>
-    <row r="106" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" outlineLevel="1">
       <c r="B106" s="10" t="s">
         <v>45</v>
       </c>
@@ -6877,13 +6800,13 @@
       </c>
       <c r="I106" s="85"/>
     </row>
-    <row r="107" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" outlineLevel="1">
       <c r="B107" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I107" s="85"/>
     </row>
-    <row r="108" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" outlineLevel="1">
       <c r="C108" s="12" t="s">
         <v>48</v>
       </c>
@@ -6907,7 +6830,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" outlineLevel="1">
       <c r="C109" s="12" t="s">
         <v>165</v>
       </c>
@@ -6929,7 +6852,7 @@
       <c r="I109" s="85"/>
       <c r="J109" s="72"/>
     </row>
-    <row r="110" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" outlineLevel="1">
       <c r="C110" s="12" t="s">
         <v>168</v>
       </c>
@@ -6951,7 +6874,7 @@
       <c r="I110" s="85"/>
       <c r="J110" s="72"/>
     </row>
-    <row r="111" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" outlineLevel="1">
       <c r="C111" s="12" t="s">
         <v>170</v>
       </c>
@@ -6978,7 +6901,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" outlineLevel="1">
       <c r="C112" s="12" t="s">
         <v>174</v>
       </c>
@@ -7000,7 +6923,7 @@
       <c r="I112" s="85"/>
       <c r="J112" s="72"/>
     </row>
-    <row r="113" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C113" s="12" t="s">
         <v>176</v>
       </c>
@@ -7022,7 +6945,7 @@
       <c r="I113" s="85"/>
       <c r="J113" s="72"/>
     </row>
-    <row r="114" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C114" s="12" t="s">
         <v>178</v>
       </c>
@@ -7044,16 +6967,16 @@
       <c r="I114" s="85"/>
       <c r="J114" s="72"/>
     </row>
-    <row r="115" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" hidden="1" outlineLevel="1">
       <c r="I115" s="85"/>
     </row>
-    <row r="116" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B116" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I116" s="85"/>
     </row>
-    <row r="117" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C117" s="12" t="s">
         <v>69</v>
       </c>
@@ -7065,7 +6988,7 @@
       </c>
       <c r="I117" s="85"/>
     </row>
-    <row r="118" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C118" s="12">
         <v>200</v>
       </c>
@@ -7077,7 +7000,7 @@
       </c>
       <c r="I118" s="85"/>
     </row>
-    <row r="119" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C119" s="12">
         <v>401</v>
       </c>
@@ -7089,7 +7012,7 @@
       </c>
       <c r="I119" s="85"/>
     </row>
-    <row r="120" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C120" s="12">
         <v>403</v>
       </c>
@@ -7101,7 +7024,7 @@
       </c>
       <c r="I120" s="85"/>
     </row>
-    <row r="121" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C121" s="12">
         <v>404</v>
       </c>
@@ -7113,16 +7036,16 @@
       </c>
       <c r="I121" s="85"/>
     </row>
-    <row r="122" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" hidden="1" outlineLevel="1">
       <c r="I122" s="85"/>
     </row>
-    <row r="123" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B123" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I123" s="85"/>
     </row>
-    <row r="124" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C124" s="12" t="s">
         <v>48</v>
       </c>
@@ -7137,7 +7060,7 @@
       </c>
       <c r="I124" s="85"/>
     </row>
-    <row r="125" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C125" s="12" t="s">
         <v>29</v>
       </c>
@@ -7152,7 +7075,7 @@
       </c>
       <c r="I125" s="85"/>
     </row>
-    <row r="126" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C126" s="12" t="s">
         <v>180</v>
       </c>
@@ -7167,7 +7090,7 @@
       </c>
       <c r="I126" s="85"/>
     </row>
-    <row r="127" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C127" s="12" t="s">
         <v>182</v>
       </c>
@@ -7182,10 +7105,10 @@
       </c>
       <c r="I127" s="85"/>
     </row>
-    <row r="128" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" hidden="1" outlineLevel="1">
       <c r="I128" s="85"/>
     </row>
-    <row r="129" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" collapsed="1">
       <c r="A129">
         <v>5</v>
       </c>
@@ -7208,13 +7131,13 @@
         <v>161</v>
       </c>
       <c r="I129" s="81" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J129" s="82" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B130" s="10" t="s">
         <v>34</v>
       </c>
@@ -7223,7 +7146,7 @@
       </c>
       <c r="I130" s="85"/>
     </row>
-    <row r="131" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B131" s="10" t="s">
         <v>35</v>
       </c>
@@ -7232,7 +7155,7 @@
       </c>
       <c r="I131" s="85"/>
     </row>
-    <row r="132" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B132" s="17" t="s">
         <v>37</v>
       </c>
@@ -7241,7 +7164,7 @@
       </c>
       <c r="I132" s="85"/>
     </row>
-    <row r="133" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B133" s="10" t="s">
         <v>39</v>
       </c>
@@ -7250,7 +7173,7 @@
       </c>
       <c r="I133" s="85"/>
     </row>
-    <row r="134" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B134" s="10" t="s">
         <v>41</v>
       </c>
@@ -7259,7 +7182,7 @@
       </c>
       <c r="I134" s="85"/>
     </row>
-    <row r="135" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B135" s="10" t="s">
         <v>43</v>
       </c>
@@ -7268,7 +7191,7 @@
       </c>
       <c r="I135" s="85"/>
     </row>
-    <row r="136" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B136" s="10" t="s">
         <v>45</v>
       </c>
@@ -7277,13 +7200,13 @@
       </c>
       <c r="I136" s="85"/>
     </row>
-    <row r="137" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B137" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I137" s="85"/>
     </row>
-    <row r="138" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C138" s="12" t="s">
         <v>48</v>
       </c>
@@ -7304,7 +7227,7 @@
       </c>
       <c r="I138" s="85"/>
     </row>
-    <row r="139" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C139" s="12" t="s">
         <v>165</v>
       </c>
@@ -7325,16 +7248,16 @@
       </c>
       <c r="I139" s="85"/>
     </row>
-    <row r="140" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I140" s="85"/>
     </row>
-    <row r="141" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B141" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I141" s="85"/>
     </row>
-    <row r="142" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C142" s="12" t="s">
         <v>48</v>
       </c>
@@ -7349,7 +7272,7 @@
       </c>
       <c r="I142" s="85"/>
     </row>
-    <row r="143" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C143" s="12" t="s">
         <v>29</v>
       </c>
@@ -7364,7 +7287,7 @@
       </c>
       <c r="I143" s="85"/>
     </row>
-    <row r="144" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C144" s="12" t="s">
         <v>180</v>
       </c>
@@ -7379,7 +7302,7 @@
       </c>
       <c r="I144" s="85"/>
     </row>
-    <row r="145" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C145" s="12" t="s">
         <v>182</v>
       </c>
@@ -7394,16 +7317,16 @@
       </c>
       <c r="I145" s="85"/>
     </row>
-    <row r="146" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I146" s="85"/>
     </row>
-    <row r="147" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B147" s="2" t="s">
         <v>191</v>
       </c>
       <c r="I147" s="85"/>
     </row>
-    <row r="148" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C148" s="12" t="s">
         <v>69</v>
       </c>
@@ -7415,7 +7338,7 @@
       </c>
       <c r="I148" s="85"/>
     </row>
-    <row r="149" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C149" s="12">
         <v>200</v>
       </c>
@@ -7427,7 +7350,7 @@
       </c>
       <c r="I149" s="85"/>
     </row>
-    <row r="150" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C150" s="12">
         <v>201</v>
       </c>
@@ -7439,7 +7362,7 @@
       </c>
       <c r="I150" s="85"/>
     </row>
-    <row r="151" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C151" s="12">
         <v>401</v>
       </c>
@@ -7451,7 +7374,7 @@
       </c>
       <c r="I151" s="85"/>
     </row>
-    <row r="152" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C152" s="12">
         <v>403</v>
       </c>
@@ -7463,7 +7386,7 @@
       </c>
       <c r="I152" s="85"/>
     </row>
-    <row r="153" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C153" s="12">
         <v>404</v>
       </c>
@@ -7475,10 +7398,10 @@
       </c>
       <c r="I153" s="85"/>
     </row>
-    <row r="154" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I154" s="85"/>
     </row>
-    <row r="155" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" collapsed="1">
       <c r="A155">
         <v>6</v>
       </c>
@@ -7501,13 +7424,13 @@
         <v>194</v>
       </c>
       <c r="I155" s="81" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J155" s="82" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B156" s="10" t="s">
         <v>34</v>
       </c>
@@ -7516,7 +7439,7 @@
       </c>
       <c r="I156" s="85"/>
     </row>
-    <row r="157" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B157" s="10" t="s">
         <v>35</v>
       </c>
@@ -7525,7 +7448,7 @@
       </c>
       <c r="I157" s="85"/>
     </row>
-    <row r="158" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B158" s="17" t="s">
         <v>37</v>
       </c>
@@ -7534,7 +7457,7 @@
       </c>
       <c r="I158" s="85"/>
     </row>
-    <row r="159" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B159" s="10" t="s">
         <v>39</v>
       </c>
@@ -7543,7 +7466,7 @@
       </c>
       <c r="I159" s="85"/>
     </row>
-    <row r="160" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B160" s="10" t="s">
         <v>41</v>
       </c>
@@ -7552,7 +7475,7 @@
       </c>
       <c r="I160" s="85"/>
     </row>
-    <row r="161" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B161" s="10" t="s">
         <v>43</v>
       </c>
@@ -7561,7 +7484,7 @@
       </c>
       <c r="I161" s="85"/>
     </row>
-    <row r="162" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B162" s="10" t="s">
         <v>45</v>
       </c>
@@ -7570,13 +7493,13 @@
       </c>
       <c r="I162" s="85"/>
     </row>
-    <row r="163" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B163" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I163" s="85"/>
     </row>
-    <row r="164" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C164" s="12" t="s">
         <v>48</v>
       </c>
@@ -7597,7 +7520,7 @@
       </c>
       <c r="I164" s="85"/>
     </row>
-    <row r="165" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C165" s="10" t="s">
         <v>198</v>
       </c>
@@ -7618,7 +7541,7 @@
       </c>
       <c r="I165" s="85"/>
     </row>
-    <row r="166" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C166" s="12" t="s">
         <v>165</v>
       </c>
@@ -7639,16 +7562,16 @@
       </c>
       <c r="I166" s="85"/>
     </row>
-    <row r="167" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:10" hidden="1" outlineLevel="1">
       <c r="I167" s="85"/>
     </row>
-    <row r="168" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B168" s="2" t="s">
         <v>200</v>
       </c>
       <c r="I168" s="85"/>
     </row>
-    <row r="169" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C169" s="12" t="s">
         <v>48</v>
       </c>
@@ -7669,10 +7592,10 @@
       </c>
       <c r="I169" s="85"/>
       <c r="J169" s="74" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="170" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C170" s="12" t="s">
         <v>201</v>
       </c>
@@ -7694,7 +7617,7 @@
       <c r="I170" s="85"/>
       <c r="J170" s="75"/>
     </row>
-    <row r="171" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C171" s="12" t="s">
         <v>129</v>
       </c>
@@ -7718,7 +7641,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="172" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C172" s="12" t="s">
         <v>131</v>
       </c>
@@ -7742,7 +7665,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="173" spans="2:10" s="50" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:10" s="50" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C173" s="53" t="s">
         <v>209</v>
       </c>
@@ -7766,7 +7689,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C174" s="12" t="s">
         <v>170</v>
       </c>
@@ -7788,7 +7711,7 @@
       <c r="I174" s="85"/>
       <c r="J174" s="75"/>
     </row>
-    <row r="175" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C175" s="12" t="s">
         <v>212</v>
       </c>
@@ -7809,10 +7732,10 @@
       </c>
       <c r="I175" s="85"/>
       <c r="J175" s="74" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="176" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C176" s="12" t="s">
         <v>214</v>
       </c>
@@ -7836,7 +7759,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="177" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C177" s="12" t="s">
         <v>218</v>
       </c>
@@ -7860,7 +7783,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="178" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C178" s="12" t="s">
         <v>151</v>
       </c>
@@ -7884,7 +7807,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="179" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C179" s="12" t="s">
         <v>159</v>
       </c>
@@ -7908,7 +7831,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="180" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C180" s="12" t="s">
         <v>223</v>
       </c>
@@ -7930,24 +7853,24 @@
       <c r="I180" s="85"/>
       <c r="J180" s="75"/>
     </row>
-    <row r="181" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:10" hidden="1" outlineLevel="1">
       <c r="F181" s="31"/>
       <c r="I181" s="85"/>
     </row>
-    <row r="182" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:10" hidden="1" outlineLevel="1">
       <c r="F182" s="31"/>
       <c r="I182" s="85"/>
     </row>
-    <row r="183" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B183" s="49" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I183" s="85"/>
       <c r="J183" s="71" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="184" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C184" s="12" t="s">
         <v>48</v>
       </c>
@@ -7968,7 +7891,7 @@
       </c>
       <c r="I184" s="85"/>
     </row>
-    <row r="185" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C185" s="12" t="s">
         <v>226</v>
       </c>
@@ -7989,7 +7912,7 @@
       </c>
       <c r="I185" s="85"/>
     </row>
-    <row r="186" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C186" s="12" t="s">
         <v>228</v>
       </c>
@@ -8010,7 +7933,7 @@
       </c>
       <c r="I186" s="85"/>
     </row>
-    <row r="187" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C187" s="12" t="s">
         <v>230</v>
       </c>
@@ -8031,7 +7954,7 @@
       </c>
       <c r="I187" s="85"/>
     </row>
-    <row r="188" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C188" s="12" t="s">
         <v>232</v>
       </c>
@@ -8052,7 +7975,7 @@
       </c>
       <c r="I188" s="85"/>
     </row>
-    <row r="189" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C189" s="12" t="s">
         <v>234</v>
       </c>
@@ -8073,16 +7996,16 @@
       </c>
       <c r="I189" s="85"/>
     </row>
-    <row r="190" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:10" hidden="1" outlineLevel="1">
       <c r="I190" s="85"/>
     </row>
-    <row r="191" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B191" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I191" s="85"/>
     </row>
-    <row r="192" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C192" s="12" t="s">
         <v>69</v>
       </c>
@@ -8094,7 +8017,7 @@
       </c>
       <c r="I192" s="85"/>
     </row>
-    <row r="193" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C193" s="12">
         <v>200</v>
       </c>
@@ -8106,7 +8029,7 @@
       </c>
       <c r="I193" s="85"/>
     </row>
-    <row r="194" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C194" s="12">
         <v>401</v>
       </c>
@@ -8118,7 +8041,7 @@
       </c>
       <c r="I194" s="85"/>
     </row>
-    <row r="195" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C195" s="12">
         <v>403</v>
       </c>
@@ -8130,7 +8053,7 @@
       </c>
       <c r="I195" s="85"/>
     </row>
-    <row r="196" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C196" s="12">
         <v>404</v>
       </c>
@@ -8142,13 +8065,13 @@
       </c>
       <c r="I196" s="85"/>
     </row>
-    <row r="197" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B197" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I197" s="85"/>
     </row>
-    <row r="198" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C198" s="12" t="s">
         <v>48</v>
       </c>
@@ -8163,7 +8086,7 @@
       </c>
       <c r="I198" s="85"/>
     </row>
-    <row r="199" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C199" s="12" t="s">
         <v>29</v>
       </c>
@@ -8178,7 +8101,7 @@
       </c>
       <c r="I199" s="85"/>
     </row>
-    <row r="200" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C200" s="12" t="s">
         <v>180</v>
       </c>
@@ -8193,7 +8116,7 @@
       </c>
       <c r="I200" s="85"/>
     </row>
-    <row r="201" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C201" s="12" t="s">
         <v>182</v>
       </c>
@@ -8208,10 +8131,10 @@
       </c>
       <c r="I201" s="85"/>
     </row>
-    <row r="202" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I202" s="85"/>
     </row>
-    <row r="203" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" collapsed="1">
       <c r="A203">
         <v>7</v>
       </c>
@@ -8234,22 +8157,22 @@
         <v>194</v>
       </c>
       <c r="I203" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="J203" s="82" t="s">
         <v>437</v>
       </c>
-      <c r="J203" s="82" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B204" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C204" s="52" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I204" s="85"/>
     </row>
-    <row r="205" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B205" s="10" t="s">
         <v>35</v>
       </c>
@@ -8258,7 +8181,7 @@
       </c>
       <c r="I205" s="85"/>
     </row>
-    <row r="206" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B206" s="17" t="s">
         <v>37</v>
       </c>
@@ -8267,7 +8190,7 @@
       </c>
       <c r="I206" s="85"/>
     </row>
-    <row r="207" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B207" s="10" t="s">
         <v>39</v>
       </c>
@@ -8276,7 +8199,7 @@
       </c>
       <c r="I207" s="85"/>
     </row>
-    <row r="208" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B208" s="10" t="s">
         <v>41</v>
       </c>
@@ -8285,7 +8208,7 @@
       </c>
       <c r="I208" s="85"/>
     </row>
-    <row r="209" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B209" s="10" t="s">
         <v>43</v>
       </c>
@@ -8294,7 +8217,7 @@
       </c>
       <c r="I209" s="85"/>
     </row>
-    <row r="210" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B210" s="10" t="s">
         <v>45</v>
       </c>
@@ -8303,13 +8226,13 @@
       </c>
       <c r="I210" s="85"/>
     </row>
-    <row r="211" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B211" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I211" s="85"/>
     </row>
-    <row r="212" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C212" s="12" t="s">
         <v>48</v>
       </c>
@@ -8330,7 +8253,7 @@
       </c>
       <c r="I212" s="85"/>
     </row>
-    <row r="213" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C213" s="12" t="s">
         <v>165</v>
       </c>
@@ -8351,7 +8274,7 @@
       </c>
       <c r="I213" s="85"/>
     </row>
-    <row r="214" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C214" s="12" t="s">
         <v>239</v>
       </c>
@@ -8372,7 +8295,7 @@
       </c>
       <c r="I214" s="85"/>
     </row>
-    <row r="215" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C215" s="12" t="s">
         <v>223</v>
       </c>
@@ -8396,7 +8319,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="216" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C216" s="12" t="s">
         <v>201</v>
       </c>
@@ -8417,16 +8340,16 @@
       </c>
       <c r="I216" s="85"/>
     </row>
-    <row r="217" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:10" hidden="1" outlineLevel="1">
       <c r="I217" s="85"/>
     </row>
-    <row r="218" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B218" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I218" s="85"/>
     </row>
-    <row r="219" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C219" s="12" t="s">
         <v>48</v>
       </c>
@@ -8450,9 +8373,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="220" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C220" s="52" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D220" s="12" t="s">
         <v>227</v>
@@ -8474,9 +8397,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="221" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C221" s="52" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D221" s="12" t="s">
         <v>229</v>
@@ -8495,12 +8418,12 @@
       </c>
       <c r="I221" s="85"/>
       <c r="J221" s="78" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="222" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C222" s="52" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D222" s="12" t="s">
         <v>231</v>
@@ -8522,9 +8445,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="223" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C223" s="52" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D223" s="12" t="s">
         <v>233</v>
@@ -8546,9 +8469,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="224" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C224" s="52" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D224" s="12" t="s">
         <v>235</v>
@@ -8570,16 +8493,16 @@
         <v>247</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I225" s="85"/>
     </row>
-    <row r="226" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B226" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I226" s="85"/>
     </row>
-    <row r="227" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C227" s="12" t="s">
         <v>69</v>
       </c>
@@ -8591,7 +8514,7 @@
       </c>
       <c r="I227" s="85"/>
     </row>
-    <row r="228" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C228" s="12">
         <v>200</v>
       </c>
@@ -8603,7 +8526,7 @@
       </c>
       <c r="I228" s="85"/>
     </row>
-    <row r="229" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C229" s="12">
         <v>401</v>
       </c>
@@ -8615,7 +8538,7 @@
       </c>
       <c r="I229" s="85"/>
     </row>
-    <row r="230" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C230" s="12">
         <v>403</v>
       </c>
@@ -8627,7 +8550,7 @@
       </c>
       <c r="I230" s="85"/>
     </row>
-    <row r="231" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C231" s="12">
         <v>404</v>
       </c>
@@ -8639,16 +8562,16 @@
       </c>
       <c r="I231" s="85"/>
     </row>
-    <row r="232" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I232" s="85"/>
     </row>
-    <row r="233" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B233" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I233" s="85"/>
     </row>
-    <row r="234" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C234" s="12" t="s">
         <v>48</v>
       </c>
@@ -8663,7 +8586,7 @@
       </c>
       <c r="I234" s="85"/>
     </row>
-    <row r="235" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C235" s="12" t="s">
         <v>29</v>
       </c>
@@ -8678,7 +8601,7 @@
       </c>
       <c r="I235" s="85"/>
     </row>
-    <row r="236" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C236" s="12" t="s">
         <v>180</v>
       </c>
@@ -8693,7 +8616,7 @@
       </c>
       <c r="I236" s="85"/>
     </row>
-    <row r="237" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C237" s="32" t="s">
         <v>182</v>
       </c>
@@ -8708,7 +8631,7 @@
       </c>
       <c r="I237" s="85"/>
     </row>
-    <row r="238" spans="1:10" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" s="4" customFormat="1" collapsed="1">
       <c r="A238" s="4">
         <v>8</v>
       </c>
@@ -8731,22 +8654,22 @@
         <v>248</v>
       </c>
       <c r="I238" s="81" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J238" s="82" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B239" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C239" s="52" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I239" s="85"/>
     </row>
-    <row r="240" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B240" s="10" t="s">
         <v>35</v>
       </c>
@@ -8755,7 +8678,7 @@
       </c>
       <c r="I240" s="85"/>
     </row>
-    <row r="241" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:11" hidden="1" outlineLevel="1">
       <c r="B241" s="17" t="s">
         <v>37</v>
       </c>
@@ -8764,7 +8687,7 @@
       </c>
       <c r="I241" s="85"/>
     </row>
-    <row r="242" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:11" hidden="1" outlineLevel="1">
       <c r="B242" s="10" t="s">
         <v>39</v>
       </c>
@@ -8773,7 +8696,7 @@
       </c>
       <c r="I242" s="85"/>
     </row>
-    <row r="243" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:11" hidden="1" outlineLevel="1">
       <c r="B243" s="10" t="s">
         <v>41</v>
       </c>
@@ -8782,7 +8705,7 @@
       </c>
       <c r="I243" s="85"/>
     </row>
-    <row r="244" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:11" hidden="1" outlineLevel="1">
       <c r="B244" s="10" t="s">
         <v>43</v>
       </c>
@@ -8791,7 +8714,7 @@
       </c>
       <c r="I244" s="85"/>
     </row>
-    <row r="245" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:11" hidden="1" outlineLevel="1">
       <c r="B245" s="10" t="s">
         <v>45</v>
       </c>
@@ -8800,13 +8723,13 @@
       </c>
       <c r="I245" s="85"/>
     </row>
-    <row r="246" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:11" hidden="1" outlineLevel="1">
       <c r="B246" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I246" s="85"/>
     </row>
-    <row r="247" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C247" s="12" t="s">
         <v>48</v>
       </c>
@@ -8830,7 +8753,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="248" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C248" s="12" t="s">
         <v>165</v>
       </c>
@@ -8852,7 +8775,7 @@
       <c r="I248" s="85"/>
       <c r="J248" s="72"/>
     </row>
-    <row r="249" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C249" s="12" t="s">
         <v>253</v>
       </c>
@@ -8874,17 +8797,17 @@
       <c r="I249" s="85"/>
       <c r="J249" s="72"/>
     </row>
-    <row r="250" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C250" s="18"/>
       <c r="I250" s="85"/>
     </row>
-    <row r="251" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:11" hidden="1" outlineLevel="1">
       <c r="B251" s="2" t="s">
         <v>254</v>
       </c>
       <c r="I251" s="85"/>
     </row>
-    <row r="252" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C252" s="12" t="s">
         <v>48</v>
       </c>
@@ -8908,7 +8831,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C253" s="12" t="s">
         <v>201</v>
       </c>
@@ -8930,7 +8853,7 @@
       <c r="I253" s="85"/>
       <c r="J253" s="72"/>
     </row>
-    <row r="254" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C254" s="12" t="s">
         <v>257</v>
       </c>
@@ -8954,7 +8877,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C255" s="12" t="s">
         <v>131</v>
       </c>
@@ -8978,7 +8901,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="256" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C256" s="12" t="s">
         <v>262</v>
       </c>
@@ -9003,7 +8926,7 @@
       </c>
       <c r="K256" s="18"/>
     </row>
-    <row r="257" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C257" s="12" t="s">
         <v>209</v>
       </c>
@@ -9027,9 +8950,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="258" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C258" s="52" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D258" s="12" t="s">
         <v>267</v>
@@ -9051,7 +8974,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="259" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C259" s="12" t="s">
         <v>269</v>
       </c>
@@ -9073,7 +8996,7 @@
       <c r="I259" s="85"/>
       <c r="J259" s="72"/>
     </row>
-    <row r="260" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C260" s="12" t="s">
         <v>170</v>
       </c>
@@ -9097,7 +9020,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="261" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C261" s="12" t="s">
         <v>151</v>
       </c>
@@ -9121,7 +9044,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="262" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C262" s="12" t="s">
         <v>159</v>
       </c>
@@ -9145,11 +9068,11 @@
         <v>277</v>
       </c>
     </row>
-    <row r="263" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:10" hidden="1" outlineLevel="1">
       <c r="F263"/>
       <c r="I263" s="85"/>
     </row>
-    <row r="264" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C264" s="19"/>
       <c r="D264" s="21"/>
       <c r="E264" s="19"/>
@@ -9158,7 +9081,7 @@
       <c r="H264" s="21"/>
       <c r="I264" s="85"/>
     </row>
-    <row r="265" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C265" s="19"/>
       <c r="D265" s="21"/>
       <c r="E265" s="19"/>
@@ -9167,13 +9090,13 @@
       <c r="H265" s="21"/>
       <c r="I265" s="85"/>
     </row>
-    <row r="266" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B266" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I266" s="85"/>
     </row>
-    <row r="267" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C267" s="12" t="s">
         <v>48</v>
       </c>
@@ -9194,7 +9117,7 @@
       </c>
       <c r="I267" s="85"/>
     </row>
-    <row r="268" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C268" s="12" t="s">
         <v>226</v>
       </c>
@@ -9215,7 +9138,7 @@
       </c>
       <c r="I268" s="85"/>
     </row>
-    <row r="269" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C269" s="12" t="s">
         <v>228</v>
       </c>
@@ -9236,7 +9159,7 @@
       </c>
       <c r="I269" s="85"/>
     </row>
-    <row r="270" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C270" s="12" t="s">
         <v>230</v>
       </c>
@@ -9257,7 +9180,7 @@
       </c>
       <c r="I270" s="85"/>
     </row>
-    <row r="271" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C271" s="12" t="s">
         <v>232</v>
       </c>
@@ -9278,7 +9201,7 @@
       </c>
       <c r="I271" s="85"/>
     </row>
-    <row r="272" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C272" s="12" t="s">
         <v>234</v>
       </c>
@@ -9299,16 +9222,16 @@
       </c>
       <c r="I272" s="85"/>
     </row>
-    <row r="273" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I273" s="85"/>
     </row>
-    <row r="274" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B274" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I274" s="85"/>
     </row>
-    <row r="275" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C275" s="12" t="s">
         <v>48</v>
       </c>
@@ -9323,7 +9246,7 @@
       </c>
       <c r="I275" s="85"/>
     </row>
-    <row r="276" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C276" s="12" t="s">
         <v>29</v>
       </c>
@@ -9338,7 +9261,7 @@
       </c>
       <c r="I276" s="85"/>
     </row>
-    <row r="277" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C277" s="12" t="s">
         <v>180</v>
       </c>
@@ -9353,7 +9276,7 @@
       </c>
       <c r="I277" s="85"/>
     </row>
-    <row r="278" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C278" s="12" t="s">
         <v>182</v>
       </c>
@@ -9368,16 +9291,16 @@
       </c>
       <c r="I278" s="85"/>
     </row>
-    <row r="279" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I279" s="85"/>
     </row>
-    <row r="280" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B280" s="2" t="s">
         <v>191</v>
       </c>
       <c r="I280" s="85"/>
     </row>
-    <row r="281" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C281" s="12" t="s">
         <v>69</v>
       </c>
@@ -9389,7 +9312,7 @@
       </c>
       <c r="I281" s="85"/>
     </row>
-    <row r="282" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C282" s="12">
         <v>200</v>
       </c>
@@ -9401,7 +9324,7 @@
       </c>
       <c r="I282" s="85"/>
     </row>
-    <row r="283" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C283" s="12">
         <v>201</v>
       </c>
@@ -9413,7 +9336,7 @@
       </c>
       <c r="I283" s="85"/>
     </row>
-    <row r="284" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C284" s="12">
         <v>401</v>
       </c>
@@ -9425,7 +9348,7 @@
       </c>
       <c r="I284" s="85"/>
     </row>
-    <row r="285" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C285" s="12">
         <v>403</v>
       </c>
@@ -9437,7 +9360,7 @@
       </c>
       <c r="I285" s="85"/>
     </row>
-    <row r="286" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C286" s="12">
         <v>404</v>
       </c>
@@ -9449,10 +9372,10 @@
       </c>
       <c r="I286" s="85"/>
     </row>
-    <row r="287" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I287" s="85"/>
     </row>
-    <row r="288" spans="1:10" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" s="4" customFormat="1" collapsed="1">
       <c r="A288" s="4">
         <v>9</v>
       </c>
@@ -9460,13 +9383,13 @@
         <v>31</v>
       </c>
       <c r="C288" s="56" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D288" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E288" s="55" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F288" s="34">
         <v>6.9</v>
@@ -9475,25 +9398,25 @@
         <v>107</v>
       </c>
       <c r="I288" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="J288" s="82" t="s">
         <v>437</v>
       </c>
-      <c r="J288" s="82" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="289" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B289" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C289" s="52" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E289" s="36" t="s">
         <v>279</v>
       </c>
       <c r="I289" s="85"/>
     </row>
-    <row r="290" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B290" s="10" t="s">
         <v>35</v>
       </c>
@@ -9502,7 +9425,7 @@
       </c>
       <c r="I290" s="85"/>
     </row>
-    <row r="291" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B291" s="10" t="s">
         <v>37</v>
       </c>
@@ -9511,7 +9434,7 @@
       </c>
       <c r="I291" s="85"/>
     </row>
-    <row r="292" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B292" s="10" t="s">
         <v>39</v>
       </c>
@@ -9520,7 +9443,7 @@
       </c>
       <c r="I292" s="85"/>
     </row>
-    <row r="293" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B293" s="10" t="s">
         <v>41</v>
       </c>
@@ -9529,7 +9452,7 @@
       </c>
       <c r="I293" s="85"/>
     </row>
-    <row r="294" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B294" s="10" t="s">
         <v>43</v>
       </c>
@@ -9538,7 +9461,7 @@
       </c>
       <c r="I294" s="85"/>
     </row>
-    <row r="295" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B295" s="10" t="s">
         <v>45</v>
       </c>
@@ -9547,13 +9470,13 @@
       </c>
       <c r="I295" s="85"/>
     </row>
-    <row r="296" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B296" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I296" s="85"/>
     </row>
-    <row r="297" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C297" s="12" t="s">
         <v>48</v>
       </c>
@@ -9574,7 +9497,7 @@
       </c>
       <c r="I297" s="85"/>
     </row>
-    <row r="298" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C298" s="12" t="s">
         <v>165</v>
       </c>
@@ -9595,7 +9518,7 @@
       </c>
       <c r="I298" s="85"/>
     </row>
-    <row r="299" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C299" s="10" t="s">
         <v>282</v>
       </c>
@@ -9616,16 +9539,16 @@
       </c>
       <c r="I299" s="85"/>
     </row>
-    <row r="300" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:9" hidden="1" outlineLevel="1">
       <c r="I300" s="85"/>
     </row>
-    <row r="301" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B301" s="2" t="s">
         <v>282</v>
       </c>
       <c r="I301" s="85"/>
     </row>
-    <row r="302" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C302" s="12" t="s">
         <v>48</v>
       </c>
@@ -9646,9 +9569,9 @@
       </c>
       <c r="I302" s="85"/>
     </row>
-    <row r="303" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C303" s="52" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D303" s="10" t="s">
         <v>88</v>
@@ -9665,9 +9588,9 @@
       <c r="H303" s="62"/>
       <c r="I303" s="85"/>
     </row>
-    <row r="304" spans="2:9" s="3" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:9" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C304" s="57" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D304" s="37" t="s">
         <v>286</v>
@@ -9684,9 +9607,9 @@
       <c r="H304" s="62"/>
       <c r="I304" s="86"/>
     </row>
-    <row r="305" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C305" s="52" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D305" s="10" t="s">
         <v>287</v>
@@ -9705,7 +9628,7 @@
       </c>
       <c r="I305" s="85"/>
     </row>
-    <row r="306" spans="2:10" s="3" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:10" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C306" s="38"/>
       <c r="D306" s="38"/>
       <c r="E306" s="39"/>
@@ -9714,13 +9637,13 @@
       <c r="H306" s="39"/>
       <c r="I306" s="86"/>
     </row>
-    <row r="307" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B307" s="2" t="s">
         <v>289</v>
       </c>
       <c r="I307" s="85"/>
     </row>
-    <row r="308" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C308" s="12" t="s">
         <v>48</v>
       </c>
@@ -9744,7 +9667,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="309" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C309" s="10" t="s">
         <v>290</v>
       </c>
@@ -9766,7 +9689,7 @@
       <c r="I309" s="85"/>
       <c r="J309" s="72"/>
     </row>
-    <row r="310" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C310" s="10" t="s">
         <v>159</v>
       </c>
@@ -9788,7 +9711,7 @@
       <c r="I310" s="85"/>
       <c r="J310" s="72"/>
     </row>
-    <row r="311" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C311" s="10" t="s">
         <v>293</v>
       </c>
@@ -9812,9 +9735,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="312" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C312" s="59" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D312" s="17" t="s">
         <v>296</v>
@@ -9834,7 +9757,7 @@
       <c r="I312" s="85"/>
       <c r="J312" s="72"/>
     </row>
-    <row r="313" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C313" s="17" t="s">
         <v>297</v>
       </c>
@@ -9856,13 +9779,13 @@
       <c r="I313" s="85"/>
       <c r="J313" s="72"/>
     </row>
-    <row r="314" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B314" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I314" s="85"/>
     </row>
-    <row r="315" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C315" s="12" t="s">
         <v>48</v>
       </c>
@@ -9877,7 +9800,7 @@
       </c>
       <c r="I315" s="85"/>
     </row>
-    <row r="316" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C316" s="12" t="s">
         <v>29</v>
       </c>
@@ -9892,7 +9815,7 @@
       </c>
       <c r="I316" s="85"/>
     </row>
-    <row r="317" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C317" s="12" t="s">
         <v>180</v>
       </c>
@@ -9907,7 +9830,7 @@
       </c>
       <c r="I317" s="85"/>
     </row>
-    <row r="318" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C318" s="12" t="s">
         <v>182</v>
       </c>
@@ -9922,16 +9845,16 @@
       </c>
       <c r="I318" s="85"/>
     </row>
-    <row r="319" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:10" hidden="1" outlineLevel="1">
       <c r="I319" s="85"/>
     </row>
-    <row r="320" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B320" s="2" t="s">
         <v>191</v>
       </c>
       <c r="I320" s="85"/>
     </row>
-    <row r="321" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C321" s="12" t="s">
         <v>69</v>
       </c>
@@ -9943,7 +9866,7 @@
       </c>
       <c r="I321" s="85"/>
     </row>
-    <row r="322" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C322" s="12">
         <v>200</v>
       </c>
@@ -9955,7 +9878,7 @@
       </c>
       <c r="I322" s="85"/>
     </row>
-    <row r="323" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C323" s="12">
         <v>201</v>
       </c>
@@ -9967,7 +9890,7 @@
       </c>
       <c r="I323" s="85"/>
     </row>
-    <row r="324" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C324" s="12">
         <v>401</v>
       </c>
@@ -9979,7 +9902,7 @@
       </c>
       <c r="I324" s="85"/>
     </row>
-    <row r="325" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C325" s="12">
         <v>403</v>
       </c>
@@ -9991,7 +9914,7 @@
       </c>
       <c r="I325" s="85"/>
     </row>
-    <row r="326" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C326" s="12">
         <v>404</v>
       </c>
@@ -10003,13 +9926,13 @@
       </c>
       <c r="I326" s="85"/>
     </row>
-    <row r="327" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I327" s="85"/>
     </row>
-    <row r="328" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I328" s="85"/>
     </row>
-    <row r="329" spans="1:10" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" s="4" customFormat="1" collapsed="1">
       <c r="A329" s="4">
         <v>10</v>
       </c>
@@ -10017,13 +9940,13 @@
         <v>31</v>
       </c>
       <c r="C329" s="56" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D329" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E329" s="55" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F329" s="34" t="s">
         <v>22</v>
@@ -10032,22 +9955,22 @@
         <v>300</v>
       </c>
       <c r="I329" s="81" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J329" s="82" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B330" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C330" s="52" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I330" s="85"/>
     </row>
-    <row r="331" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B331" s="10" t="s">
         <v>35</v>
       </c>
@@ -10056,7 +9979,7 @@
       </c>
       <c r="I331" s="85"/>
     </row>
-    <row r="332" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B332" s="10" t="s">
         <v>37</v>
       </c>
@@ -10065,7 +9988,7 @@
       </c>
       <c r="I332" s="85"/>
     </row>
-    <row r="333" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B333" s="10" t="s">
         <v>39</v>
       </c>
@@ -10074,7 +9997,7 @@
       </c>
       <c r="I333" s="85"/>
     </row>
-    <row r="334" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B334" s="10" t="s">
         <v>41</v>
       </c>
@@ -10083,7 +10006,7 @@
       </c>
       <c r="I334" s="85"/>
     </row>
-    <row r="335" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B335" s="10" t="s">
         <v>43</v>
       </c>
@@ -10092,7 +10015,7 @@
       </c>
       <c r="I335" s="85"/>
     </row>
-    <row r="336" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B336" s="10" t="s">
         <v>45</v>
       </c>
@@ -10101,13 +10024,13 @@
       </c>
       <c r="I336" s="85"/>
     </row>
-    <row r="337" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:11" hidden="1" outlineLevel="1">
       <c r="B337" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I337" s="85"/>
     </row>
-    <row r="338" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C338" s="12" t="s">
         <v>48</v>
       </c>
@@ -10131,7 +10054,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="339" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C339" s="12" t="s">
         <v>165</v>
       </c>
@@ -10153,7 +10076,7 @@
       <c r="I339" s="85"/>
       <c r="J339" s="72"/>
     </row>
-    <row r="340" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C340" s="10" t="s">
         <v>304</v>
       </c>
@@ -10177,16 +10100,16 @@
         <v>306</v>
       </c>
     </row>
-    <row r="341" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:11" hidden="1" outlineLevel="1">
       <c r="I341" s="85"/>
     </row>
-    <row r="342" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:11" hidden="1" outlineLevel="1">
       <c r="B342" s="2" t="s">
         <v>304</v>
       </c>
       <c r="I342" s="85"/>
     </row>
-    <row r="343" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C343" s="12" t="s">
         <v>48</v>
       </c>
@@ -10213,9 +10136,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="344" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C344" s="52" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D344" s="10" t="s">
         <v>256</v>
@@ -10236,9 +10159,9 @@
       </c>
       <c r="K344" s="12"/>
     </row>
-    <row r="345" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C345" s="52" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D345" s="10" t="s">
         <v>307</v>
@@ -10261,9 +10184,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="346" spans="2:11" s="5" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:11" s="5" customFormat="1" hidden="1" outlineLevel="1">
       <c r="C346" s="58" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D346" s="44" t="s">
         <v>310</v>
@@ -10280,12 +10203,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="347" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C347" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="D347" s="52" t="s">
         <v>429</v>
-      </c>
-      <c r="D347" s="52" t="s">
-        <v>432</v>
       </c>
       <c r="E347" s="12" t="s">
         <v>90</v>
@@ -10305,9 +10228,9 @@
       </c>
       <c r="K347" s="12"/>
     </row>
-    <row r="348" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C348" s="59" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D348" s="17" t="s">
         <v>314</v>
@@ -10328,9 +10251,9 @@
       </c>
       <c r="K348" s="12"/>
     </row>
-    <row r="349" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C349" s="52" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D349" s="10" t="s">
         <v>296</v>
@@ -10350,12 +10273,12 @@
         <v>296</v>
       </c>
       <c r="K349" s="52" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="350" spans="2:11" hidden="1" outlineLevel="1">
+      <c r="C350" s="52" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="350" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C350" s="52" t="s">
-        <v>417</v>
       </c>
       <c r="D350" s="10" t="s">
         <v>316</v>
@@ -10372,13 +10295,13 @@
       <c r="H350" s="62"/>
       <c r="I350" s="85"/>
       <c r="J350" s="78" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K350" s="52" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="351" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="351" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C351" s="19"/>
       <c r="D351" s="19"/>
       <c r="E351" s="21"/>
@@ -10388,7 +10311,7 @@
       <c r="I351" s="85"/>
       <c r="J351" s="2"/>
     </row>
-    <row r="352" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:11" hidden="1" outlineLevel="1">
       <c r="B352" s="2" t="s">
         <v>289</v>
       </c>
@@ -10397,7 +10320,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="353" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C353" s="12" t="s">
         <v>48</v>
       </c>
@@ -10421,7 +10344,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="354" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C354" s="10" t="s">
         <v>318</v>
       </c>
@@ -10445,7 +10368,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="355" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C355" s="10" t="s">
         <v>159</v>
       </c>
@@ -10467,7 +10390,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="356" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C356" s="42" t="s">
         <v>293</v>
       </c>
@@ -10489,7 +10412,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="357" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C357" s="42" t="s">
         <v>297</v>
       </c>
@@ -10511,7 +10434,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="358" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C358" s="41" t="s">
         <v>151</v>
       </c>
@@ -10533,7 +10456,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="359" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C359" s="41" t="s">
         <v>103</v>
       </c>
@@ -10555,16 +10478,16 @@
         <v>299</v>
       </c>
     </row>
-    <row r="360" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:10" hidden="1" outlineLevel="1">
       <c r="I360" s="85"/>
     </row>
-    <row r="361" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B361" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I361" s="85"/>
     </row>
-    <row r="362" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C362" s="12" t="s">
         <v>48</v>
       </c>
@@ -10579,7 +10502,7 @@
       </c>
       <c r="I362" s="85"/>
     </row>
-    <row r="363" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C363" s="12" t="s">
         <v>29</v>
       </c>
@@ -10594,7 +10517,7 @@
       </c>
       <c r="I363" s="85"/>
     </row>
-    <row r="364" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C364" s="12" t="s">
         <v>180</v>
       </c>
@@ -10609,7 +10532,7 @@
       </c>
       <c r="I364" s="85"/>
     </row>
-    <row r="365" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C365" s="12" t="s">
         <v>182</v>
       </c>
@@ -10624,16 +10547,16 @@
       </c>
       <c r="I365" s="85"/>
     </row>
-    <row r="366" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:10" hidden="1" outlineLevel="1">
       <c r="I366" s="85"/>
     </row>
-    <row r="367" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:10" hidden="1" outlineLevel="1">
       <c r="B367" s="2" t="s">
         <v>191</v>
       </c>
       <c r="I367" s="85"/>
     </row>
-    <row r="368" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:10" hidden="1" outlineLevel="1">
       <c r="C368" s="12" t="s">
         <v>69</v>
       </c>
@@ -10645,7 +10568,7 @@
       </c>
       <c r="I368" s="85"/>
     </row>
-    <row r="369" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C369" s="12">
         <v>200</v>
       </c>
@@ -10657,7 +10580,7 @@
       </c>
       <c r="I369" s="85"/>
     </row>
-    <row r="370" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C370" s="12">
         <v>201</v>
       </c>
@@ -10669,7 +10592,7 @@
       </c>
       <c r="I370" s="85"/>
     </row>
-    <row r="371" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C371" s="12">
         <v>401</v>
       </c>
@@ -10681,7 +10604,7 @@
       </c>
       <c r="I371" s="85"/>
     </row>
-    <row r="372" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C372" s="12">
         <v>403</v>
       </c>
@@ -10693,7 +10616,7 @@
       </c>
       <c r="I372" s="85"/>
     </row>
-    <row r="373" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C373" s="12">
         <v>404</v>
       </c>
@@ -10705,10 +10628,10 @@
       </c>
       <c r="I373" s="85"/>
     </row>
-    <row r="374" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I374" s="85"/>
     </row>
-    <row r="375" spans="1:10" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" s="4" customFormat="1" collapsed="1">
       <c r="A375" s="4">
         <v>11</v>
       </c>
@@ -10722,7 +10645,7 @@
         <v>32</v>
       </c>
       <c r="E375" s="33" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F375" s="34">
         <v>6.11</v>
@@ -10731,22 +10654,22 @@
         <v>300</v>
       </c>
       <c r="I375" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="J375" s="82" t="s">
         <v>437</v>
       </c>
-      <c r="J375" s="82" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B376" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C376" s="52" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I376" s="89"/>
     </row>
-    <row r="377" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B377" s="10" t="s">
         <v>35</v>
       </c>
@@ -10755,7 +10678,7 @@
       </c>
       <c r="I377" s="85"/>
     </row>
-    <row r="378" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B378" s="10" t="s">
         <v>37</v>
       </c>
@@ -10764,7 +10687,7 @@
       </c>
       <c r="I378" s="85"/>
     </row>
-    <row r="379" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B379" s="10" t="s">
         <v>39</v>
       </c>
@@ -10773,7 +10696,7 @@
       </c>
       <c r="I379" s="85"/>
     </row>
-    <row r="380" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B380" s="10" t="s">
         <v>41</v>
       </c>
@@ -10782,7 +10705,7 @@
       </c>
       <c r="I380" s="85"/>
     </row>
-    <row r="381" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B381" s="10" t="s">
         <v>43</v>
       </c>
@@ -10791,7 +10714,7 @@
       </c>
       <c r="I381" s="85"/>
     </row>
-    <row r="382" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B382" s="10" t="s">
         <v>45</v>
       </c>
@@ -10800,13 +10723,13 @@
       </c>
       <c r="I382" s="85"/>
     </row>
-    <row r="383" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B383" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I383" s="85"/>
     </row>
-    <row r="384" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C384" s="12" t="s">
         <v>48</v>
       </c>
@@ -10827,7 +10750,7 @@
       </c>
       <c r="I384" s="85"/>
     </row>
-    <row r="385" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:17" hidden="1" outlineLevel="1">
       <c r="C385" s="12" t="s">
         <v>165</v>
       </c>
@@ -10848,9 +10771,9 @@
       </c>
       <c r="I385" s="85"/>
     </row>
-    <row r="386" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:17" hidden="1" outlineLevel="1">
       <c r="C386" s="82" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D386" s="12" t="s">
         <v>326</v>
@@ -10869,7 +10792,7 @@
       </c>
       <c r="I386" s="85"/>
     </row>
-    <row r="387" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:17" hidden="1" outlineLevel="1">
       <c r="C387" s="10" t="s">
         <v>315</v>
       </c>
@@ -10893,10 +10816,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="388" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:17" hidden="1" outlineLevel="1">
       <c r="I388" s="85"/>
     </row>
-    <row r="389" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B389" s="2" t="s">
         <v>327</v>
       </c>
@@ -10908,7 +10831,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="390" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:17" hidden="1" outlineLevel="1">
       <c r="C390" s="12" t="s">
         <v>48</v>
       </c>
@@ -10935,9 +10858,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="391" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:17" hidden="1" outlineLevel="1">
       <c r="C391" s="82" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D391" s="12" t="s">
         <v>202</v>
@@ -10959,12 +10882,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="392" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:17" hidden="1" outlineLevel="1">
       <c r="C392" s="82" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D392" s="82" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E392" s="12" t="s">
         <v>90</v>
@@ -10983,7 +10906,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="393" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:17" hidden="1" outlineLevel="1">
       <c r="C393" s="10" t="s">
         <v>334</v>
       </c>
@@ -11007,9 +10930,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="394" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:17" hidden="1" outlineLevel="1">
       <c r="C394" s="83" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D394" s="35" t="s">
         <v>336</v>
@@ -11031,7 +10954,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="395" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:17" hidden="1" outlineLevel="1">
       <c r="C395" s="21"/>
       <c r="D395" s="21"/>
       <c r="E395" s="21"/>
@@ -11041,7 +10964,7 @@
       <c r="I395" s="90"/>
       <c r="K395" s="18"/>
     </row>
-    <row r="396" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B396" s="2" t="s">
         <v>339</v>
       </c>
@@ -11054,7 +10977,7 @@
       </c>
       <c r="K396" s="18"/>
     </row>
-    <row r="397" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:17" hidden="1" outlineLevel="1">
       <c r="B397" s="2"/>
       <c r="C397" s="12" t="s">
         <v>48</v>
@@ -11077,7 +11000,7 @@
       <c r="I397" s="90"/>
       <c r="K397" s="18"/>
     </row>
-    <row r="398" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:17" hidden="1" outlineLevel="1">
       <c r="C398" s="35" t="s">
         <v>341</v>
       </c>
@@ -11099,7 +11022,7 @@
       <c r="I398" s="90"/>
       <c r="K398" s="18"/>
     </row>
-    <row r="399" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:17" hidden="1" outlineLevel="1">
       <c r="C399" s="35" t="s">
         <v>343</v>
       </c>
@@ -11124,20 +11047,20 @@
       </c>
       <c r="K399" s="18"/>
     </row>
-    <row r="400" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:17" hidden="1" outlineLevel="1">
       <c r="C400" s="18"/>
       <c r="E400" s="18"/>
       <c r="G400" s="18"/>
       <c r="I400" s="90"/>
       <c r="K400" s="18"/>
     </row>
-    <row r="401" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B401" s="2" t="s">
         <v>203</v>
       </c>
       <c r="I401" s="85"/>
     </row>
-    <row r="402" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C402" s="12" t="s">
         <v>48</v>
       </c>
@@ -11158,7 +11081,7 @@
       </c>
       <c r="I402" s="85"/>
     </row>
-    <row r="403" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C403" s="12" t="s">
         <v>226</v>
       </c>
@@ -11179,7 +11102,7 @@
       </c>
       <c r="I403" s="85"/>
     </row>
-    <row r="404" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C404" s="12" t="s">
         <v>228</v>
       </c>
@@ -11200,7 +11123,7 @@
       </c>
       <c r="I404" s="85"/>
     </row>
-    <row r="405" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C405" s="12" t="s">
         <v>230</v>
       </c>
@@ -11221,7 +11144,7 @@
       </c>
       <c r="I405" s="85"/>
     </row>
-    <row r="406" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C406" s="12" t="s">
         <v>232</v>
       </c>
@@ -11242,7 +11165,7 @@
       </c>
       <c r="I406" s="85"/>
     </row>
-    <row r="407" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C407" s="12" t="s">
         <v>234</v>
       </c>
@@ -11263,16 +11186,16 @@
       </c>
       <c r="I407" s="85"/>
     </row>
-    <row r="408" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:9" hidden="1" outlineLevel="1">
       <c r="I408" s="85"/>
     </row>
-    <row r="409" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B409" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I409" s="85"/>
     </row>
-    <row r="410" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C410" s="12" t="s">
         <v>48</v>
       </c>
@@ -11287,7 +11210,7 @@
       </c>
       <c r="I410" s="85"/>
     </row>
-    <row r="411" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C411" s="12" t="s">
         <v>29</v>
       </c>
@@ -11302,7 +11225,7 @@
       </c>
       <c r="I411" s="85"/>
     </row>
-    <row r="412" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C412" s="12" t="s">
         <v>180</v>
       </c>
@@ -11317,7 +11240,7 @@
       </c>
       <c r="I412" s="85"/>
     </row>
-    <row r="413" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C413" s="12" t="s">
         <v>182</v>
       </c>
@@ -11332,16 +11255,16 @@
       </c>
       <c r="I413" s="85"/>
     </row>
-    <row r="414" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:9" hidden="1" outlineLevel="1">
       <c r="I414" s="85"/>
     </row>
-    <row r="415" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:9" hidden="1" outlineLevel="1">
       <c r="B415" s="2" t="s">
         <v>191</v>
       </c>
       <c r="I415" s="85"/>
     </row>
-    <row r="416" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:9" hidden="1" outlineLevel="1">
       <c r="C416" s="12" t="s">
         <v>69</v>
       </c>
@@ -11353,7 +11276,7 @@
       </c>
       <c r="I416" s="85"/>
     </row>
-    <row r="417" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C417" s="12">
         <v>200</v>
       </c>
@@ -11365,7 +11288,7 @@
       </c>
       <c r="I417" s="85"/>
     </row>
-    <row r="418" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C418" s="12">
         <v>201</v>
       </c>
@@ -11377,7 +11300,7 @@
       </c>
       <c r="I418" s="85"/>
     </row>
-    <row r="419" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C419" s="12">
         <v>401</v>
       </c>
@@ -11389,7 +11312,7 @@
       </c>
       <c r="I419" s="85"/>
     </row>
-    <row r="420" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C420" s="12">
         <v>403</v>
       </c>
@@ -11401,7 +11324,7 @@
       </c>
       <c r="I420" s="85"/>
     </row>
-    <row r="421" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" hidden="1" outlineLevel="1">
       <c r="C421" s="12">
         <v>404</v>
       </c>
@@ -11413,10 +11336,10 @@
       </c>
       <c r="I421" s="85"/>
     </row>
-    <row r="422" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" hidden="1" outlineLevel="1">
       <c r="I422" s="85"/>
     </row>
-    <row r="423" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10">
       <c r="A423">
         <v>12</v>
       </c>
@@ -11439,13 +11362,13 @@
         <v>348</v>
       </c>
       <c r="I423" s="81" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J423" s="82" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="424" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" outlineLevel="1">
       <c r="B424" s="12" t="str">
         <f>B3</f>
         <v>接⼝地址</v>
@@ -11454,7 +11377,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="425" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" outlineLevel="1">
       <c r="B425" s="10" t="s">
         <v>37</v>
       </c>
@@ -11462,7 +11385,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="426" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" outlineLevel="1">
       <c r="B426" s="10" t="s">
         <v>35</v>
       </c>
@@ -11470,7 +11393,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="427" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" outlineLevel="1">
       <c r="B427" s="12" t="str">
         <f>B6</f>
         <v>请求⽅式</v>
@@ -11480,7 +11403,7 @@
         <v>POST</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" outlineLevel="1">
       <c r="B428" s="12" t="str">
         <f>B7</f>
         <v>接⼝描述</v>
@@ -11489,7 +11412,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" outlineLevel="1">
       <c r="B429" s="10" t="s">
         <v>43</v>
       </c>
@@ -11497,7 +11420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="430" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" outlineLevel="1">
       <c r="B430" s="10" t="s">
         <v>45</v>
       </c>
@@ -11505,12 +11428,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" outlineLevel="1">
       <c r="B431" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="432" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" outlineLevel="1">
       <c r="C432" s="12" t="s">
         <v>48</v>
       </c>
@@ -11533,7 +11456,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="433" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:11" outlineLevel="1">
       <c r="C433" s="12" t="s">
         <v>165</v>
       </c>
@@ -11554,7 +11477,7 @@
       </c>
       <c r="J433" s="12"/>
     </row>
-    <row r="434" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:11" outlineLevel="1">
       <c r="C434" s="12" t="s">
         <v>353</v>
       </c>
@@ -11575,35 +11498,39 @@
       </c>
       <c r="J434" s="12"/>
     </row>
-    <row r="435" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C435" s="12" t="s">
+    <row r="435" spans="2:11" s="3" customFormat="1" outlineLevel="1">
+      <c r="C435" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D435" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="D435" s="10" t="s">
+      <c r="E435" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F435" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G435" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H435" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I435" s="92"/>
+      <c r="J435" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E435" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F435" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G435" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H435" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J435" s="10" t="s">
+      <c r="K435" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="436" spans="2:11" outlineLevel="1">
+      <c r="C436" s="10" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="436" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C436" s="10" t="s">
+      <c r="D436" s="12" t="s">
         <v>358</v>
-      </c>
-      <c r="D436" s="12" t="s">
-        <v>359</v>
       </c>
       <c r="E436" s="12" t="s">
         <v>90</v>
@@ -11621,12 +11548,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="437" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:11" outlineLevel="1">
       <c r="C437" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D437" s="12" t="s">
         <v>360</v>
-      </c>
-      <c r="D437" s="12" t="s">
-        <v>361</v>
       </c>
       <c r="E437" s="10" t="s">
         <v>90</v>
@@ -11642,16 +11569,16 @@
       </c>
       <c r="J437" s="12"/>
     </row>
-    <row r="438" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:11" outlineLevel="1">
       <c r="C438" s="18"/>
       <c r="D438" s="18"/>
     </row>
-    <row r="439" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B439" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="440" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:11" outlineLevel="1">
+      <c r="B439" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="440" spans="2:11" outlineLevel="1">
       <c r="C440" s="12" t="s">
         <v>31</v>
       </c>
@@ -11672,12 +11599,12 @@
       </c>
       <c r="J440" s="12"/>
     </row>
-    <row r="441" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:11" outlineLevel="1">
       <c r="C441" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D441" s="12" t="s">
         <v>362</v>
-      </c>
-      <c r="D441" s="12" t="s">
-        <v>363</v>
       </c>
       <c r="E441" s="12" t="s">
         <v>90</v>
@@ -11693,12 +11620,12 @@
       </c>
       <c r="J441" s="12"/>
     </row>
-    <row r="442" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:11" outlineLevel="1">
       <c r="C442" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D442" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="D442" s="12" t="s">
-        <v>365</v>
       </c>
       <c r="E442" s="12" t="s">
         <v>90</v>
@@ -11714,12 +11641,12 @@
       </c>
       <c r="J442" s="12"/>
     </row>
-    <row r="443" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:11" outlineLevel="1">
       <c r="C443" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D443" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="D443" s="12" t="s">
-        <v>367</v>
       </c>
       <c r="E443" s="12" t="s">
         <v>90</v>
@@ -11734,15 +11661,15 @@
         <v>125</v>
       </c>
       <c r="J443" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="444" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="444" spans="2:11" outlineLevel="1">
       <c r="C444" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D444" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E444" s="12" t="s">
         <v>90</v>
@@ -11757,18 +11684,18 @@
         <v>125</v>
       </c>
       <c r="J444" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="K444" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="K444" s="18" t="s">
+    </row>
+    <row r="445" spans="2:11" ht="15" outlineLevel="1">
+      <c r="C445" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="D445" s="17" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="445" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C445" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="D445" s="17" t="s">
-        <v>373</v>
       </c>
       <c r="E445" s="12" t="s">
         <v>90</v>
@@ -11782,24 +11709,24 @@
       <c r="H445" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="J445" s="52" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="446" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C446" s="18"/>
-      <c r="D446" s="18"/>
+      <c r="J445" s="93" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="446" spans="2:11" outlineLevel="1">
+      <c r="C446" s="21"/>
+      <c r="D446" s="19"/>
       <c r="E446" s="21"/>
       <c r="F446" s="31"/>
       <c r="G446" s="21"/>
       <c r="H446" s="21"/>
     </row>
-    <row r="447" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:11" outlineLevel="1">
       <c r="B447" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="448" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:11" outlineLevel="1">
       <c r="C448" s="12" t="s">
         <v>69</v>
       </c>
@@ -11810,7 +11737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="449" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:6" outlineLevel="1">
       <c r="C449" s="12">
         <v>200</v>
       </c>
@@ -11821,7 +11748,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="450" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:6" outlineLevel="1">
       <c r="C450" s="12">
         <v>401</v>
       </c>
@@ -11832,7 +11759,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="451" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:6" outlineLevel="1">
       <c r="C451" s="12">
         <v>403</v>
       </c>
@@ -11843,7 +11770,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="452" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:6" outlineLevel="1">
       <c r="C452" s="12">
         <v>404</v>
       </c>
@@ -11854,13 +11781,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="453" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="454" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:6" outlineLevel="1"/>
+    <row r="454" spans="2:6" outlineLevel="1">
       <c r="B454" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="455" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:6" outlineLevel="1">
       <c r="C455" s="12" t="s">
         <v>48</v>
       </c>
@@ -11874,7 +11801,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="456" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:6" outlineLevel="1">
       <c r="C456" s="12" t="s">
         <v>29</v>
       </c>
@@ -11888,7 +11815,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="457" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:6" outlineLevel="1">
       <c r="C457" s="12" t="s">
         <v>180</v>
       </c>
@@ -11902,274 +11829,241 @@
         <v>125</v>
       </c>
     </row>
-    <row r="458" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:6" outlineLevel="1">
       <c r="C458" s="12" t="s">
         <v>182</v>
       </c>
       <c r="D458" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E458" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F458" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:6">
       <c r="C459" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="69" operator="equal">
       <formula>"蓝"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="69" operator="equal">
       <formula>"黄"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
       <formula>"红"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="71" operator="equal">
       <formula>"绿"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="67" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="68" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="65" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
       <formula>"蓝"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="-1" operator="equal">
-      <formula>"黄"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
       <formula>"红"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
       <formula>"绿"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="57" operator="equal">
       <formula>"蓝"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="-1" operator="equal">
-      <formula>"黄"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
       <formula>"红"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="59" operator="equal">
       <formula>"绿"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="55" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="56" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="51" operator="equal">
       <formula>"蓝"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="-1" operator="equal">
-      <formula>"黄"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
       <formula>"红"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="53" operator="equal">
       <formula>"绿"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="50" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
       <formula>"蓝"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="-1" operator="equal">
-      <formula>"黄"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>"红"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
       <formula>"绿"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="43" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="44" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I155">
-    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
       <formula>"蓝"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="-1" operator="equal">
-      <formula>"黄"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="40" operator="equal">
       <formula>"红"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="41" operator="equal">
       <formula>"绿"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I155">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I203">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>"蓝"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="-1" operator="equal">
-      <formula>"黄"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
       <formula>"红"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
       <formula>"绿"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I203">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I238">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>"蓝"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="-1" operator="equal">
-      <formula>"黄"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>"红"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>"绿"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I238">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I288">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"蓝"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="-1" operator="equal">
-      <formula>"黄"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"红"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>"绿"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I288">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I329">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"蓝"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="-1" operator="equal">
-      <formula>"黄"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"红"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"绿"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I329">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I375">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"蓝"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="-1" operator="equal">
-      <formula>"黄"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"红"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"绿"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I375">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I423">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"蓝"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="-1" operator="equal">
-      <formula>"黄"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"红"</formula>
@@ -12206,43 +12100,43 @@
       <selection activeCell="AK62" sqref="AK62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="C6" s="2"/>
       <c r="D6">
         <v>1</v>
@@ -12251,23 +12145,23 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="D9" s="2">
         <v>2</v>
       </c>
@@ -12275,15 +12169,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="D11" s="2">
         <v>1</v>
       </c>
@@ -12291,15 +12185,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5">
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="D13" s="2">
         <v>1</v>
       </c>
@@ -12307,146 +12201,146 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="D14" s="2">
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26">
       <c r="C17">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="U17" t="s">
         <v>285</v>
       </c>
       <c r="W17" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26">
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26">
       <c r="C19">
         <v>8</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26">
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="X20" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z20" t="s">
         <v>391</v>
       </c>
-      <c r="X20" t="s">
-        <v>392</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:26">
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26">
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26">
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26">
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E25" s="51"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26">
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26">
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26">
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I28" s="49" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="55" spans="13:15" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="55" spans="13:15">
       <c r="M55" s="49"/>
     </row>
-    <row r="57" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="13:15">
       <c r="O57" s="49" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
